--- a/data/indikatorer.xlsx
+++ b/data/indikatorer.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anders.kolstad\Documents\Github\indikatoroversikt\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D0CFD38-FD52-4208-B607-4C8ADBDF73F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0006AEE-4345-4B68-AFED-C2C6EED9E267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{755B2D29-11E6-40FC-B47B-120341420DDA}"/>
   </bookViews>
   <sheets>
     <sheet name="Indikatoroversikt" sheetId="3" r:id="rId1"/>
-    <sheet name="clipboard" sheetId="1" r:id="rId2"/>
-    <sheet name="Dekningsgrad" sheetId="2" r:id="rId3"/>
-    <sheet name="lookup" sheetId="4" r:id="rId4"/>
+    <sheet name="utvalg" sheetId="5" r:id="rId2"/>
+    <sheet name="lookup" sheetId="4" r:id="rId3"/>
+    <sheet name="clipboard" sheetId="1" r:id="rId4"/>
+    <sheet name="Gammel - Dekningsgrad" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="184">
   <si>
     <t>PAEC pilot Trøndelg</t>
   </si>
@@ -264,9 +265,6 @@
     <t>Class C1. Landscape and seascape characteristics</t>
   </si>
   <si>
-    <t>Samme datasett, men brukt noe forskjellig i de to metodene.</t>
-  </si>
-  <si>
     <t>Ellenberg F</t>
   </si>
   <si>
@@ -294,16 +292,7 @@
     <t>Humler i åpent lavland</t>
   </si>
   <si>
-    <t>Knytet til flere egenskaper</t>
-  </si>
-  <si>
     <t>Dagsommerfugler i åpent lavland</t>
-  </si>
-  <si>
-    <t>Også brukt under biologisk mangfold</t>
-  </si>
-  <si>
-    <t>Også brukt under funksjonelt viktige arter, men der tror jeg ikke sommerfugler hører hjemme</t>
   </si>
   <si>
     <t>Aktuell bruksintensitet</t>
@@ -346,9 +335,6 @@
 GRUK-dekningsgrad</t>
   </si>
   <si>
-    <t>Andre NDVI-relaterte indikatorer er også med i denne indikatore</t>
-  </si>
-  <si>
     <t>Ikke testet</t>
   </si>
   <si>
@@ -367,27 +353,15 @@
     <t>Insektovervåkingen</t>
   </si>
   <si>
-    <t>Satt under funksjonelle grupper i Nybø et al 2019 (IBECA piloten)</t>
-  </si>
-  <si>
     <t>Habitatdannende arter som torvmoser</t>
   </si>
   <si>
     <t>Mangler data</t>
   </si>
   <si>
-    <t>Grønn infrastruktur og konnektivitet </t>
-  </si>
-  <si>
-    <t>Mangler data, men vil kreve fjernmåling</t>
-  </si>
-  <si>
     <t>Snødekkets varighet</t>
   </si>
   <si>
-    <t>Brukt for fjell</t>
-  </si>
-  <si>
     <t>Pollinerende insekter</t>
   </si>
   <si>
@@ -424,9 +398,6 @@
     <t>Testet i pilot</t>
   </si>
   <si>
-    <t>Prioritet</t>
-  </si>
-  <si>
     <t>Naturindeks</t>
   </si>
   <si>
@@ -463,39 +434,200 @@
     <t>Humler og dagsimmerfulgler?</t>
   </si>
   <si>
-    <t>AR5 e.l.</t>
-  </si>
-  <si>
     <t>ASO</t>
   </si>
   <si>
     <t>Relatert til gjenngroingindikatoren</t>
   </si>
   <si>
+    <t>ANO, ASO</t>
+  </si>
+  <si>
+    <t>Knyttet til flere egenskaper</t>
+  </si>
+  <si>
+    <t>ja</t>
+  </si>
+  <si>
+    <t>NDVI / Maximum greenness</t>
+  </si>
+  <si>
+    <t>MODIS</t>
+  </si>
+  <si>
+    <t>Ingen er foresått i tidligere dokumenter, men det vil undersøkes om NDVI kan brukes også her.</t>
+  </si>
+  <si>
+    <t>Alternative indikatorprosjekt</t>
+  </si>
+  <si>
+    <t>Onset of greening;
+Biomasse vegetasjon</t>
+  </si>
+  <si>
+    <t>Prioritert indikatorprosjekt</t>
+  </si>
+  <si>
+    <t>ANO</t>
+  </si>
+  <si>
+    <t>Naturtper etter Miljødirektoratets Instruks</t>
+  </si>
+  <si>
+    <t>INON, m.m.</t>
+  </si>
+  <si>
+    <t>Det er utviklet og foreslått flere relaterte indkatorer for egenskapen landskapsøkologiske mønstre som alle handler om konnektivitet på en eller annen måte. For eksempel,  Arealer uten tekniske inngrep, konnektovotet/framentering, og grønn infrasrtuktur. Disse behandles sammen her. Det er ikke alle som er klare for bruk. Det er ikke foreslått none slik indkatorer for semi-naturlig mark, men det bør alikevel vurderes.</t>
+  </si>
+  <si>
+    <t>Konnektivitet er ikke forslått tidligere for dette hovedøkosystemet, men det bør alikevel vurderes om det er fornuftig.</t>
+  </si>
+  <si>
+    <t>SSB</t>
+  </si>
+  <si>
+    <t>Dette er en påvirkningsfaktor. Dataene er ikke geografisk eksplisitte.</t>
+  </si>
+  <si>
+    <t>Jordkjemi;
+Ellenberg N</t>
+  </si>
+  <si>
+    <t>Jordkjemi;
+Hydrologi i våtmark;
+Ellenberg N</t>
+  </si>
+  <si>
+    <t>Jordkjemi;</t>
+  </si>
+  <si>
+    <t>Utfordringer knyttet til økosystemavgrensningen. Brukt som indikator i fjellrapporten, men også i PAECpiloten.</t>
+  </si>
+  <si>
+    <t>Utvalgt. Se også indikatoren Ground water condition during growing season som er brukt i PAECpiloten for Trøndelag.</t>
+  </si>
+  <si>
+    <t>SEAPOP</t>
+  </si>
+  <si>
+    <t>Denne indkatoren vil delvis finansieres gjenneom SEAPOP.</t>
+  </si>
+  <si>
+    <t>Naturindeks for våtmark og semi-naturlig mark for 2025 vil bli ferdigstilt i et annet prosjekt.</t>
+  </si>
+  <si>
+    <t>Ukjent</t>
+  </si>
+  <si>
+    <t>nei</t>
+  </si>
+  <si>
+    <t>ANO, ASO, GRUK</t>
+  </si>
+  <si>
+    <t>Relatert til areal uten dekning av trær, og til gjenngroingsindikatoren</t>
+  </si>
+  <si>
+    <t>Dette er en påvirkningsfaktor</t>
+  </si>
+  <si>
+    <t>Potensielt ANO, ASO, GRUK, fjernmåling</t>
+  </si>
+  <si>
+    <t>Gjengroing</t>
+  </si>
+  <si>
+    <t>Dette indikatorprosjektet må vurdere flere like indikatorer som har blitt foreslått til nå, inkludert 'areal uten dekning av vedplanter (våtmark), areal uten dekning av trær (semi-nat. og åpne områ-der), og ‘areal uten dekning av vedplanter i felt- og busksjikt i semi-naturlig eng og semi-naturlig strandeng’. Noen av disse indikatorene har også blitt ført under egenskapen 'Funksjonelle grupper innen trofiske nivå' og under 'Primærproduksjon'. Det er allikevel ønskelig at denne indikatoren spesielt vurderer egnetheten til ulike fjernmå-lingsprodukter for å designe en indikator for gjengroing.</t>
+  </si>
+  <si>
+    <t>Det er sansynelig at også 'Naturlig åpne områder-prosjektet' vil finne en indikator for denne egenskapen basert på GRUK-datasettet.</t>
+  </si>
+  <si>
+    <t>Gjenngroing;
+Ellenberg L</t>
+  </si>
+  <si>
+    <t>Diverse</t>
+  </si>
+  <si>
+    <t>Tetthet av beitedyr</t>
+  </si>
+  <si>
+    <t>NDVI / Maximum greenness;
+Tetthet av beitedyr</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Siden primærproduksjonen varierer relativt lite ift variasjonen i tettheten av beitedyr, så kan tettheten av beitedyr være en god indikator på egenskapen </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Fordeling av biomasse i ulike trofiske nivå </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">siden denne tettheten kan sies å representere potensialet for interaksjoner mellom trofiske nivå (beiting).
+Denne er relater til flere indikatorer brukt i PAEC, inkl. domestic/wild ungulate desnsity, </t>
+    </r>
+  </si>
+  <si>
+    <t>Utvalgt</t>
+  </si>
+  <si>
+    <t>Denne vurderes under indikatorprosjektet Tetthet av beitedyr</t>
+  </si>
+  <si>
+    <t>Insektbaserte indikatorer vurderes i inseksprosjektet</t>
+  </si>
+  <si>
+    <t>Denne vurderes i Naturtypekartleggingsprosjektet</t>
+  </si>
+  <si>
     <t>Uenig i piloten som putter denne i egenskapen primærproduksjon. Kanskje heller som en funskjonelt viktig gruppe?
-Relatert til gjenngroingindikatoren</t>
-  </si>
-  <si>
-    <t>Egentlig en påvirkningsfaktor</t>
-  </si>
-  <si>
-    <t>ANO, ASO</t>
-  </si>
-  <si>
-    <t>Relatert til areal uten dekning av trræ, og til gjenngroingsindikatoren</t>
-  </si>
-  <si>
-    <t>Utfordringer knyttet til økosystemavgrensningen.</t>
-  </si>
-  <si>
-    <t>Påvirkningsfaktor</t>
+Vurderes gjennom gjenngroingsindikatorprosjektet</t>
+  </si>
+  <si>
+    <t>Også brukt under biologisk mangfold. Insektbaserte indikatorer vurderes i inseksprosjektet</t>
+  </si>
+  <si>
+    <t>Også brukt under funksjonelt viktige arter, men der tror jeg ikke sommerfugler hører hjemme. Insektbaserte indikatorer vurderes i inseksprosjektet</t>
+  </si>
+  <si>
+    <t>Egentlig en påvirkningsvariabel</t>
+  </si>
+  <si>
+    <t>Vurderes i naturlig åpne områder-prosjektet</t>
+  </si>
+  <si>
+    <t>Satt under funksjonelle grupper i Nybø et al 2019 (IBECA piloten). Vurderes i Inseksprosjektet</t>
+  </si>
+  <si>
+    <t>Andre NDVI-relaterte indikatorer er også med i denne indikatoren. Denne indikatoren er ikke forslått for åpne områder, kanskje fordi arealene er så små at fjernmåling er vanskelig. Men indikatoren bør vurderes også her.</t>
+  </si>
+  <si>
+    <t>Jordkjemi (eks. karbonlager)
+Snødekkets varighet</t>
+  </si>
+  <si>
+    <t>Kanskje vil insektsprosjektet produsere en indikator som egner seg her</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -565,6 +697,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -595,7 +755,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -700,6 +860,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -707,7 +887,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -779,6 +959,27 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1123,13 +1324,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B3D1752-6B94-47E8-8107-A4E5AE38FB91}">
-  <dimension ref="A1:Q56"/>
+  <sheetPr>
+    <tabColor theme="9" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:Q54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P4" sqref="P4"/>
+      <selection pane="bottomRight" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1157,10 +1361,10 @@
         <v>60</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>85</v>
+        <v>134</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E1" s="18" t="s">
         <v>64</v>
@@ -1175,7 +1379,7 @@
         <v>61</v>
       </c>
       <c r="I1" s="17" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="J1" s="17" t="s">
         <v>66</v>
@@ -1190,10 +1394,10 @@
         <v>63</v>
       </c>
       <c r="N1" s="17" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="O1" s="17" t="s">
-        <v>128</v>
+        <v>171</v>
       </c>
       <c r="P1" s="17" t="s">
         <v>65</v>
@@ -1204,7 +1408,7 @@
     </row>
     <row r="2" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
-        <v>4</v>
+        <v>136</v>
       </c>
       <c r="B2" s="27" t="s">
         <v>40</v>
@@ -1214,7 +1418,7 @@
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="27" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F2" s="28">
         <v>1</v>
@@ -1230,30 +1434,38 @@
         <v>1</v>
       </c>
       <c r="K2" s="28"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
+      <c r="L2" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="M2" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="O2" s="28" t="s">
+        <v>135</v>
+      </c>
       <c r="P2" s="28" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>102</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="C3" s="28" t="s">
         <v>67</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="27" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F3" s="28">
         <v>1</v>
@@ -1261,216 +1473,272 @@
       <c r="G3" s="28">
         <v>1</v>
       </c>
-      <c r="H3" s="28"/>
+      <c r="H3" s="28">
+        <v>1</v>
+      </c>
       <c r="I3" s="28" t="s">
         <v>66</v>
       </c>
       <c r="J3" s="28">
         <v>1</v>
       </c>
-      <c r="K3" s="28"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
+      <c r="K3" s="28">
+        <v>1</v>
+      </c>
+      <c r="L3" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="N3" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="O3" s="28" t="s">
+        <v>135</v>
+      </c>
       <c r="P3" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q3" s="7"/>
+        <v>127</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="4" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>56</v>
+      <c r="A4" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>58</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="D4" s="7"/>
-      <c r="E4" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="F4" s="28">
-        <v>1</v>
-      </c>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
+      <c r="E4" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="7">
+        <v>1</v>
+      </c>
+      <c r="G4" s="7">
+        <v>1</v>
+      </c>
+      <c r="H4" s="7">
+        <v>1</v>
+      </c>
       <c r="I4" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="J4" s="28">
-        <v>1</v>
-      </c>
-      <c r="K4" s="28">
-        <v>1</v>
-      </c>
-      <c r="L4" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7">
+        <v>1</v>
+      </c>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="M4" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="27" t="s">
+      <c r="D5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" s="7">
+        <v>1</v>
+      </c>
+      <c r="G5" s="7">
+        <v>1</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1</v>
+      </c>
+      <c r="I5" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7">
+        <v>1</v>
+      </c>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q5" s="29" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="135" x14ac:dyDescent="0.25">
+      <c r="A6" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="7">
+        <v>1</v>
+      </c>
+      <c r="G6" s="7">
+        <v>1</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q6" s="29" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="7">
+        <v>1</v>
+      </c>
+      <c r="H7" s="7">
+        <v>1</v>
+      </c>
+      <c r="I7" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q7" s="42" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="F5" s="28">
-        <v>1</v>
-      </c>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="J5" s="28">
-        <v>1</v>
-      </c>
-      <c r="K5" s="28"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="F6" s="28">
-        <v>1</v>
-      </c>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="J6" s="28">
-        <v>1</v>
-      </c>
-      <c r="K6" s="28"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q6" s="7"/>
-    </row>
-    <row r="7" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="F7" s="28">
-        <v>1</v>
-      </c>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="J7" s="28">
-        <v>1</v>
-      </c>
-      <c r="K7" s="28"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q7" s="7"/>
-    </row>
-    <row r="8" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="7" t="s">
         <v>67</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="F8" s="7"/>
+        <v>70</v>
+      </c>
+      <c r="F8" s="7">
+        <v>1</v>
+      </c>
       <c r="G8" s="7">
         <v>1</v>
       </c>
-      <c r="H8" s="7"/>
+      <c r="H8" s="7">
+        <v>1</v>
+      </c>
       <c r="I8" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="J8" s="28">
-        <v>1</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="J8" s="7"/>
       <c r="K8" s="7"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
+      <c r="L8" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="M8" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>135</v>
+      </c>
       <c r="P8" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q8" s="7"/>
+        <v>125</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="9" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
-        <v>29</v>
+      <c r="A9" s="29" t="s">
+        <v>154</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>67</v>
       </c>
       <c r="D9" s="7"/>
@@ -1478,185 +1746,221 @@
         <v>71</v>
       </c>
       <c r="F9" s="7"/>
-      <c r="G9" s="7">
-        <v>1</v>
-      </c>
-      <c r="H9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7">
+        <v>1</v>
+      </c>
       <c r="I9" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="J9" s="28">
-        <v>1</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="J9" s="7"/>
       <c r="K9" s="7"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
+      <c r="L9" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="M9" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>135</v>
+      </c>
       <c r="P9" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q9" s="7"/>
+        <v>125</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="10" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
-        <v>30</v>
+      <c r="A10" s="29" t="s">
+        <v>124</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>67</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7">
-        <v>1</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="F10" s="7">
+        <v>1</v>
+      </c>
+      <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="J10" s="28">
-        <v>1</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="J10" s="7"/>
       <c r="K10" s="7"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
+      <c r="L10" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="M10" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>135</v>
+      </c>
       <c r="P10" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q10" s="7"/>
-    </row>
-    <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="24" t="s">
-        <v>31</v>
+        <v>125</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="108.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="29" t="s">
+        <v>168</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="28" t="s">
-        <v>67</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7">
-        <v>1</v>
-      </c>
-      <c r="H11" s="7"/>
+        <v>73</v>
+      </c>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40">
+        <v>1</v>
+      </c>
+      <c r="H11" s="40">
+        <v>1</v>
+      </c>
       <c r="I11" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="J11" s="28">
-        <v>1</v>
-      </c>
+      <c r="J11" s="7"/>
       <c r="K11" s="7"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
+      <c r="L11" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="M11" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="N11" s="40" t="s">
+        <v>167</v>
+      </c>
+      <c r="O11" s="40" t="s">
+        <v>135</v>
+      </c>
       <c r="P11" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q11" s="7"/>
+        <v>125</v>
+      </c>
+      <c r="Q11" s="43" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="12" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="29" t="s">
-        <v>57</v>
+      <c r="A12" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>58</v>
       </c>
       <c r="C12" s="28" t="s">
         <v>67</v>
       </c>
       <c r="D12" s="7"/>
-      <c r="E12" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7">
-        <v>1</v>
-      </c>
-      <c r="H12" s="7"/>
+      <c r="E12" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="28">
+        <v>1</v>
+      </c>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
       <c r="I12" s="28" t="s">
         <v>66</v>
       </c>
       <c r="J12" s="28">
         <v>1</v>
       </c>
-      <c r="K12" s="7"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="27"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q12" s="7"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="M12" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="N12" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="O12" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="P12" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="13" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="29" t="s">
-        <v>58</v>
+        <v>11</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>57</v>
       </c>
       <c r="C13" s="28" t="s">
         <v>67</v>
       </c>
       <c r="D13" s="7"/>
-      <c r="E13" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="F13" s="7">
-        <v>1</v>
-      </c>
-      <c r="G13" s="7">
-        <v>1</v>
-      </c>
-      <c r="H13" s="7"/>
+      <c r="E13" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" s="28">
+        <v>1</v>
+      </c>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
       <c r="I13" s="28" t="s">
         <v>66</v>
       </c>
       <c r="J13" s="28">
         <v>1</v>
       </c>
-      <c r="K13" s="7"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7" t="s">
-        <v>136</v>
+      <c r="K13" s="28"/>
+      <c r="L13" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="M13" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="P13" s="28" t="s">
+        <v>127</v>
       </c>
       <c r="Q13" s="7"/>
     </row>
     <row r="14" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C14" s="28" t="s">
         <v>67</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="F14" s="7">
-        <v>1</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="F14" s="7"/>
       <c r="G14" s="7">
         <v>1</v>
       </c>
@@ -1669,31 +1973,35 @@
       </c>
       <c r="K14" s="7"/>
       <c r="L14" s="27"/>
-      <c r="M14" s="27"/>
+      <c r="M14" s="27" t="s">
+        <v>158</v>
+      </c>
       <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
+      <c r="O14" s="7" t="s">
+        <v>158</v>
+      </c>
       <c r="P14" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q14" s="7"/>
+        <v>127</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="15" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C15" s="28" t="s">
         <v>67</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="F15" s="7">
-        <v>1</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="F15" s="7"/>
       <c r="G15" s="7">
         <v>1</v>
       </c>
@@ -1706,31 +2014,35 @@
       </c>
       <c r="K15" s="7"/>
       <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
+      <c r="M15" s="27" t="s">
+        <v>158</v>
+      </c>
       <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
+      <c r="O15" s="7" t="s">
+        <v>158</v>
+      </c>
       <c r="P15" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q15" s="7"/>
+        <v>127</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="16" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C16" s="28" t="s">
         <v>67</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="F16" s="7">
-        <v>1</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="F16" s="7"/>
       <c r="G16" s="7">
         <v>1</v>
       </c>
@@ -1745,29 +2057,31 @@
       <c r="L16" s="27"/>
       <c r="M16" s="27"/>
       <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
+      <c r="O16" s="7" t="s">
+        <v>158</v>
+      </c>
       <c r="P16" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q16" s="7"/>
+        <v>127</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="17" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C17" s="28" t="s">
         <v>67</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="F17" s="7">
-        <v>1</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="F17" s="7"/>
       <c r="G17" s="7">
         <v>1</v>
       </c>
@@ -1782,29 +2096,31 @@
       <c r="L17" s="27"/>
       <c r="M17" s="27"/>
       <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
+      <c r="O17" s="7" t="s">
+        <v>158</v>
+      </c>
       <c r="P17" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q17" s="7"/>
+        <v>127</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="18" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="24" t="s">
-        <v>17</v>
+      <c r="A18" s="30" t="s">
+        <v>32</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C18" s="28" t="s">
         <v>67</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="F18" s="7">
-        <v>1</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="F18" s="7"/>
       <c r="G18" s="7">
         <v>1</v>
       </c>
@@ -1819,15 +2135,17 @@
       <c r="L18" s="27"/>
       <c r="M18" s="27"/>
       <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
+      <c r="O18" s="7" t="s">
+        <v>158</v>
+      </c>
       <c r="P18" s="7" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="Q18" s="7"/>
     </row>
     <row r="19" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="24" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B19" s="29" t="s">
         <v>58</v>
@@ -1853,18 +2171,26 @@
         <v>1</v>
       </c>
       <c r="K19" s="7"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
+      <c r="L19" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="M19" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="N19" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>158</v>
+      </c>
       <c r="P19" s="7" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="Q19" s="7"/>
     </row>
     <row r="20" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B20" s="29" t="s">
         <v>58</v>
@@ -1890,18 +2216,26 @@
         <v>1</v>
       </c>
       <c r="K20" s="7"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
+      <c r="L20" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="M20" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="N20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>158</v>
+      </c>
       <c r="P20" s="7" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="Q20" s="7"/>
     </row>
     <row r="21" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B21" s="29" t="s">
         <v>58</v>
@@ -1927,30 +2261,36 @@
         <v>1</v>
       </c>
       <c r="K21" s="7"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
+      <c r="L21" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="M21" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>158</v>
+      </c>
       <c r="P21" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>148</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="Q21" s="7"/>
     </row>
     <row r="22" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="29" t="s">
-        <v>41</v>
+      <c r="A22" s="24" t="s">
+        <v>15</v>
       </c>
       <c r="B22" s="29" t="s">
         <v>58</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F22" s="7">
         <v>1</v>
@@ -1958,42 +2298,44 @@
       <c r="G22" s="7">
         <v>1</v>
       </c>
-      <c r="H22" s="7">
-        <v>1</v>
-      </c>
+      <c r="H22" s="7"/>
       <c r="I22" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7">
-        <v>1</v>
-      </c>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
+        <v>66</v>
+      </c>
+      <c r="J22" s="28">
+        <v>1</v>
+      </c>
+      <c r="K22" s="7"/>
+      <c r="L22" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="M22" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="N22" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>158</v>
+      </c>
       <c r="P22" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="29" t="s">
-        <v>42</v>
+        <v>126</v>
+      </c>
+      <c r="Q22" s="7"/>
+    </row>
+    <row r="23" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="24" t="s">
+        <v>16</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>24</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="D23" s="7"/>
       <c r="E23" s="29" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F23" s="7">
         <v>1</v>
@@ -2001,77 +2343,89 @@
       <c r="G23" s="7">
         <v>1</v>
       </c>
-      <c r="H23" s="7">
-        <v>1</v>
-      </c>
+      <c r="H23" s="7"/>
       <c r="I23" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7">
-        <v>1</v>
-      </c>
-      <c r="L23" s="29"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
+        <v>66</v>
+      </c>
+      <c r="J23" s="28">
+        <v>1</v>
+      </c>
+      <c r="K23" s="7"/>
+      <c r="L23" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="M23" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="N23" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>158</v>
+      </c>
       <c r="P23" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q23" s="29" t="s">
-        <v>78</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="Q23" s="7"/>
     </row>
     <row r="24" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="29" t="s">
-        <v>43</v>
+      <c r="A24" s="24" t="s">
+        <v>17</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="29" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F24" s="7">
         <v>1</v>
       </c>
-      <c r="G24" s="7"/>
+      <c r="G24" s="7">
+        <v>1</v>
+      </c>
       <c r="H24" s="7"/>
       <c r="I24" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7">
-        <v>1</v>
-      </c>
-      <c r="L24" s="29"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
+        <v>66</v>
+      </c>
+      <c r="J24" s="28">
+        <v>1</v>
+      </c>
+      <c r="K24" s="7"/>
+      <c r="L24" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="M24" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="N24" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>158</v>
+      </c>
       <c r="P24" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="29" t="s">
-        <v>91</v>
+        <v>126</v>
+      </c>
+      <c r="Q24" s="7"/>
+    </row>
+    <row r="25" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="24" t="s">
+        <v>18</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C25" s="28" t="s">
         <v>67</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="29" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F25" s="7">
         <v>1</v>
@@ -2079,30 +2433,34 @@
       <c r="G25" s="7">
         <v>1</v>
       </c>
-      <c r="H25" s="7">
-        <v>1</v>
-      </c>
+      <c r="H25" s="7"/>
       <c r="I25" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="J25" s="7"/>
+        <v>66</v>
+      </c>
+      <c r="J25" s="28">
+        <v>1</v>
+      </c>
       <c r="K25" s="7"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="29"/>
-      <c r="N25" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="O25" s="29"/>
+      <c r="L25" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="M25" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="N25" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>158</v>
+      </c>
       <c r="P25" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>97</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="Q25" s="7"/>
     </row>
     <row r="26" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="29" t="s">
-        <v>76</v>
+      <c r="A26" s="24" t="s">
+        <v>19</v>
       </c>
       <c r="B26" s="29" t="s">
         <v>58</v>
@@ -2117,29 +2475,37 @@
       <c r="F26" s="7">
         <v>1</v>
       </c>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7">
-        <v>1</v>
-      </c>
+      <c r="G26" s="7">
+        <v>1</v>
+      </c>
+      <c r="H26" s="7"/>
       <c r="I26" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="J26" s="7"/>
+        <v>66</v>
+      </c>
+      <c r="J26" s="28">
+        <v>1</v>
+      </c>
       <c r="K26" s="7"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="29"/>
+      <c r="L26" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="M26" s="27" t="s">
+        <v>135</v>
+      </c>
       <c r="N26" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="O26" s="7"/>
+        <v>117</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>158</v>
+      </c>
       <c r="P26" s="7" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="Q26" s="7"/>
     </row>
     <row r="27" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="29" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="B27" s="29" t="s">
         <v>58</v>
@@ -2149,7 +2515,7 @@
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F27" s="7">
         <v>1</v>
@@ -2161,69 +2527,89 @@
       <c r="I27" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="29"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
+      <c r="J27" s="28">
+        <v>1</v>
+      </c>
+      <c r="K27" s="7">
+        <v>1</v>
+      </c>
+      <c r="L27" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="M27" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="N27" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>158</v>
+      </c>
       <c r="P27" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>145</v>
+        <v>126</v>
+      </c>
+      <c r="Q27" s="39" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="29" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C28" s="28" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7">
-        <v>1</v>
-      </c>
+      <c r="F28" s="7">
+        <v>1</v>
+      </c>
+      <c r="G28" s="7"/>
       <c r="H28" s="7"/>
       <c r="I28" s="28" t="s">
         <v>68</v>
       </c>
       <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
+      <c r="K28" s="7">
+        <v>1</v>
+      </c>
       <c r="L28" s="29"/>
       <c r="M28" s="29"/>
-      <c r="N28" s="7"/>
-      <c r="O28" s="7"/>
+      <c r="N28" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>158</v>
+      </c>
       <c r="P28" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q28" s="7"/>
-    </row>
-    <row r="29" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="29" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B29" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>24</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="C29" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29" s="7"/>
       <c r="E29" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="F29" s="7"/>
+        <v>71</v>
+      </c>
+      <c r="F29" s="7">
+        <v>1</v>
+      </c>
       <c r="G29" s="7">
         <v>1</v>
       </c>
@@ -2237,36 +2623,40 @@
       <c r="K29" s="7"/>
       <c r="L29" s="29"/>
       <c r="M29" s="29"/>
-      <c r="N29" s="7"/>
-      <c r="O29" s="7"/>
+      <c r="N29" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="O29" s="29" t="s">
+        <v>158</v>
+      </c>
       <c r="P29" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q29" s="29" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B30" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>24</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="C30" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" s="7"/>
       <c r="E30" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7">
-        <v>1</v>
-      </c>
-      <c r="H30" s="7"/>
+        <v>69</v>
+      </c>
+      <c r="F30" s="7">
+        <v>1</v>
+      </c>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7">
+        <v>1</v>
+      </c>
       <c r="I30" s="28" t="s">
         <v>68</v>
       </c>
@@ -2275,64 +2665,68 @@
       <c r="L30" s="29"/>
       <c r="M30" s="29"/>
       <c r="N30" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="O30" s="7"/>
+        <v>133</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>158</v>
+      </c>
       <c r="P30" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>143</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="Q30" s="7"/>
     </row>
     <row r="31" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="29" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="B31" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>24</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="C31" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31" s="7"/>
       <c r="E31" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
+        <v>70</v>
+      </c>
+      <c r="F31" s="7">
+        <v>1</v>
+      </c>
+      <c r="G31" s="7">
+        <v>1</v>
+      </c>
       <c r="H31" s="7"/>
       <c r="I31" s="28" t="s">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
       <c r="L31" s="29"/>
       <c r="M31" s="29"/>
       <c r="N31" s="7"/>
-      <c r="O31" s="7"/>
+      <c r="O31" s="7" t="s">
+        <v>158</v>
+      </c>
       <c r="P31" s="7" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>95</v>
+        <v>161</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="29" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B32" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>24</v>
+        <v>40</v>
+      </c>
+      <c r="C32" s="28" t="s">
+        <v>67</v>
       </c>
       <c r="D32" s="7"/>
       <c r="E32" s="29" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F32" s="7"/>
       <c r="G32" s="7">
@@ -2347,17 +2741,19 @@
       <c r="L32" s="29"/>
       <c r="M32" s="29"/>
       <c r="N32" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="O32" s="7"/>
+        <v>142</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>158</v>
+      </c>
       <c r="P32" s="7" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="Q32" s="7"/>
     </row>
-    <row r="33" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="29" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B33" s="29" t="s">
         <v>55</v>
@@ -2365,15 +2761,19 @@
       <c r="C33" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D33" s="7"/>
+      <c r="D33" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="E33" s="29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F33" s="7"/>
       <c r="G33" s="7">
         <v>1</v>
       </c>
-      <c r="H33" s="7"/>
+      <c r="H33" s="7">
+        <v>1</v>
+      </c>
       <c r="I33" s="28" t="s">
         <v>68</v>
       </c>
@@ -2381,30 +2781,32 @@
       <c r="K33" s="7"/>
       <c r="L33" s="29"/>
       <c r="M33" s="29"/>
-      <c r="N33" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="O33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7" t="s">
+        <v>158</v>
+      </c>
       <c r="P33" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="Q33" s="29" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="29" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B34" s="29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D34" s="7"/>
+      <c r="D34" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="E34" s="29" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F34" s="7"/>
       <c r="G34" s="7">
@@ -2419,72 +2821,74 @@
       <c r="L34" s="29"/>
       <c r="M34" s="29"/>
       <c r="N34" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="O34" s="7"/>
+        <v>131</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>158</v>
+      </c>
       <c r="P34" s="7" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>88</v>
+        <v>132</v>
       </c>
     </row>
     <row r="35" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="29" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B35" s="29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D35" s="7"/>
+        <v>24</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="E35" s="29" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F35" s="7"/>
-      <c r="G35" s="7">
-        <v>1</v>
-      </c>
+      <c r="G35" s="7"/>
       <c r="H35" s="7"/>
       <c r="I35" s="28" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="J35" s="7"/>
       <c r="K35" s="7"/>
       <c r="L35" s="29"/>
       <c r="M35" s="29"/>
-      <c r="N35" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="O35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7" t="s">
+        <v>158</v>
+      </c>
       <c r="P35" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q35" s="7"/>
+        <v>125</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="36" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="29" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B36" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="D36" s="7"/>
       <c r="E36" s="29" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F36" s="7"/>
       <c r="G36" s="7">
         <v>1</v>
       </c>
-      <c r="H36" s="7">
-        <v>1</v>
-      </c>
+      <c r="H36" s="7"/>
       <c r="I36" s="28" t="s">
         <v>68</v>
       </c>
@@ -2493,37 +2897,37 @@
       <c r="L36" s="29"/>
       <c r="M36" s="29"/>
       <c r="N36" s="7" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q36" s="7"/>
+        <v>127</v>
+      </c>
+      <c r="Q36" s="7" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="37" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="29" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="B37" s="29" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="D37" s="7"/>
       <c r="E37" s="29" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F37" s="7"/>
       <c r="G37" s="7">
         <v>1</v>
       </c>
-      <c r="H37" s="7">
-        <v>1</v>
-      </c>
+      <c r="H37" s="7"/>
       <c r="I37" s="28" t="s">
         <v>68</v>
       </c>
@@ -2532,54 +2936,60 @@
       <c r="L37" s="29"/>
       <c r="M37" s="29"/>
       <c r="N37" s="7" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>130</v>
+        <v>158</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q37" s="7"/>
+        <v>127</v>
+      </c>
+      <c r="Q37" s="7" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="38" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="29" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="B38" s="29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="D38" s="7"/>
       <c r="E38" s="29" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7">
-        <v>1</v>
-      </c>
+      <c r="G38" s="7">
+        <v>1</v>
+      </c>
+      <c r="H38" s="7"/>
       <c r="I38" s="28" t="s">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
       <c r="L38" s="29"/>
       <c r="M38" s="29"/>
       <c r="N38" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="O38" s="7"/>
+        <v>130</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>158</v>
+      </c>
       <c r="P38" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q38" s="7"/>
-    </row>
-    <row r="39" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="Q38" s="7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="29" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="B39" s="29" t="s">
         <v>57</v>
@@ -2592,152 +3002,160 @@
         <v>71</v>
       </c>
       <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7">
-        <v>1</v>
-      </c>
+      <c r="G39" s="7">
+        <v>1</v>
+      </c>
+      <c r="H39" s="7"/>
       <c r="I39" s="28" t="s">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="J39" s="7"/>
       <c r="K39" s="7"/>
       <c r="L39" s="29"/>
       <c r="M39" s="29"/>
-      <c r="N39" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="O39" s="29"/>
+      <c r="N39" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>158</v>
+      </c>
       <c r="P39" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q39" s="7"/>
+        <v>125</v>
+      </c>
+      <c r="Q39" s="7" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="40" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="29" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>67</v>
       </c>
       <c r="D40" s="7"/>
       <c r="E40" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="F40" s="7">
-        <v>1</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="F40" s="7"/>
       <c r="G40" s="7">
         <v>1</v>
       </c>
-      <c r="H40" s="7"/>
+      <c r="H40" s="7">
+        <v>1</v>
+      </c>
       <c r="I40" s="28" t="s">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="J40" s="7"/>
       <c r="K40" s="7"/>
       <c r="L40" s="29"/>
       <c r="M40" s="29"/>
       <c r="N40" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="O40" s="7"/>
+        <v>128</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>158</v>
+      </c>
       <c r="P40" s="7" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="Q40" s="7"/>
     </row>
     <row r="41" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="29" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>67</v>
       </c>
       <c r="D41" s="7"/>
       <c r="E41" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="F41" s="7">
-        <v>1</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="F41" s="7"/>
       <c r="G41" s="7">
         <v>1</v>
       </c>
-      <c r="H41" s="7"/>
+      <c r="H41" s="7">
+        <v>1</v>
+      </c>
       <c r="I41" s="28" t="s">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="J41" s="7"/>
       <c r="K41" s="7"/>
       <c r="L41" s="29"/>
       <c r="M41" s="29"/>
-      <c r="N41" s="7"/>
+      <c r="N41" s="7" t="s">
+        <v>128</v>
+      </c>
       <c r="O41" s="7" t="s">
-        <v>130</v>
+        <v>158</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="Q41" s="7"/>
     </row>
-    <row r="42" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="29" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="B42" s="29" t="s">
         <v>57</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>24</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="D42" s="7"/>
       <c r="E42" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="F42" s="7">
-        <v>1</v>
-      </c>
+      <c r="F42" s="7"/>
       <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
+      <c r="H42" s="7">
+        <v>1</v>
+      </c>
       <c r="I42" s="28" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="J42" s="7"/>
       <c r="K42" s="7"/>
       <c r="L42" s="29"/>
       <c r="M42" s="29"/>
-      <c r="N42" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="O42" s="7"/>
+      <c r="N42" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="O42" s="29" t="s">
+        <v>158</v>
+      </c>
       <c r="P42" s="7" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>109</v>
+        <v>179</v>
       </c>
     </row>
     <row r="43" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="29" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>67</v>
       </c>
       <c r="D43" s="7"/>
       <c r="E43" s="29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F43" s="7">
         <v>1</v>
@@ -2747,34 +3165,38 @@
       </c>
       <c r="H43" s="7"/>
       <c r="I43" s="28" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="J43" s="7"/>
       <c r="K43" s="7"/>
       <c r="L43" s="29"/>
       <c r="M43" s="29"/>
       <c r="N43" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="O43" s="7"/>
+        <v>100</v>
+      </c>
+      <c r="O43" s="7" t="s">
+        <v>158</v>
+      </c>
       <c r="P43" s="7" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="Q43" s="7"/>
     </row>
     <row r="44" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="29" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B44" s="29" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D44" s="7"/>
+        <v>24</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="E44" s="29" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F44" s="7">
         <v>1</v>
@@ -2782,69 +3204,79 @@
       <c r="G44" s="7"/>
       <c r="H44" s="7"/>
       <c r="I44" s="28" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="J44" s="7"/>
       <c r="K44" s="7"/>
       <c r="L44" s="29"/>
       <c r="M44" s="29"/>
       <c r="N44" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="O44" s="7"/>
+        <v>103</v>
+      </c>
+      <c r="O44" s="7" t="s">
+        <v>158</v>
+      </c>
       <c r="P44" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q44" s="7"/>
+        <v>125</v>
+      </c>
+      <c r="Q44" s="7" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="45" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="29" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B45" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>67</v>
       </c>
       <c r="D45" s="7"/>
       <c r="E45" s="29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F45" s="7">
         <v>1</v>
       </c>
-      <c r="G45" s="7"/>
+      <c r="G45" s="7">
+        <v>1</v>
+      </c>
       <c r="H45" s="7"/>
       <c r="I45" s="28" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="J45" s="7"/>
       <c r="K45" s="7"/>
       <c r="L45" s="29"/>
       <c r="M45" s="29"/>
       <c r="N45" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="O45" s="7"/>
+        <v>103</v>
+      </c>
+      <c r="O45" s="7" t="s">
+        <v>158</v>
+      </c>
       <c r="P45" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q45" s="7"/>
+        <v>125</v>
+      </c>
+      <c r="Q45" s="7" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="46" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="29" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="B46" s="29" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>67</v>
       </c>
       <c r="D46" s="7"/>
       <c r="E46" s="29" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F46" s="7">
         <v>1</v>
@@ -2852,26 +3284,26 @@
       <c r="G46" s="7"/>
       <c r="H46" s="7"/>
       <c r="I46" s="28" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="J46" s="7"/>
       <c r="K46" s="7"/>
       <c r="L46" s="29"/>
       <c r="M46" s="29"/>
       <c r="N46" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="O46" s="7"/>
+        <v>105</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>158</v>
+      </c>
       <c r="P46" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q46" s="7" t="s">
-        <v>115</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="Q46" s="7"/>
     </row>
     <row r="47" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="29" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B47" s="29" t="s">
         <v>57</v>
@@ -2889,7 +3321,7 @@
       </c>
       <c r="H47" s="7"/>
       <c r="I47" s="28" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="J47" s="7"/>
       <c r="K47" s="7"/>
@@ -2900,17 +3332,21 @@
         <v>67</v>
       </c>
       <c r="N47" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="O47" s="7"/>
+        <v>103</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>158</v>
+      </c>
       <c r="P47" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q47" s="7"/>
+        <v>125</v>
+      </c>
+      <c r="Q47" s="7" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="48" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="29" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B48" s="29" t="s">
         <v>55</v>
@@ -2928,7 +3364,7 @@
       </c>
       <c r="H48" s="7"/>
       <c r="I48" s="28" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="J48" s="7"/>
       <c r="K48" s="7"/>
@@ -2939,17 +3375,21 @@
         <v>67</v>
       </c>
       <c r="N48" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="O48" s="7"/>
+        <v>103</v>
+      </c>
+      <c r="O48" s="7" t="s">
+        <v>158</v>
+      </c>
       <c r="P48" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q48" s="7"/>
+        <v>125</v>
+      </c>
+      <c r="Q48" s="7" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="49" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="29" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="B49" s="29" t="s">
         <v>57</v>
@@ -2967,7 +3407,7 @@
       </c>
       <c r="H49" s="7"/>
       <c r="I49" s="28" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="J49" s="7"/>
       <c r="K49" s="7"/>
@@ -2978,19 +3418,21 @@
         <v>67</v>
       </c>
       <c r="N49" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="O49" s="7"/>
+        <v>103</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>158</v>
+      </c>
       <c r="P49" s="7" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="50" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="29" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B50" s="29" t="s">
         <v>55</v>
@@ -3008,7 +3450,7 @@
       </c>
       <c r="H50" s="7"/>
       <c r="I50" s="28" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="J50" s="7"/>
       <c r="K50" s="7"/>
@@ -3019,17 +3461,21 @@
         <v>67</v>
       </c>
       <c r="N50" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="O50" s="7"/>
+        <v>103</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>158</v>
+      </c>
       <c r="P50" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q50" s="7"/>
+        <v>125</v>
+      </c>
+      <c r="Q50" s="39" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="51" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="29" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B51" s="29" t="s">
         <v>57</v>
@@ -3047,7 +3493,7 @@
       </c>
       <c r="H51" s="7"/>
       <c r="I51" s="28" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="J51" s="7"/>
       <c r="K51" s="7"/>
@@ -3058,17 +3504,21 @@
         <v>67</v>
       </c>
       <c r="N51" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="O51" s="7"/>
+        <v>103</v>
+      </c>
+      <c r="O51" s="7" t="s">
+        <v>158</v>
+      </c>
       <c r="P51" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q51" s="7"/>
+        <v>125</v>
+      </c>
+      <c r="Q51" s="7" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="52" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="29" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B52" s="29" t="s">
         <v>53</v>
@@ -3086,7 +3536,7 @@
       </c>
       <c r="H52" s="7"/>
       <c r="I52" s="28" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="J52" s="7"/>
       <c r="K52" s="7"/>
@@ -3097,21 +3547,21 @@
         <v>67</v>
       </c>
       <c r="N52" s="7" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="53" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="29" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B53" s="29" t="s">
         <v>53</v>
@@ -3129,7 +3579,7 @@
       </c>
       <c r="H53" s="7"/>
       <c r="I53" s="28" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="J53" s="7"/>
       <c r="K53" s="7"/>
@@ -3140,149 +3590,64 @@
         <v>67</v>
       </c>
       <c r="N53" s="7" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="54" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="B54" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D54" s="7"/>
-      <c r="E54" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="F54" s="7">
-        <v>1</v>
-      </c>
-      <c r="G54" s="7">
-        <v>1</v>
-      </c>
-      <c r="H54" s="7">
-        <v>1</v>
-      </c>
+      <c r="A54" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C54" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="D54" s="39"/>
+      <c r="E54" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="F54" s="41">
+        <v>1</v>
+      </c>
+      <c r="G54" s="41">
+        <v>1</v>
+      </c>
+      <c r="H54" s="41"/>
       <c r="I54" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="J54" s="7"/>
-      <c r="K54" s="7"/>
-      <c r="L54" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="M54" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="N54" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="O54" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="P54" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q54" s="7"/>
-    </row>
-    <row r="55" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="29" t="s">
-        <v>132</v>
-      </c>
-      <c r="B55" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D55" s="7"/>
-      <c r="E55" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="F55" s="7">
-        <v>1</v>
-      </c>
-      <c r="G55" s="7">
-        <v>1</v>
-      </c>
-      <c r="H55" s="7">
-        <v>1</v>
-      </c>
-      <c r="I55" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="J55" s="7"/>
-      <c r="K55" s="7"/>
-      <c r="L55" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="M55" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="N55" s="7"/>
-      <c r="O55" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="P55" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q55" s="7" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="29" t="s">
-        <v>134</v>
-      </c>
-      <c r="B56" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D56" s="7"/>
-      <c r="E56" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="F56" s="7">
-        <v>1</v>
-      </c>
-      <c r="G56" s="7"/>
-      <c r="H56" s="7"/>
-      <c r="I56" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="J56" s="7"/>
-      <c r="K56" s="7"/>
-      <c r="L56" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="M56" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="N56" s="7"/>
-      <c r="O56" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="P56" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q56" s="7"/>
+        <v>66</v>
+      </c>
+      <c r="J54" s="38">
+        <v>1</v>
+      </c>
+      <c r="K54" s="38"/>
+      <c r="L54" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="M54" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="N54" s="41"/>
+      <c r="O54" s="41"/>
+      <c r="P54" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q54" s="39"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B32:B1048576 B1:B30 E1:E1048576">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q54">
+    <sortCondition ref="O1:O54"/>
+  </sortState>
+  <conditionalFormatting sqref="B31:B1048576 B1:B29 E1:E1048576">
     <cfRule type="containsBlanks" dxfId="2" priority="5">
       <formula>LEN(TRIM(B1))=0</formula>
     </cfRule>
@@ -3292,9 +3657,9 @@
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B31">
+  <conditionalFormatting sqref="B30">
     <cfRule type="containsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(B31))=0</formula>
+      <formula>LEN(TRIM(B30))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3314,17 +3679,17 @@
           </x14:formula1>
           <xm:sqref>E1:E1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2B7F07F7-18A8-4318-B877-D7C14437959C}">
-          <x14:formula1>
-            <xm:f>lookup!$C:$C</xm:f>
-          </x14:formula1>
-          <xm:sqref>O1:O1048576</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{91EB7888-8426-4BEF-BEBF-352393895133}">
           <x14:formula1>
             <xm:f>lookup!$D:$D</xm:f>
           </x14:formula1>
           <xm:sqref>P1:P1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7E6D3AA7-6E06-46B8-B1A1-AAD5FAD99EA7}">
+          <x14:formula1>
+            <xm:f>lookup!$E$1:$E$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>O1:O7 O9:O1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3333,10 +3698,528 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{964D620A-92D8-4F3A-A78C-82C79C0CF26C}">
+  <sheetPr>
+    <tabColor theme="8" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:D46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="45" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="31" customWidth="1"/>
+    <col min="4" max="4" width="88.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="32"/>
+    </row>
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="C12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="C18" s="22"/>
+      <c r="D18" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" t="s">
+        <v>92</v>
+      </c>
+      <c r="D22" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" t="s">
+        <v>154</v>
+      </c>
+      <c r="D23" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="C24" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="32"/>
+    </row>
+    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" s="36" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" t="s">
+        <v>154</v>
+      </c>
+      <c r="D27" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" t="s">
+        <v>92</v>
+      </c>
+      <c r="D30" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A33" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="C33" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="D33" s="33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D35" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="B40" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+    </row>
+    <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="B41" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="C41" s="22" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B42" s="36" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="B43" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="B44" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="C44" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="B45" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="C45" s="22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="B46" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C91E8D20-3A98-4410-9DE0-950E445F49E4}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="45" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="23"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D902A83-6CC8-427F-A3C4-B977B34377A8}">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B32" sqref="B32:B40"/>
     </sheetView>
   </sheetViews>
@@ -3848,7 +4731,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB44071F-3C6B-45B7-BA51-7BD87E65DCEC}">
   <dimension ref="A1:D8"/>
   <sheetViews>
@@ -3987,92 +4870,4 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C91E8D20-3A98-4410-9DE0-950E445F49E4}">
-  <dimension ref="A1:D7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="45" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="C1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="B7" s="23"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data/indikatorer.xlsx
+++ b/data/indikatorer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anders.kolstad\Documents\Github\indikatoroversikt\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0006AEE-4345-4B68-AFED-C2C6EED9E267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE7D2F81-3780-40C7-8F68-949AD254A638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{755B2D29-11E6-40FC-B47B-120341420DDA}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="216">
   <si>
     <t>PAEC pilot Trøndelg</t>
   </si>
@@ -342,9 +342,6 @@
   </si>
   <si>
     <t>ANO, evt fjernmåling</t>
-  </si>
-  <si>
-    <t>Gjenngroing</t>
   </si>
   <si>
     <t>Insektindeks</t>
@@ -541,10 +538,6 @@
   </si>
   <si>
     <t>Det er sansynelig at også 'Naturlig åpne områder-prosjektet' vil finne en indikator for denne egenskapen basert på GRUK-datasettet.</t>
-  </si>
-  <si>
-    <t>Gjenngroing;
-Ellenberg L</t>
   </si>
   <si>
     <t>Diverse</t>
@@ -622,12 +615,223 @@
   <si>
     <t>Kanskje vil insektsprosjektet produsere en indikator som egner seg her</t>
   </si>
+  <si>
+    <t>Gjengroing;
+Ellenberg L</t>
+  </si>
+  <si>
+    <t>Soil water content during growing sea-son</t>
+  </si>
+  <si>
+    <t>MET og NVE</t>
+  </si>
+  <si>
+    <t>Palser</t>
+  </si>
+  <si>
+    <t>Overvåkingsprogrammet for palsmyr</t>
+  </si>
+  <si>
+    <t>Foreslått som indikatore i fagsystemrapporten. Litt usikker på hvilken egenskap denne helst bør knyttes til.</t>
+  </si>
+  <si>
+    <t>Indikatorprosjekt</t>
+  </si>
+  <si>
+    <t>Naturlig åpne områder-prosjektet</t>
+  </si>
+  <si>
+    <r>
+      <t>Naturtypekartleggingsprosjektet</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Insektsprosjektet</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Primærproduksjon basert på fjernmåling</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Konnektivitet</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Biogeokjemi</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Funksjonelle vegetasjonsindikatorer</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SEAPOP</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Gjengroing</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Trofiske interaksjoner</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>indikatorprosjekt</t>
+  </si>
+  <si>
+    <t>Jevn overflate</t>
+  </si>
+  <si>
+    <t>Usikker på valg av egenskap</t>
+  </si>
+  <si>
+    <t>LiDAR?</t>
+  </si>
+  <si>
+    <t>Død ved i sumpskog</t>
+  </si>
+  <si>
+    <t>Feltinventering. Landskog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foreslått som indikatore i fagsystemrapporten. </t>
+  </si>
+  <si>
+    <t>Primærproduksjon basert på fjernmåling </t>
+  </si>
+  <si>
+    <t>Konnektivitet </t>
+  </si>
+  <si>
+    <t>Funksjonelle vegetasjonsindikatorer </t>
+  </si>
+  <si>
+    <t>Gjengroing </t>
+  </si>
+  <si>
+    <t>Biogeokjemi </t>
+  </si>
+  <si>
+    <t>SEAPOP </t>
+  </si>
+  <si>
+    <t>Trofiske interaksjoner </t>
+  </si>
+  <si>
+    <t>ingen</t>
+  </si>
+  <si>
+    <t>Insektsprosjektet </t>
+  </si>
+  <si>
+    <t>Naturtypekartleggingsprosjektet </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -725,8 +929,48 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7.5"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7.5"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -754,8 +998,14 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -870,24 +1120,42 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
+      <left style="medium">
+        <color rgb="FFBFBFBF"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
+      <right style="medium">
+        <color rgb="FFBFBFBF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFBFBFBF"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFBFBFBF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFBFBFBF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFBFBFBF"/>
       </right>
       <top/>
-      <bottom/>
+      <bottom style="medium">
+        <color rgb="FFBFBFBF"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -971,19 +1239,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
     <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1327,33 +1606,37 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:Q54"/>
+  <dimension ref="A1:R59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J6" sqref="J6"/>
+      <selection pane="bottomRight" activeCell="A54" sqref="A54:XFD54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.140625" style="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.140625" style="22" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" customWidth="1"/>
-    <col min="5" max="5" width="27.7109375" style="22" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="16.140625" style="22" customWidth="1"/>
-    <col min="14" max="14" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" customWidth="1"/>
-    <col min="16" max="16" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="63.42578125" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" style="29" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="27.7109375" style="29" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="7"/>
+    <col min="8" max="8" width="18.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" style="7" customWidth="1"/>
+    <col min="11" max="12" width="9.140625" style="7"/>
+    <col min="13" max="14" width="16.140625" style="29" customWidth="1"/>
+    <col min="15" max="15" width="37.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" style="7" customWidth="1"/>
+    <col min="17" max="17" width="15.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="63.42578125" style="7" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>59</v>
       </c>
@@ -1361,7 +1644,7 @@
         <v>60</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D1" s="17" t="s">
         <v>80</v>
@@ -1370,45 +1653,48 @@
         <v>64</v>
       </c>
       <c r="F1" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="G1" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="H1" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="I1" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="I1" s="17" t="s">
-        <v>118</v>
-      </c>
       <c r="J1" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="K1" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="L1" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="M1" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="N1" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="O1" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="O1" s="17" t="s">
-        <v>171</v>
-      </c>
       <c r="P1" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q1" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="Q1" s="17" t="s">
+      <c r="R1" s="17" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B2" s="27" t="s">
         <v>40</v>
@@ -1416,44 +1702,46 @@
       <c r="C2" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="7"/>
       <c r="E2" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="28">
-        <v>1</v>
+      <c r="F2" s="7" t="s">
+        <v>206</v>
       </c>
       <c r="G2" s="28">
         <v>1</v>
       </c>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28" t="s">
+      <c r="H2" s="28">
+        <v>1</v>
+      </c>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="J2" s="28">
-        <v>1</v>
-      </c>
-      <c r="K2" s="28"/>
-      <c r="L2" s="27" t="s">
-        <v>135</v>
-      </c>
+      <c r="K2" s="28">
+        <v>1</v>
+      </c>
+      <c r="L2" s="28"/>
       <c r="M2" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="N2" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="28" t="s">
-        <v>137</v>
-      </c>
       <c r="O2" s="28" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P2" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q2" s="7" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+      <c r="Q2" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>92</v>
       </c>
@@ -1463,12 +1751,11 @@
       <c r="C3" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="7"/>
       <c r="E3" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="F3" s="28">
-        <v>1</v>
+      <c r="F3" s="7" t="s">
+        <v>207</v>
       </c>
       <c r="G3" s="28">
         <v>1</v>
@@ -1476,35 +1763,38 @@
       <c r="H3" s="28">
         <v>1</v>
       </c>
-      <c r="I3" s="28" t="s">
+      <c r="I3" s="28">
+        <v>1</v>
+      </c>
+      <c r="J3" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="J3" s="28">
-        <v>1</v>
-      </c>
       <c r="K3" s="28">
         <v>1</v>
       </c>
-      <c r="L3" s="27" t="s">
+      <c r="L3" s="28">
+        <v>1</v>
+      </c>
+      <c r="M3" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="N3" s="28" t="s">
+      <c r="N3" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="O3" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="P3" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q3" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="R3" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="O3" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="P3" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q3" s="7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>41</v>
       </c>
@@ -1514,12 +1804,11 @@
       <c r="C4" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="7"/>
       <c r="E4" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="F4" s="7">
-        <v>1</v>
+      <c r="F4" s="7" t="s">
+        <v>208</v>
       </c>
       <c r="G4" s="7">
         <v>1</v>
@@ -1527,29 +1816,29 @@
       <c r="H4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="28" t="s">
+      <c r="I4" s="7">
+        <v>1</v>
+      </c>
+      <c r="J4" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7">
-        <v>1</v>
-      </c>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="7" t="s">
-        <v>159</v>
+      <c r="L4" s="7">
+        <v>1</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>126</v>
+        <v>158</v>
+      </c>
+      <c r="P4" s="28" t="s">
+        <v>157</v>
       </c>
       <c r="Q4" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="R4" s="7" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>42</v>
       </c>
@@ -1565,8 +1854,8 @@
       <c r="E5" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="F5" s="7">
-        <v>1</v>
+      <c r="F5" s="7" t="s">
+        <v>208</v>
       </c>
       <c r="G5" s="7">
         <v>1</v>
@@ -1574,31 +1863,31 @@
       <c r="H5" s="7">
         <v>1</v>
       </c>
-      <c r="I5" s="28" t="s">
+      <c r="I5" s="7">
+        <v>1</v>
+      </c>
+      <c r="J5" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7">
-        <v>1</v>
-      </c>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="7" t="s">
-        <v>159</v>
+      <c r="L5" s="7">
+        <v>1</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q5" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="P5" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="R5" s="29" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="135" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="135" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B6" s="29" t="s">
         <v>55</v>
@@ -1606,40 +1895,37 @@
       <c r="C6" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="7"/>
       <c r="E6" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="F6" s="7">
-        <v>1</v>
+      <c r="F6" s="7" t="s">
+        <v>209</v>
       </c>
       <c r="G6" s="7">
         <v>1</v>
       </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="28" t="s">
+      <c r="H6" s="7">
+        <v>1</v>
+      </c>
+      <c r="J6" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="7" t="s">
-        <v>162</v>
-      </c>
       <c r="O6" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q6" s="29" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+      <c r="P6" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="R6" s="29" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B7" s="29" t="s">
         <v>57</v>
@@ -1647,12 +1933,11 @@
       <c r="C7" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D7" s="7"/>
       <c r="E7" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="F7" s="7">
-        <v>1</v>
+      <c r="F7" s="7" t="s">
+        <v>118</v>
       </c>
       <c r="G7" s="7">
         <v>1</v>
@@ -1660,33 +1945,34 @@
       <c r="H7" s="7">
         <v>1</v>
       </c>
-      <c r="I7" s="28" t="s">
+      <c r="I7" s="7">
+        <v>1</v>
+      </c>
+      <c r="J7" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="29" t="s">
+      <c r="M7" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="M7" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="N7" s="7" t="s">
-        <v>119</v>
+      <c r="N7" s="29" t="s">
+        <v>67</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q7" s="42" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+      <c r="P7" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="R7" s="38" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B8" s="29" t="s">
         <v>58</v>
@@ -1694,12 +1980,11 @@
       <c r="C8" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="7"/>
       <c r="E8" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="F8" s="7">
-        <v>1</v>
+      <c r="F8" s="7" t="s">
+        <v>210</v>
       </c>
       <c r="G8" s="7">
         <v>1</v>
@@ -1707,33 +1992,34 @@
       <c r="H8" s="7">
         <v>1</v>
       </c>
-      <c r="I8" s="28" t="s">
+      <c r="I8" s="7">
+        <v>1</v>
+      </c>
+      <c r="J8" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="29" t="s">
-        <v>67</v>
-      </c>
       <c r="M8" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="N8" s="7" t="s">
-        <v>157</v>
+      <c r="N8" s="29" t="s">
+        <v>67</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>125</v>
+        <v>156</v>
+      </c>
+      <c r="P8" s="28" t="s">
+        <v>157</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+      <c r="R8" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B9" s="29" t="s">
         <v>57</v>
@@ -1741,42 +2027,40 @@
       <c r="C9" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D9" s="7"/>
       <c r="E9" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7">
-        <v>1</v>
-      </c>
-      <c r="I9" s="28" t="s">
+      <c r="F9" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="I9" s="7">
+        <v>1</v>
+      </c>
+      <c r="J9" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="29" t="s">
-        <v>67</v>
-      </c>
       <c r="M9" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="N9" s="7" t="s">
+      <c r="N9" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="P9" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="R9" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="O9" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B10" s="29" t="s">
         <v>58</v>
@@ -1784,83 +2068,80 @@
       <c r="C10" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D10" s="7"/>
       <c r="E10" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="F10" s="7">
-        <v>1</v>
-      </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="28" t="s">
+      <c r="F10" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G10" s="7">
+        <v>1</v>
+      </c>
+      <c r="J10" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="29" t="s">
-        <v>67</v>
-      </c>
       <c r="M10" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="N10" s="7" t="s">
-        <v>157</v>
+      <c r="N10" s="29" t="s">
+        <v>67</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>125</v>
+        <v>156</v>
+      </c>
+      <c r="P10" s="28" t="s">
+        <v>157</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="108.75" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+      <c r="R10" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="108.75" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B11" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
       <c r="E11" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40">
-        <v>1</v>
-      </c>
-      <c r="H11" s="40">
-        <v>1</v>
-      </c>
-      <c r="I11" s="28" t="s">
+      <c r="F11" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37">
+        <v>1</v>
+      </c>
+      <c r="I11" s="37">
+        <v>1</v>
+      </c>
+      <c r="J11" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="29" t="s">
-        <v>67</v>
-      </c>
       <c r="M11" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="N11" s="40" t="s">
-        <v>167</v>
-      </c>
-      <c r="O11" s="40" t="s">
-        <v>135</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q11" s="43" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="N11" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="O11" s="37" t="s">
+        <v>165</v>
+      </c>
+      <c r="P11" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="R11" s="39" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
         <v>9</v>
       </c>
@@ -1870,42 +2151,44 @@
       <c r="C12" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="D12" s="7"/>
       <c r="E12" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="F12" s="28">
-        <v>1</v>
-      </c>
-      <c r="G12" s="28"/>
+      <c r="F12" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G12" s="28">
+        <v>1</v>
+      </c>
       <c r="H12" s="28"/>
-      <c r="I12" s="28" t="s">
+      <c r="I12" s="28"/>
+      <c r="J12" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="J12" s="28">
-        <v>1</v>
-      </c>
-      <c r="K12" s="28"/>
-      <c r="L12" s="27" t="s">
-        <v>135</v>
-      </c>
+      <c r="K12" s="28">
+        <v>1</v>
+      </c>
+      <c r="L12" s="28"/>
       <c r="M12" s="27" t="s">
-        <v>158</v>
-      </c>
-      <c r="N12" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="N12" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="O12" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="P12" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q12" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="R12" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="O12" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="P12" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
         <v>11</v>
       </c>
@@ -1915,38 +2198,39 @@
       <c r="C13" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="7"/>
       <c r="E13" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="F13" s="28">
-        <v>1</v>
-      </c>
-      <c r="G13" s="28"/>
+      <c r="F13" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G13" s="28">
+        <v>1</v>
+      </c>
       <c r="H13" s="28"/>
-      <c r="I13" s="28" t="s">
+      <c r="I13" s="28"/>
+      <c r="J13" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="J13" s="28">
-        <v>1</v>
-      </c>
-      <c r="K13" s="28"/>
-      <c r="L13" s="27" t="s">
-        <v>158</v>
-      </c>
+      <c r="K13" s="28">
+        <v>1</v>
+      </c>
+      <c r="L13" s="28"/>
       <c r="M13" s="27" t="s">
-        <v>158</v>
-      </c>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28" t="s">
-        <v>158</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="N13" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="O13" s="28"/>
       <c r="P13" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q13" s="7"/>
-    </row>
-    <row r="14" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+      <c r="Q13" s="28" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
         <v>28</v>
       </c>
@@ -1956,38 +2240,36 @@
       <c r="C14" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="D14" s="7"/>
       <c r="E14" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7">
-        <v>1</v>
-      </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="28" t="s">
+      <c r="F14" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="H14" s="7">
+        <v>1</v>
+      </c>
+      <c r="J14" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="J14" s="28">
-        <v>1</v>
-      </c>
-      <c r="K14" s="7"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="27" t="s">
-        <v>158</v>
-      </c>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7" t="s">
-        <v>158</v>
+      <c r="K14" s="28">
+        <v>1</v>
+      </c>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27" t="s">
+        <v>157</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>127</v>
+        <v>157</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+      <c r="R14" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
         <v>29</v>
       </c>
@@ -1997,38 +2279,36 @@
       <c r="C15" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="D15" s="7"/>
       <c r="E15" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7">
-        <v>1</v>
-      </c>
-      <c r="H15" s="7"/>
-      <c r="I15" s="28" t="s">
+      <c r="F15" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="H15" s="7">
+        <v>1</v>
+      </c>
+      <c r="J15" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="J15" s="28">
-        <v>1</v>
-      </c>
-      <c r="K15" s="7"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27" t="s">
-        <v>158</v>
-      </c>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7" t="s">
-        <v>158</v>
+      <c r="K15" s="28">
+        <v>1</v>
+      </c>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27" t="s">
+        <v>157</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>127</v>
+        <v>157</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+      <c r="R15" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
         <v>30</v>
       </c>
@@ -2038,36 +2318,34 @@
       <c r="C16" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="D16" s="7"/>
       <c r="E16" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7">
-        <v>1</v>
-      </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="28" t="s">
+      <c r="F16" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="H16" s="7">
+        <v>1</v>
+      </c>
+      <c r="J16" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="J16" s="28">
-        <v>1</v>
-      </c>
-      <c r="K16" s="7"/>
-      <c r="L16" s="27"/>
+      <c r="K16" s="28">
+        <v>1</v>
+      </c>
       <c r="M16" s="27"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7" t="s">
-        <v>158</v>
-      </c>
+      <c r="N16" s="27"/>
       <c r="P16" s="7" t="s">
-        <v>127</v>
+        <v>157</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+      <c r="R16" s="7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
         <v>31</v>
       </c>
@@ -2077,36 +2355,34 @@
       <c r="C17" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="D17" s="7"/>
       <c r="E17" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7">
-        <v>1</v>
-      </c>
-      <c r="H17" s="7"/>
-      <c r="I17" s="28" t="s">
+      <c r="F17" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1</v>
+      </c>
+      <c r="J17" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="J17" s="28">
-        <v>1</v>
-      </c>
-      <c r="K17" s="7"/>
-      <c r="L17" s="27"/>
+      <c r="K17" s="28">
+        <v>1</v>
+      </c>
       <c r="M17" s="27"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7" t="s">
-        <v>158</v>
-      </c>
+      <c r="N17" s="27"/>
       <c r="P17" s="7" t="s">
-        <v>127</v>
+        <v>157</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+      <c r="R17" s="7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="30" t="s">
         <v>32</v>
       </c>
@@ -2116,34 +2392,31 @@
       <c r="C18" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="D18" s="7"/>
       <c r="E18" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7">
-        <v>1</v>
-      </c>
-      <c r="H18" s="7"/>
-      <c r="I18" s="28" t="s">
+      <c r="F18" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="H18" s="7">
+        <v>1</v>
+      </c>
+      <c r="J18" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="J18" s="28">
-        <v>1</v>
-      </c>
-      <c r="K18" s="7"/>
-      <c r="L18" s="27"/>
+      <c r="K18" s="28">
+        <v>1</v>
+      </c>
       <c r="M18" s="27"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7" t="s">
-        <v>158</v>
-      </c>
+      <c r="N18" s="27"/>
       <c r="P18" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q18" s="7"/>
-    </row>
-    <row r="19" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="24" t="s">
         <v>12</v>
       </c>
@@ -2153,42 +2426,41 @@
       <c r="C19" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="7"/>
       <c r="E19" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="F19" s="7">
-        <v>1</v>
+      <c r="F19" s="7" t="s">
+        <v>213</v>
       </c>
       <c r="G19" s="7">
         <v>1</v>
       </c>
-      <c r="H19" s="7"/>
-      <c r="I19" s="28" t="s">
+      <c r="H19" s="7">
+        <v>1</v>
+      </c>
+      <c r="J19" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="J19" s="28">
-        <v>1</v>
-      </c>
-      <c r="K19" s="7"/>
-      <c r="L19" s="27" t="s">
-        <v>135</v>
+      <c r="K19" s="28">
+        <v>1</v>
       </c>
       <c r="M19" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="N19" s="7" t="s">
-        <v>117</v>
+        <v>134</v>
+      </c>
+      <c r="N19" s="27" t="s">
+        <v>134</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>158</v>
+        <v>116</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q19" s="7"/>
-    </row>
-    <row r="20" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
         <v>13</v>
       </c>
@@ -2198,42 +2470,41 @@
       <c r="C20" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="D20" s="7"/>
       <c r="E20" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="F20" s="7">
-        <v>1</v>
+      <c r="F20" s="7" t="s">
+        <v>213</v>
       </c>
       <c r="G20" s="7">
         <v>1</v>
       </c>
-      <c r="H20" s="7"/>
-      <c r="I20" s="28" t="s">
+      <c r="H20" s="7">
+        <v>1</v>
+      </c>
+      <c r="J20" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="J20" s="28">
-        <v>1</v>
-      </c>
-      <c r="K20" s="7"/>
-      <c r="L20" s="27" t="s">
-        <v>135</v>
+      <c r="K20" s="28">
+        <v>1</v>
       </c>
       <c r="M20" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="N20" s="7" t="s">
-        <v>117</v>
+        <v>134</v>
+      </c>
+      <c r="N20" s="27" t="s">
+        <v>134</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>158</v>
+        <v>116</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q20" s="7"/>
-    </row>
-    <row r="21" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
         <v>14</v>
       </c>
@@ -2243,42 +2514,41 @@
       <c r="C21" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="D21" s="7"/>
       <c r="E21" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="F21" s="7">
-        <v>1</v>
+      <c r="F21" s="7" t="s">
+        <v>213</v>
       </c>
       <c r="G21" s="7">
         <v>1</v>
       </c>
-      <c r="H21" s="7"/>
-      <c r="I21" s="28" t="s">
+      <c r="H21" s="7">
+        <v>1</v>
+      </c>
+      <c r="J21" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="J21" s="28">
-        <v>1</v>
-      </c>
-      <c r="K21" s="7"/>
-      <c r="L21" s="27" t="s">
-        <v>135</v>
+      <c r="K21" s="28">
+        <v>1</v>
       </c>
       <c r="M21" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="N21" s="7" t="s">
-        <v>117</v>
+        <v>134</v>
+      </c>
+      <c r="N21" s="27" t="s">
+        <v>134</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>158</v>
+        <v>116</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q21" s="7"/>
-    </row>
-    <row r="22" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="24" t="s">
         <v>15</v>
       </c>
@@ -2288,42 +2558,41 @@
       <c r="C22" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="D22" s="7"/>
       <c r="E22" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="F22" s="7">
-        <v>1</v>
+      <c r="F22" s="7" t="s">
+        <v>213</v>
       </c>
       <c r="G22" s="7">
         <v>1</v>
       </c>
-      <c r="H22" s="7"/>
-      <c r="I22" s="28" t="s">
+      <c r="H22" s="7">
+        <v>1</v>
+      </c>
+      <c r="J22" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="J22" s="28">
-        <v>1</v>
-      </c>
-      <c r="K22" s="7"/>
-      <c r="L22" s="27" t="s">
-        <v>135</v>
+      <c r="K22" s="28">
+        <v>1</v>
       </c>
       <c r="M22" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="N22" s="7" t="s">
-        <v>117</v>
+        <v>134</v>
+      </c>
+      <c r="N22" s="27" t="s">
+        <v>134</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>158</v>
+        <v>116</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q22" s="7"/>
-    </row>
-    <row r="23" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="24" t="s">
         <v>16</v>
       </c>
@@ -2333,42 +2602,41 @@
       <c r="C23" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="D23" s="7"/>
       <c r="E23" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="F23" s="7">
-        <v>1</v>
+      <c r="F23" s="7" t="s">
+        <v>213</v>
       </c>
       <c r="G23" s="7">
         <v>1</v>
       </c>
-      <c r="H23" s="7"/>
-      <c r="I23" s="28" t="s">
+      <c r="H23" s="7">
+        <v>1</v>
+      </c>
+      <c r="J23" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="J23" s="28">
-        <v>1</v>
-      </c>
-      <c r="K23" s="7"/>
-      <c r="L23" s="27" t="s">
-        <v>135</v>
+      <c r="K23" s="28">
+        <v>1</v>
       </c>
       <c r="M23" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="N23" s="7" t="s">
-        <v>117</v>
+        <v>134</v>
+      </c>
+      <c r="N23" s="27" t="s">
+        <v>134</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>158</v>
+        <v>116</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q23" s="7"/>
-    </row>
-    <row r="24" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="24" t="s">
         <v>17</v>
       </c>
@@ -2378,42 +2646,41 @@
       <c r="C24" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="D24" s="7"/>
       <c r="E24" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="F24" s="7">
-        <v>1</v>
+      <c r="F24" s="7" t="s">
+        <v>213</v>
       </c>
       <c r="G24" s="7">
         <v>1</v>
       </c>
-      <c r="H24" s="7"/>
-      <c r="I24" s="28" t="s">
+      <c r="H24" s="7">
+        <v>1</v>
+      </c>
+      <c r="J24" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="J24" s="28">
-        <v>1</v>
-      </c>
-      <c r="K24" s="7"/>
-      <c r="L24" s="27" t="s">
-        <v>135</v>
+      <c r="K24" s="28">
+        <v>1</v>
       </c>
       <c r="M24" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="N24" s="7" t="s">
-        <v>117</v>
+        <v>134</v>
+      </c>
+      <c r="N24" s="27" t="s">
+        <v>134</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>158</v>
+        <v>116</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q24" s="7"/>
-    </row>
-    <row r="25" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="24" t="s">
         <v>18</v>
       </c>
@@ -2423,42 +2690,41 @@
       <c r="C25" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="D25" s="7"/>
       <c r="E25" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="F25" s="7">
-        <v>1</v>
+      <c r="F25" s="7" t="s">
+        <v>213</v>
       </c>
       <c r="G25" s="7">
         <v>1</v>
       </c>
-      <c r="H25" s="7"/>
-      <c r="I25" s="28" t="s">
+      <c r="H25" s="7">
+        <v>1</v>
+      </c>
+      <c r="J25" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="J25" s="28">
-        <v>1</v>
-      </c>
-      <c r="K25" s="7"/>
-      <c r="L25" s="27" t="s">
-        <v>135</v>
+      <c r="K25" s="28">
+        <v>1</v>
       </c>
       <c r="M25" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="N25" s="7" t="s">
-        <v>117</v>
+        <v>134</v>
+      </c>
+      <c r="N25" s="27" t="s">
+        <v>134</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>158</v>
+        <v>116</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q25" s="7"/>
-    </row>
-    <row r="26" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="24" t="s">
         <v>19</v>
       </c>
@@ -2468,44 +2734,43 @@
       <c r="C26" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="D26" s="7"/>
       <c r="E26" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="F26" s="7">
-        <v>1</v>
+      <c r="F26" s="7" t="s">
+        <v>213</v>
       </c>
       <c r="G26" s="7">
         <v>1</v>
       </c>
-      <c r="H26" s="7"/>
-      <c r="I26" s="28" t="s">
+      <c r="H26" s="7">
+        <v>1</v>
+      </c>
+      <c r="J26" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="J26" s="28">
-        <v>1</v>
-      </c>
-      <c r="K26" s="7"/>
-      <c r="L26" s="27" t="s">
-        <v>135</v>
+      <c r="K26" s="28">
+        <v>1</v>
       </c>
       <c r="M26" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="N26" s="7" t="s">
-        <v>117</v>
+        <v>134</v>
+      </c>
+      <c r="N26" s="27" t="s">
+        <v>134</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>158</v>
+        <v>116</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q26" s="7"/>
-    </row>
-    <row r="27" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="29" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B27" s="29" t="s">
         <v>58</v>
@@ -2513,46 +2778,47 @@
       <c r="C27" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="D27" s="7"/>
       <c r="E27" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="F27" s="7">
-        <v>1</v>
+      <c r="F27" s="7" t="s">
+        <v>213</v>
       </c>
       <c r="G27" s="7">
         <v>1</v>
       </c>
-      <c r="H27" s="7"/>
-      <c r="I27" s="28" t="s">
+      <c r="H27" s="7">
+        <v>1</v>
+      </c>
+      <c r="J27" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="J27" s="28">
-        <v>1</v>
-      </c>
-      <c r="K27" s="7">
-        <v>1</v>
-      </c>
-      <c r="L27" s="27" t="s">
-        <v>135</v>
+      <c r="K27" s="28">
+        <v>1</v>
+      </c>
+      <c r="L27" s="7">
+        <v>1</v>
       </c>
       <c r="M27" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="N27" s="7" t="s">
-        <v>117</v>
+        <v>134</v>
+      </c>
+      <c r="N27" s="27" t="s">
+        <v>134</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>158</v>
+        <v>116</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q27" s="39" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="R27" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="29" t="s">
         <v>43</v>
       </c>
@@ -2562,38 +2828,35 @@
       <c r="C28" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="7"/>
       <c r="E28" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="F28" s="7">
-        <v>1</v>
-      </c>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="28" t="s">
+      <c r="F28" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="G28" s="7">
+        <v>1</v>
+      </c>
+      <c r="J28" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7">
-        <v>1</v>
-      </c>
-      <c r="L28" s="29"/>
-      <c r="M28" s="29"/>
-      <c r="N28" s="7" t="s">
-        <v>159</v>
+      <c r="L28" s="7">
+        <v>1</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>158</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+      <c r="R28" s="7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="29" t="s">
         <v>87</v>
       </c>
@@ -2603,12 +2866,11 @@
       <c r="C29" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="D29" s="7"/>
       <c r="E29" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="F29" s="7">
-        <v>1</v>
+      <c r="F29" s="7" t="s">
+        <v>208</v>
       </c>
       <c r="G29" s="7">
         <v>1</v>
@@ -2616,27 +2878,26 @@
       <c r="H29" s="7">
         <v>1</v>
       </c>
-      <c r="I29" s="28" t="s">
+      <c r="I29" s="7">
+        <v>1</v>
+      </c>
+      <c r="J29" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="29"/>
-      <c r="N29" s="29" t="s">
+      <c r="O29" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="O29" s="29" t="s">
-        <v>158</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>126</v>
+      <c r="P29" s="29" t="s">
+        <v>157</v>
       </c>
       <c r="Q29" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="R29" s="7" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
         <v>75</v>
       </c>
@@ -2646,36 +2907,32 @@
       <c r="C30" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="D30" s="7"/>
       <c r="E30" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="F30" s="7">
-        <v>1</v>
-      </c>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7">
-        <v>1</v>
-      </c>
-      <c r="I30" s="28" t="s">
+      <c r="F30" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G30" s="7">
+        <v>1</v>
+      </c>
+      <c r="I30" s="7">
+        <v>1</v>
+      </c>
+      <c r="J30" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="29"/>
-      <c r="N30" s="7" t="s">
-        <v>133</v>
-      </c>
       <c r="O30" s="7" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q30" s="7"/>
-    </row>
-    <row r="31" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="29" t="s">
         <v>76</v>
       </c>
@@ -2685,36 +2942,32 @@
       <c r="C31" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="D31" s="7"/>
       <c r="E31" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="F31" s="7">
-        <v>1</v>
+      <c r="F31" s="7" t="s">
+        <v>213</v>
       </c>
       <c r="G31" s="7">
         <v>1</v>
       </c>
-      <c r="H31" s="7"/>
-      <c r="I31" s="28" t="s">
+      <c r="H31" s="7">
+        <v>1</v>
+      </c>
+      <c r="J31" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="29"/>
-      <c r="N31" s="7"/>
-      <c r="O31" s="7" t="s">
-        <v>158</v>
-      </c>
       <c r="P31" s="7" t="s">
-        <v>127</v>
+        <v>157</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+      <c r="R31" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="29" t="s">
         <v>78</v>
       </c>
@@ -2724,34 +2977,29 @@
       <c r="C32" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="D32" s="7"/>
       <c r="E32" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7">
-        <v>1</v>
-      </c>
-      <c r="H32" s="7"/>
-      <c r="I32" s="28" t="s">
+      <c r="F32" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="H32" s="7">
+        <v>1</v>
+      </c>
+      <c r="J32" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="29"/>
-      <c r="N32" s="7" t="s">
-        <v>142</v>
-      </c>
       <c r="O32" s="7" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q32" s="7"/>
-    </row>
-    <row r="33" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="29" t="s">
         <v>79</v>
       </c>
@@ -2767,32 +3015,29 @@
       <c r="E33" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7">
-        <v>1</v>
+      <c r="F33" s="7" t="s">
+        <v>209</v>
       </c>
       <c r="H33" s="7">
         <v>1</v>
       </c>
-      <c r="I33" s="28" t="s">
+      <c r="I33" s="7">
+        <v>1</v>
+      </c>
+      <c r="J33" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="29"/>
-      <c r="M33" s="29"/>
-      <c r="N33" s="7"/>
-      <c r="O33" s="7" t="s">
-        <v>158</v>
-      </c>
       <c r="P33" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q33" s="29" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="R33" s="29" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="29" t="s">
         <v>81</v>
       </c>
@@ -2808,32 +3053,29 @@
       <c r="E34" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7">
-        <v>1</v>
-      </c>
-      <c r="H34" s="7"/>
-      <c r="I34" s="28" t="s">
+      <c r="F34" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="H34" s="7">
+        <v>1</v>
+      </c>
+      <c r="J34" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="29"/>
-      <c r="M34" s="29"/>
-      <c r="N34" s="7" t="s">
+      <c r="O34" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="R34" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="O34" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="29" t="s">
         <v>90</v>
       </c>
@@ -2849,28 +3091,23 @@
       <c r="E35" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="28" t="s">
+      <c r="F35" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="J35" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="29"/>
-      <c r="M35" s="29"/>
-      <c r="N35" s="7"/>
-      <c r="O35" s="7" t="s">
-        <v>158</v>
-      </c>
       <c r="P35" s="7" t="s">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="Q35" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="R35" s="7" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="29" t="s">
         <v>82</v>
       </c>
@@ -2880,36 +3117,32 @@
       <c r="C36" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D36" s="7"/>
       <c r="E36" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7">
-        <v>1</v>
-      </c>
-      <c r="H36" s="7"/>
-      <c r="I36" s="28" t="s">
+      <c r="F36" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="H36" s="7">
+        <v>1</v>
+      </c>
+      <c r="J36" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="29"/>
-      <c r="M36" s="29"/>
-      <c r="N36" s="7" t="s">
-        <v>143</v>
-      </c>
       <c r="O36" s="7" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>127</v>
+        <v>157</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+      <c r="R36" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="29" t="s">
         <v>83</v>
       </c>
@@ -2919,36 +3152,32 @@
       <c r="C37" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D37" s="7"/>
       <c r="E37" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7">
-        <v>1</v>
-      </c>
-      <c r="H37" s="7"/>
-      <c r="I37" s="28" t="s">
+      <c r="F37" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="H37" s="7">
+        <v>1</v>
+      </c>
+      <c r="J37" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="29"/>
-      <c r="M37" s="29"/>
-      <c r="N37" s="7" t="s">
-        <v>130</v>
-      </c>
       <c r="O37" s="7" t="s">
-        <v>158</v>
+        <v>129</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>127</v>
+        <v>157</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+      <c r="R37" s="7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="29" t="s">
         <v>84</v>
       </c>
@@ -2958,36 +3187,32 @@
       <c r="C38" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D38" s="7"/>
       <c r="E38" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7">
-        <v>1</v>
-      </c>
-      <c r="H38" s="7"/>
-      <c r="I38" s="28" t="s">
+      <c r="F38" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="H38" s="7">
+        <v>1</v>
+      </c>
+      <c r="J38" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="J38" s="7"/>
-      <c r="K38" s="7"/>
-      <c r="L38" s="29"/>
-      <c r="M38" s="29"/>
-      <c r="N38" s="7" t="s">
-        <v>130</v>
-      </c>
       <c r="O38" s="7" t="s">
-        <v>158</v>
+        <v>129</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>127</v>
+        <v>157</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+      <c r="R38" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="29" t="s">
         <v>85</v>
       </c>
@@ -2997,36 +3222,32 @@
       <c r="C39" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D39" s="7"/>
       <c r="E39" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7">
-        <v>1</v>
-      </c>
-      <c r="H39" s="7"/>
-      <c r="I39" s="28" t="s">
+      <c r="F39" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="H39" s="7">
+        <v>1</v>
+      </c>
+      <c r="J39" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
-      <c r="L39" s="29"/>
-      <c r="M39" s="29"/>
-      <c r="N39" s="7" t="s">
-        <v>129</v>
-      </c>
       <c r="O39" s="7" t="s">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+      <c r="R39" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="29" t="s">
         <v>86</v>
       </c>
@@ -3036,36 +3257,32 @@
       <c r="C40" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D40" s="7"/>
       <c r="E40" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7">
-        <v>1</v>
+      <c r="F40" s="7" t="s">
+        <v>208</v>
       </c>
       <c r="H40" s="7">
         <v>1</v>
       </c>
-      <c r="I40" s="28" t="s">
+      <c r="I40" s="7">
+        <v>1</v>
+      </c>
+      <c r="J40" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="J40" s="7"/>
-      <c r="K40" s="7"/>
-      <c r="L40" s="29"/>
-      <c r="M40" s="29"/>
-      <c r="N40" s="7" t="s">
-        <v>128</v>
-      </c>
       <c r="O40" s="7" t="s">
-        <v>158</v>
+        <v>127</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q40" s="7"/>
-    </row>
-    <row r="41" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+      <c r="Q40" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="29" t="s">
         <v>88</v>
       </c>
@@ -3075,36 +3292,32 @@
       <c r="C41" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D41" s="7"/>
       <c r="E41" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7">
-        <v>1</v>
+      <c r="F41" s="7" t="s">
+        <v>208</v>
       </c>
       <c r="H41" s="7">
         <v>1</v>
       </c>
-      <c r="I41" s="28" t="s">
+      <c r="I41" s="7">
+        <v>1</v>
+      </c>
+      <c r="J41" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="J41" s="7"/>
-      <c r="K41" s="7"/>
-      <c r="L41" s="29"/>
-      <c r="M41" s="29"/>
-      <c r="N41" s="7" t="s">
-        <v>128</v>
-      </c>
       <c r="O41" s="7" t="s">
-        <v>158</v>
+        <v>127</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q41" s="7"/>
-    </row>
-    <row r="42" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+      <c r="Q41" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="29" t="s">
         <v>94</v>
       </c>
@@ -3114,36 +3327,32 @@
       <c r="C42" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D42" s="7"/>
       <c r="E42" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7">
-        <v>1</v>
-      </c>
-      <c r="I42" s="28" t="s">
+      <c r="F42" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I42" s="7">
+        <v>1</v>
+      </c>
+      <c r="J42" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="J42" s="7"/>
-      <c r="K42" s="7"/>
-      <c r="L42" s="29"/>
-      <c r="M42" s="29"/>
-      <c r="N42" s="29" t="s">
+      <c r="O42" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="O42" s="29" t="s">
-        <v>158</v>
-      </c>
-      <c r="P42" s="7" t="s">
-        <v>125</v>
+      <c r="P42" s="29" t="s">
+        <v>157</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+      <c r="R42" s="7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="29" t="s">
         <v>99</v>
       </c>
@@ -3153,38 +3362,34 @@
       <c r="C43" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D43" s="7"/>
       <c r="E43" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="F43" s="7">
-        <v>1</v>
+      <c r="F43" s="7" t="s">
+        <v>209</v>
       </c>
       <c r="G43" s="7">
         <v>1</v>
       </c>
-      <c r="H43" s="7"/>
-      <c r="I43" s="28" t="s">
+      <c r="H43" s="7">
+        <v>1</v>
+      </c>
+      <c r="J43" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="J43" s="7"/>
-      <c r="K43" s="7"/>
-      <c r="L43" s="29"/>
-      <c r="M43" s="29"/>
-      <c r="N43" s="7" t="s">
+      <c r="O43" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="O43" s="7" t="s">
-        <v>158</v>
-      </c>
       <c r="P43" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q43" s="7"/>
-    </row>
-    <row r="44" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+      <c r="Q43" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B44" s="29" t="s">
         <v>57</v>
@@ -3198,34 +3403,31 @@
       <c r="E44" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="F44" s="7">
-        <v>1</v>
-      </c>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="28" t="s">
+      <c r="F44" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G44" s="7">
+        <v>1</v>
+      </c>
+      <c r="J44" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="J44" s="7"/>
-      <c r="K44" s="7"/>
-      <c r="L44" s="29"/>
-      <c r="M44" s="29"/>
-      <c r="N44" s="7" t="s">
-        <v>103</v>
-      </c>
       <c r="O44" s="7" t="s">
-        <v>158</v>
+        <v>102</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+      <c r="R44" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="29" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B45" s="29" t="s">
         <v>55</v>
@@ -3233,40 +3435,37 @@
       <c r="C45" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D45" s="7"/>
       <c r="E45" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="F45" s="7">
-        <v>1</v>
+      <c r="F45" s="7" t="s">
+        <v>214</v>
       </c>
       <c r="G45" s="7">
         <v>1</v>
       </c>
-      <c r="H45" s="7"/>
-      <c r="I45" s="28" t="s">
+      <c r="H45" s="7">
+        <v>1</v>
+      </c>
+      <c r="J45" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="J45" s="7"/>
-      <c r="K45" s="7"/>
-      <c r="L45" s="29"/>
-      <c r="M45" s="29"/>
-      <c r="N45" s="7" t="s">
+      <c r="O45" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q45" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="R45" s="7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="29" t="s">
         <v>103</v>
-      </c>
-      <c r="O45" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="29" t="s">
-        <v>104</v>
       </c>
       <c r="B46" s="29" t="s">
         <v>55</v>
@@ -3274,36 +3473,31 @@
       <c r="C46" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D46" s="7"/>
       <c r="E46" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="F46" s="7">
-        <v>1</v>
-      </c>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="28" t="s">
+      <c r="F46" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G46" s="7">
+        <v>1</v>
+      </c>
+      <c r="J46" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="J46" s="7"/>
-      <c r="K46" s="7"/>
-      <c r="L46" s="29"/>
-      <c r="M46" s="29"/>
-      <c r="N46" s="7" t="s">
-        <v>105</v>
-      </c>
       <c r="O46" s="7" t="s">
-        <v>158</v>
+        <v>104</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q46" s="7"/>
-    </row>
-    <row r="47" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+      <c r="Q46" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="29" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B47" s="29" t="s">
         <v>57</v>
@@ -3311,42 +3505,40 @@
       <c r="C47" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D47" s="7"/>
       <c r="E47" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7">
-        <v>1</v>
-      </c>
-      <c r="H47" s="7"/>
-      <c r="I47" s="28" t="s">
+      <c r="F47" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="H47" s="7">
+        <v>1</v>
+      </c>
+      <c r="J47" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="J47" s="7"/>
-      <c r="K47" s="7"/>
-      <c r="L47" s="29" t="s">
-        <v>67</v>
-      </c>
       <c r="M47" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="N47" s="7" t="s">
-        <v>103</v>
+      <c r="N47" s="29" t="s">
+        <v>67</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>158</v>
+        <v>102</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+      <c r="R47" s="7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B48" s="29" t="s">
         <v>55</v>
@@ -3354,42 +3546,40 @@
       <c r="C48" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D48" s="7"/>
       <c r="E48" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7">
-        <v>1</v>
-      </c>
-      <c r="H48" s="7"/>
-      <c r="I48" s="28" t="s">
+      <c r="F48" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="H48" s="7">
+        <v>1</v>
+      </c>
+      <c r="J48" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="J48" s="7"/>
-      <c r="K48" s="7"/>
-      <c r="L48" s="29" t="s">
-        <v>67</v>
-      </c>
       <c r="M48" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="N48" s="7" t="s">
-        <v>103</v>
+      <c r="N48" s="29" t="s">
+        <v>67</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>158</v>
+        <v>102</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+      <c r="R48" s="7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B49" s="29" t="s">
         <v>57</v>
@@ -3397,42 +3587,40 @@
       <c r="C49" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D49" s="7"/>
       <c r="E49" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7">
-        <v>1</v>
-      </c>
-      <c r="H49" s="7"/>
-      <c r="I49" s="28" t="s">
+      <c r="F49" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="H49" s="7">
+        <v>1</v>
+      </c>
+      <c r="J49" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="J49" s="7"/>
-      <c r="K49" s="7"/>
-      <c r="L49" s="29" t="s">
-        <v>67</v>
-      </c>
       <c r="M49" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="N49" s="7" t="s">
-        <v>103</v>
+      <c r="N49" s="29" t="s">
+        <v>67</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>158</v>
+        <v>102</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="Q49" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="R49" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="29" t="s">
         <v>111</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="29" t="s">
-        <v>112</v>
       </c>
       <c r="B50" s="29" t="s">
         <v>55</v>
@@ -3440,42 +3628,40 @@
       <c r="C50" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D50" s="7"/>
       <c r="E50" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7">
-        <v>1</v>
-      </c>
-      <c r="H50" s="7"/>
-      <c r="I50" s="28" t="s">
+      <c r="F50" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="H50" s="7">
+        <v>1</v>
+      </c>
+      <c r="J50" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="J50" s="7"/>
-      <c r="K50" s="7"/>
-      <c r="L50" s="29" t="s">
-        <v>67</v>
-      </c>
       <c r="M50" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="N50" s="7" t="s">
-        <v>103</v>
+      <c r="N50" s="29" t="s">
+        <v>67</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>158</v>
+        <v>102</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q50" s="39" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+      <c r="Q50" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="R50" s="7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="29" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B51" s="29" t="s">
         <v>57</v>
@@ -3483,42 +3669,40 @@
       <c r="C51" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D51" s="7"/>
       <c r="E51" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7">
-        <v>1</v>
-      </c>
-      <c r="H51" s="7"/>
-      <c r="I51" s="28" t="s">
+      <c r="F51" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="H51" s="7">
+        <v>1</v>
+      </c>
+      <c r="J51" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="J51" s="7"/>
-      <c r="K51" s="7"/>
-      <c r="L51" s="29" t="s">
-        <v>67</v>
-      </c>
       <c r="M51" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="N51" s="7" t="s">
-        <v>103</v>
+      <c r="N51" s="29" t="s">
+        <v>67</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>158</v>
+        <v>102</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+      <c r="R51" s="7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="29" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B52" s="29" t="s">
         <v>53</v>
@@ -3526,42 +3710,40 @@
       <c r="C52" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D52" s="7"/>
       <c r="E52" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7">
-        <v>1</v>
-      </c>
-      <c r="H52" s="7"/>
-      <c r="I52" s="28" t="s">
+      <c r="F52" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="H52" s="7">
+        <v>1</v>
+      </c>
+      <c r="J52" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="J52" s="7"/>
-      <c r="K52" s="7"/>
-      <c r="L52" s="29" t="s">
-        <v>67</v>
-      </c>
       <c r="M52" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="N52" s="7" t="s">
-        <v>103</v>
+      <c r="N52" s="29" t="s">
+        <v>67</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>158</v>
+        <v>102</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="Q52" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="R52" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="29" t="s">
         <v>115</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="29" t="s">
-        <v>116</v>
       </c>
       <c r="B53" s="29" t="s">
         <v>53</v>
@@ -3569,85 +3751,288 @@
       <c r="C53" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D53" s="7"/>
       <c r="E53" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7">
-        <v>1</v>
-      </c>
-      <c r="H53" s="7"/>
-      <c r="I53" s="28" t="s">
+      <c r="F53" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="H53" s="7">
+        <v>1</v>
+      </c>
+      <c r="J53" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="J53" s="7"/>
-      <c r="K53" s="7"/>
-      <c r="L53" s="29" t="s">
-        <v>67</v>
-      </c>
       <c r="M53" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="N53" s="7" t="s">
-        <v>103</v>
+      <c r="N53" s="29" t="s">
+        <v>67</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>158</v>
+        <v>102</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="R53" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B54" s="26" t="s">
+      <c r="B54" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="C54" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="D54" s="39"/>
-      <c r="E54" s="26" t="s">
+      <c r="C54" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="E54" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="F54" s="41">
-        <v>1</v>
-      </c>
-      <c r="G54" s="41">
-        <v>1</v>
-      </c>
-      <c r="H54" s="41"/>
-      <c r="I54" s="28" t="s">
+      <c r="F54" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G54" s="28">
+        <v>1</v>
+      </c>
+      <c r="H54" s="28">
+        <v>1</v>
+      </c>
+      <c r="I54" s="28"/>
+      <c r="J54" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="J54" s="38">
-        <v>1</v>
-      </c>
-      <c r="K54" s="38"/>
-      <c r="L54" s="27" t="s">
-        <v>158</v>
-      </c>
+      <c r="K54" s="28">
+        <v>1</v>
+      </c>
+      <c r="L54" s="28"/>
       <c r="M54" s="27" t="s">
-        <v>158</v>
-      </c>
-      <c r="N54" s="41"/>
-      <c r="O54" s="41"/>
-      <c r="P54" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q54" s="39"/>
+        <v>157</v>
+      </c>
+      <c r="N54" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="O54" s="28"/>
+      <c r="P54" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q54" s="28" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B55" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C55" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="E55" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G55" s="7">
+        <v>1</v>
+      </c>
+      <c r="J55" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="M55" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="N55" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="O55" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P55" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q55" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="B56" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C56" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="E56" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G56" s="7">
+        <v>1</v>
+      </c>
+      <c r="J56" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="M56" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="N56" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="O56" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P56" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q56" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="B57" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C57" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="E57" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G57" s="7">
+        <v>1</v>
+      </c>
+      <c r="J57" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="M57" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="N57" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="O57" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P57" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q57" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="R57" s="7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="29" t="s">
+        <v>200</v>
+      </c>
+      <c r="B58" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="E58" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G58" s="7">
+        <v>1</v>
+      </c>
+      <c r="J58" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M58" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="N58" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="O58" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P58" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q58" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="R58" s="7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="B59" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="E59" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G59" s="7">
+        <v>1</v>
+      </c>
+      <c r="J59" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M59" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="N59" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="O59" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="P59" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q59" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="R59" s="7" t="s">
+        <v>205</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q54">
-    <sortCondition ref="O1:O54"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R54">
+    <sortCondition ref="P1:P54"/>
   </sortState>
-  <conditionalFormatting sqref="B31:B1048576 B1:B29 E1:E1048576">
+  <conditionalFormatting sqref="B1:B29 B31:B1048576 E1:E1048576">
     <cfRule type="containsBlanks" dxfId="2" priority="5">
       <formula>LEN(TRIM(B1))=0</formula>
     </cfRule>
@@ -3666,7 +4051,7 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{35E0EA29-2B37-49A0-98F9-64A93CA05CE6}">
           <x14:formula1>
             <xm:f>lookup!$A:$A</xm:f>
@@ -3683,13 +4068,19 @@
           <x14:formula1>
             <xm:f>lookup!$D:$D</xm:f>
           </x14:formula1>
-          <xm:sqref>P1:P1048576</xm:sqref>
+          <xm:sqref>Q1:Q1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7E6D3AA7-6E06-46B8-B1A1-AAD5FAD99EA7}">
           <x14:formula1>
             <xm:f>lookup!$E$1:$E$2</xm:f>
           </x14:formula1>
-          <xm:sqref>O1:O7 O9:O1048576</xm:sqref>
+          <xm:sqref>P1:P1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1EF23BBD-E7E3-4DF8-8816-43AC3037C329}">
+          <x14:formula1>
+            <xm:f>lookup!$F$2:$F$14</xm:f>
+          </x14:formula1>
+          <xm:sqref>F1:F1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3705,7 +4096,7 @@
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C14"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3720,10 +4111,10 @@
         <v>51</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C1" s="33" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D1" s="33" t="s">
         <v>33</v>
@@ -3734,10 +4125,10 @@
         <v>40</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -3745,7 +4136,7 @@
         <v>53</v>
       </c>
       <c r="B3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -3761,7 +4152,7 @@
         <v>55</v>
       </c>
       <c r="B5" t="s">
-        <v>101</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -3777,7 +4168,7 @@
         <v>57</v>
       </c>
       <c r="B7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3785,7 +4176,7 @@
         <v>58</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C8" s="32" t="s">
         <v>41</v>
@@ -3797,7 +4188,7 @@
         <v>69</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3805,7 +4196,7 @@
         <v>70</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -3813,7 +4204,7 @@
         <v>71</v>
       </c>
       <c r="B11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3821,7 +4212,7 @@
         <v>72</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="C12" t="s">
         <v>99</v>
@@ -3832,7 +4223,7 @@
         <v>73</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C13" s="22" t="s">
         <v>5</v>
@@ -3851,10 +4242,10 @@
         <v>61</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D17" s="33" t="s">
         <v>33</v>
@@ -3865,11 +4256,11 @@
         <v>40</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C18" s="22"/>
       <c r="D18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -3877,7 +4268,7 @@
         <v>53</v>
       </c>
       <c r="B19" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -3893,7 +4284,7 @@
         <v>55</v>
       </c>
       <c r="B21" t="s">
-        <v>101</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -3904,7 +4295,7 @@
         <v>92</v>
       </c>
       <c r="D22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -3912,10 +4303,10 @@
         <v>57</v>
       </c>
       <c r="B23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D23" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3923,7 +4314,7 @@
         <v>58</v>
       </c>
       <c r="B24" s="35" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C24" s="32" t="s">
         <v>41</v>
@@ -3935,7 +4326,7 @@
         <v>69</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3943,7 +4334,7 @@
         <v>70</v>
       </c>
       <c r="B26" s="36" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -3951,10 +4342,10 @@
         <v>71</v>
       </c>
       <c r="B27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3962,7 +4353,7 @@
         <v>72</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -3970,7 +4361,7 @@
         <v>73</v>
       </c>
       <c r="B29" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -3981,7 +4372,7 @@
         <v>92</v>
       </c>
       <c r="D30" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
@@ -3989,10 +4380,10 @@
         <v>50</v>
       </c>
       <c r="B33" s="33" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C33" s="33" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D33" s="33" t="s">
         <v>33</v>
@@ -4003,10 +4394,10 @@
         <v>40</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -4014,7 +4405,7 @@
         <v>53</v>
       </c>
       <c r="D35" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -4030,7 +4421,7 @@
         <v>55</v>
       </c>
       <c r="B37" t="s">
-        <v>101</v>
+        <v>162</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -4046,7 +4437,7 @@
         <v>57</v>
       </c>
       <c r="B39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4054,7 +4445,7 @@
         <v>58</v>
       </c>
       <c r="B40" s="35" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C40" s="32"/>
       <c r="D40" s="32"/>
@@ -4064,10 +4455,10 @@
         <v>69</v>
       </c>
       <c r="B41" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C41" s="22" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -4075,7 +4466,7 @@
         <v>70</v>
       </c>
       <c r="B42" s="36" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -4083,7 +4474,7 @@
         <v>71</v>
       </c>
       <c r="B43" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -4091,7 +4482,7 @@
         <v>72</v>
       </c>
       <c r="B44" s="22" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="C44" t="s">
         <v>99</v>
@@ -4102,7 +4493,7 @@
         <v>73</v>
       </c>
       <c r="B45" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C45" s="22" t="s">
         <v>5</v>
@@ -4123,19 +4514,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C91E8D20-3A98-4410-9DE0-950E445F49E4}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.7109375" customWidth="1"/>
+    <col min="6" max="6" width="36.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>40</v>
       </c>
@@ -4143,16 +4535,19 @@
         <v>69</v>
       </c>
       <c r="C1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+      <c r="F1" s="40" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
         <v>53</v>
       </c>
@@ -4160,16 +4555,19 @@
         <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+      <c r="F2" s="41" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
         <v>54</v>
       </c>
@@ -4177,41 +4575,131 @@
         <v>71</v>
       </c>
       <c r="D3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+      <c r="F3" s="42" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
         <v>55</v>
       </c>
       <c r="B4" s="26" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F4" s="41" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
         <v>56</v>
       </c>
       <c r="B5" s="26" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F5" s="42" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
         <v>57</v>
       </c>
       <c r="B6" s="26" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="41" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
         <v>58</v>
       </c>
       <c r="B7" s="23"/>
+      <c r="F7" s="42" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F8" s="41" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F9" s="42" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F10" s="41" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F11" s="42" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F12" s="41" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F13" s="42" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F14" s="43" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F15" s="43"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F16" s="43"/>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F17" s="44"/>
+    </row>
+    <row r="18" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F18" s="43"/>
+    </row>
+    <row r="19" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F19" s="44"/>
+    </row>
+    <row r="20" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F20" s="43"/>
+    </row>
+    <row r="21" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F21" s="44"/>
+    </row>
+    <row r="22" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F22" s="43"/>
+    </row>
+    <row r="23" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F23" s="43"/>
+    </row>
+    <row r="24" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F24" s="43"/>
+    </row>
+    <row r="25" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F25" s="43"/>
+    </row>
+    <row r="26" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F26" s="43"/>
+    </row>
+    <row r="27" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F27" s="43"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/data/indikatorer.xlsx
+++ b/data/indikatorer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anders.kolstad\Documents\Github\indikatoroversikt\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anders.kolstad\Documents\Github\indiPri\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE7D2F81-3780-40C7-8F68-949AD254A638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9497A2E6-1E1E-4DCA-95E0-E542CE503EA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{755B2D29-11E6-40FC-B47B-120341420DDA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{755B2D29-11E6-40FC-B47B-120341420DDA}"/>
   </bookViews>
   <sheets>
     <sheet name="Indikatoroversikt" sheetId="3" r:id="rId1"/>
@@ -19,6 +19,9 @@
     <sheet name="clipboard" sheetId="1" r:id="rId4"/>
     <sheet name="Gammel - Dekningsgrad" sheetId="2" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Indikatoroversikt!$A$1:$R$66</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="259">
   <si>
     <t>PAEC pilot Trøndelg</t>
   </si>
@@ -313,15 +316,9 @@
     <t>Areal uten dekning av busksjikt</t>
   </si>
   <si>
-    <t>Oppført under funksjonelle grupper i GRUK</t>
-  </si>
-  <si>
     <t>Konnektivitet</t>
   </si>
   <si>
-    <t>I GRUK er det kun tenkt på høyrisikoarter</t>
-  </si>
-  <si>
     <t>Artsrikdom og/eller artssammensetning av habitatspesifikke karplanter </t>
   </si>
   <si>
@@ -331,10 +328,6 @@
     <t>GRUK-karplanter, GRUK krysslister </t>
   </si>
   <si>
-    <t>ANO
-GRUK-dekningsgrad</t>
-  </si>
-  <si>
     <t>Ikke testet</t>
   </si>
   <si>
@@ -405,9 +398,6 @@
   </si>
   <si>
     <t>Jordkjemi</t>
-  </si>
-  <si>
-    <t>Ikke klart helt hva som skal inngå i en slik indikator enda</t>
   </si>
   <si>
     <t>Hydrologi i våtmark</t>
@@ -466,9 +456,6 @@
   </si>
   <si>
     <t>ANO</t>
-  </si>
-  <si>
-    <t>Naturtper etter Miljødirektoratets Instruks</t>
   </si>
   <si>
     <t>INON, m.m.</t>
@@ -520,9 +507,6 @@
   </si>
   <si>
     <t>ANO, ASO, GRUK</t>
-  </si>
-  <si>
-    <t>Relatert til areal uten dekning av trær, og til gjenngroingsindikatoren</t>
   </si>
   <si>
     <t>Dette er en påvirkningsfaktor</t>
@@ -575,16 +559,10 @@
     </r>
   </si>
   <si>
-    <t>Utvalgt</t>
-  </si>
-  <si>
     <t>Denne vurderes under indikatorprosjektet Tetthet av beitedyr</t>
   </si>
   <si>
     <t>Insektbaserte indikatorer vurderes i inseksprosjektet</t>
-  </si>
-  <si>
-    <t>Denne vurderes i Naturtypekartleggingsprosjektet</t>
   </si>
   <si>
     <t>Uenig i piloten som putter denne i egenskapen primærproduksjon. Kanskje heller som en funskjonelt viktig gruppe?
@@ -595,9 +573,6 @@
   </si>
   <si>
     <t>Også brukt under funksjonelt viktige arter, men der tror jeg ikke sommerfugler hører hjemme. Insektbaserte indikatorer vurderes i inseksprosjektet</t>
-  </si>
-  <si>
-    <t>Egentlig en påvirkningsvariabel</t>
   </si>
   <si>
     <t>Vurderes i naturlig åpne områder-prosjektet</t>
@@ -794,9 +769,6 @@
     <t>Feltinventering. Landskog</t>
   </si>
   <si>
-    <t xml:space="preserve">Foreslått som indikatore i fagsystemrapporten. </t>
-  </si>
-  <si>
     <t>Primærproduksjon basert på fjernmåling </t>
   </si>
   <si>
@@ -825,13 +797,174 @@
   </si>
   <si>
     <t>Naturtypekartleggingsprosjektet </t>
+  </si>
+  <si>
+    <t>Per 2021 er det kun 26 250m2 flater i ANO som samenfaller med kystlynghei. En indikatore basert på dette datagrunnlaget er ikke mulig.</t>
+  </si>
+  <si>
+    <t>Naturtyper etter Miljødirektoratets Instruks</t>
+  </si>
+  <si>
+    <t>Denne variabelen registreres som en del av naturmangfoldsvurderingen av kystlynghei. Denne vurderingen blir ikke gjort dersom tilstanded i lokaliteten er svært dårlig. For kystlynghei gjelder dette 23% av lokalitetene. Denne indikatoren bør forkastes. https://ninanor.github.io/ecosystemCondition/naturtype.html#jb-ku-kystlyngheias-utviklingsfaser</t>
+  </si>
+  <si>
+    <t>Aktuell bruksintensitet (7JB-BA) er egentlig en påvirkningsindikator. Den er også noe sammenfallende med indikatoren for gjengroing. Denne  indikatoren bør ikke utvikles videre. https://ninanor.github.io/ecosystemCondition/naturtype.html#jb-ba-aktuell-bruksintensitet</t>
+  </si>
+  <si>
+    <t>Naturtypedata
+(-ANO)
+GRUK-dekningsgrad</t>
+  </si>
+  <si>
+    <t>Slitasje</t>
+  </si>
+  <si>
+    <t>Naturtypedatasettet</t>
+  </si>
+  <si>
+    <t>Indikatoren baserer seg på variablene 7TK, PRTK, 7SE og 7SL og vil dekke hele semi-naturlig mark og våtmark, samt T12, T18 o T21 for Naturlig åpne områder. Det vil også gjennomføres en pilot for å teste om vi kna beregne slitasje i våtmark med bruk av jernmåling.</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>under utvikling</t>
+  </si>
+  <si>
+    <t>indikatorkart ferdige</t>
+  </si>
+  <si>
+    <t>vurderes</t>
+  </si>
+  <si>
+    <t>forkastet</t>
+  </si>
+  <si>
+    <t>nedprioritert</t>
+  </si>
+  <si>
+    <t>vil utvikles</t>
+  </si>
+  <si>
+    <t>jordkarbon</t>
+  </si>
+  <si>
+    <t>Utvikles som en lokal pilot</t>
+  </si>
+  <si>
+    <t>Akrotelm transmissitivitet</t>
+  </si>
+  <si>
+    <t>DTM, klimadata</t>
+  </si>
+  <si>
+    <t>Relatert til areal uten dekning av trær, og til gjenngroingsindikatoren. Forkastes til fordel for gjengroingsindikatoren.</t>
+  </si>
+  <si>
+    <t>Denne indikatoren, eller en versjon av den, vil bli forsøkt utviklet under naturtypeprosjektet i 2023</t>
+  </si>
+  <si>
+    <t>Oppført under funksjonelle grupper i GRUK. Forkastes til fordel for gjengroingsindikatoren</t>
+  </si>
+  <si>
+    <t>Forkastet til fordel for gjengroingsindikatoren</t>
+  </si>
+  <si>
+    <t>Foreslått som indikatore i fagsystemrapporten. Litt usikker på hvilken egenskap denne helst bør knyttes til. Forkastet grunnet lav dekning (sjelden naturtype)</t>
+  </si>
+  <si>
+    <t>Foreslått som indikatore i fagsystemrapporten. Forkastet siden sumpskog ikke lengre inngår i hovedøkosystemet våtmark.</t>
+  </si>
+  <si>
+    <t>Median vannstand for deltaer og flomsletter</t>
+  </si>
+  <si>
+    <t>Oversvømmelsesvarighet for deltaer og flomsletter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sentinell </t>
+  </si>
+  <si>
+    <t>Indikatoren utvikles som er lokalt pilotprosjekt</t>
+  </si>
+  <si>
+    <t>Helofyttbeltet</t>
+  </si>
+  <si>
+    <t>Fjernmåling?</t>
+  </si>
+  <si>
+    <t>Foreslått som indikator i fagsystemrapporten. Dette er en svært marginal naturtype under våtmark</t>
+  </si>
+  <si>
+    <t>Prestekrage</t>
+  </si>
+  <si>
+    <t>Solblom</t>
+  </si>
+  <si>
+    <t>GBIF</t>
+  </si>
+  <si>
+    <t>Eksisterende databaser</t>
+  </si>
+  <si>
+    <t>Foreslått som indikator i Fagsystemrapporten. Dette er en NI indikator angitt som modellert gjennomsnittlig sannsynelighet for forekomst, basert i data fra GBIF korrigert for innsmalingsinnsats</t>
+  </si>
+  <si>
+    <t>Foreslått som indikator i Fagsystemrapporten, men svært usikker på represntativiteten.</t>
+  </si>
+  <si>
+    <t>Engtordivel</t>
+  </si>
+  <si>
+    <t>Fiolett oljebille</t>
+  </si>
+  <si>
+    <t>Insects versus birds</t>
+  </si>
+  <si>
+    <t>Anuran amphibi-ans</t>
+  </si>
+  <si>
+    <t>Plant biomass versus ungulates</t>
+  </si>
+  <si>
+    <t>Pollinator species (distribution models)</t>
+  </si>
+  <si>
+    <t>Winter grazing sheep in coastal lowlands</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Kanskje mulig med aukustisk overvåking</t>
+  </si>
+  <si>
+    <t>NPP og jaktstatestikk, mm</t>
+  </si>
+  <si>
+    <t>Modeller av bl.a. Sydenham et al.</t>
+  </si>
+  <si>
+    <t>There are currently no temporally and spatially consistent statistics on the number of winter graz-ing sheep, but the number of animals slaughtered probably gives a good indication of changes in densities</t>
+  </si>
+  <si>
+    <t>Foreslått som indikator i Fagsystemrapporten. Dette er en NI indikator basert i stor grad på Artskart og ekspertvurderinger.</t>
+  </si>
+  <si>
+    <t>Foreslått som indikator i PAEC-piloten</t>
+  </si>
+  <si>
+    <t>Dataene er ikke tigjengelige i høy nok oppløsning eller god nok kvalitet.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -968,6 +1101,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1155,7 +1294,7 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1260,6 +1399,7 @@
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
@@ -1606,31 +1746,31 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:R59"/>
+  <dimension ref="A1:R73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A54" sqref="A54:XFD54"/>
+      <selection pane="bottomRight" activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.140625" style="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.140625" style="29" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" style="7" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="27.7109375" style="29" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="7"/>
-    <col min="8" max="8" width="18.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" style="7" customWidth="1"/>
-    <col min="11" max="12" width="9.140625" style="7"/>
-    <col min="13" max="14" width="16.140625" style="29" customWidth="1"/>
-    <col min="15" max="15" width="37.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="31.140625" style="29" customWidth="1"/>
+    <col min="3" max="3" width="29.140625" style="29" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="27.7109375" style="29" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="7"/>
+    <col min="9" max="9" width="18.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" style="7" customWidth="1"/>
+    <col min="12" max="13" width="9.140625" style="7"/>
+    <col min="14" max="15" width="16.140625" style="29" customWidth="1"/>
+    <col min="16" max="16" width="37.140625" style="7" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="15.85546875" style="7" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="63.42578125" style="7" customWidth="1"/>
     <col min="19" max="16384" width="9.140625" style="7"/>
@@ -1641,49 +1781,49 @@
         <v>59</v>
       </c>
       <c r="B1" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="C1" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="17" t="s">
-        <v>133</v>
-      </c>
       <c r="D1" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="E1" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="F1" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="17" t="s">
-        <v>199</v>
-      </c>
       <c r="G1" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="H1" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="I1" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="J1" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="J1" s="17" t="s">
-        <v>117</v>
-      </c>
       <c r="K1" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="L1" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="M1" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="N1" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="O1" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="O1" s="17" t="s">
-        <v>95</v>
-      </c>
       <c r="P1" s="17" t="s">
-        <v>169</v>
+        <v>93</v>
       </c>
       <c r="Q1" s="17" t="s">
         <v>65</v>
@@ -1694,71 +1834,71 @@
     </row>
     <row r="2" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="B2" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="C2" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="E2" s="27" t="s">
+      <c r="D2" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="G2" s="28">
-        <v>1</v>
+      <c r="G2" s="7" t="s">
+        <v>196</v>
       </c>
       <c r="H2" s="28">
         <v>1</v>
       </c>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28" t="s">
+      <c r="I2" s="28">
+        <v>1</v>
+      </c>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="K2" s="28">
-        <v>1</v>
-      </c>
-      <c r="L2" s="28"/>
-      <c r="M2" s="27" t="s">
-        <v>134</v>
-      </c>
+      <c r="L2" s="28">
+        <v>1</v>
+      </c>
+      <c r="M2" s="28"/>
       <c r="N2" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="O2" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="O2" s="28" t="s">
-        <v>136</v>
-      </c>
       <c r="P2" s="28" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="Q2" s="28" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="B3" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="C3" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="E3" s="27" t="s">
+      <c r="D3" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="G3" s="28">
-        <v>1</v>
+      <c r="G3" s="7" t="s">
+        <v>197</v>
       </c>
       <c r="H3" s="28">
         <v>1</v>
@@ -1766,32 +1906,32 @@
       <c r="I3" s="28">
         <v>1</v>
       </c>
-      <c r="J3" s="28" t="s">
+      <c r="J3" s="28">
+        <v>1</v>
+      </c>
+      <c r="K3" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="K3" s="28">
-        <v>1</v>
-      </c>
       <c r="L3" s="28">
         <v>1</v>
       </c>
-      <c r="M3" s="27" t="s">
+      <c r="M3" s="28">
+        <v>1</v>
+      </c>
+      <c r="N3" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="N3" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="O3" s="28" t="s">
-        <v>143</v>
+      <c r="O3" s="27" t="s">
+        <v>67</v>
       </c>
       <c r="P3" s="28" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="Q3" s="28" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="30" x14ac:dyDescent="0.25">
@@ -1799,19 +1939,19 @@
         <v>41</v>
       </c>
       <c r="B4" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="C4" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="D4" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="F4" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G4" s="7">
-        <v>1</v>
+      <c r="G4" s="7" t="s">
+        <v>198</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -1819,20 +1959,20 @@
       <c r="I4" s="7">
         <v>1</v>
       </c>
-      <c r="J4" s="28" t="s">
+      <c r="J4" s="7">
+        <v>1</v>
+      </c>
+      <c r="K4" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="L4" s="7">
-        <v>1</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="P4" s="28" t="s">
-        <v>157</v>
+      <c r="M4" s="7">
+        <v>1</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>153</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="R4" s="7" t="s">
         <v>89</v>
@@ -1843,22 +1983,22 @@
         <v>42</v>
       </c>
       <c r="B5" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="C5" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="D5" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="E5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="F5" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G5" s="7">
-        <v>1</v>
+      <c r="G5" s="7" t="s">
+        <v>198</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -1866,20 +2006,20 @@
       <c r="I5" s="7">
         <v>1</v>
       </c>
-      <c r="J5" s="28" t="s">
+      <c r="J5" s="7">
+        <v>1</v>
+      </c>
+      <c r="K5" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="L5" s="7">
-        <v>1</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="P5" s="28" t="s">
-        <v>157</v>
+      <c r="M5" s="7">
+        <v>1</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>153</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="R5" s="29" t="s">
         <v>77</v>
@@ -1887,60 +2027,60 @@
     </row>
     <row r="6" spans="1:18" ht="135" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B6" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="C6" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E6" s="29" t="s">
+      <c r="D6" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="G6" s="7">
-        <v>1</v>
+      <c r="G6" s="7" t="s">
+        <v>199</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
       </c>
-      <c r="J6" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="P6" s="28" t="s">
-        <v>134</v>
+      <c r="I6" s="7">
+        <v>1</v>
+      </c>
+      <c r="K6" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>155</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="R6" s="29" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B7" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="C7" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E7" s="29" t="s">
+      <c r="D7" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G7" s="7">
-        <v>1</v>
+      <c r="G7" s="7" t="s">
+        <v>115</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -1948,46 +2088,46 @@
       <c r="I7" s="7">
         <v>1</v>
       </c>
-      <c r="J7" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="M7" s="29" t="s">
+      <c r="J7" s="7">
+        <v>1</v>
+      </c>
+      <c r="K7" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="N7" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="N7" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="P7" s="28" t="s">
-        <v>134</v>
+      <c r="O7" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>115</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="R7" s="38" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
-        <v>121</v>
+        <v>221</v>
       </c>
       <c r="B8" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="C8" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E8" s="29" t="s">
+      <c r="D8" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="G8" s="7">
-        <v>1</v>
+      <c r="G8" s="7" t="s">
+        <v>200</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -1995,1472 +2135,1478 @@
       <c r="I8" s="7">
         <v>1</v>
       </c>
-      <c r="J8" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="M8" s="29" t="s">
-        <v>67</v>
+      <c r="J8" s="7">
+        <v>1</v>
+      </c>
+      <c r="K8" s="28" t="s">
+        <v>95</v>
       </c>
       <c r="N8" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="O8" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="P8" s="28" t="s">
-        <v>157</v>
+      <c r="O8" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>151</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="R8" s="7" t="s">
-        <v>122</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B9" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="C9" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E9" s="29" t="s">
+      <c r="D9" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="I9" s="7">
-        <v>1</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="M9" s="29" t="s">
-        <v>67</v>
+      <c r="G9" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="J9" s="7">
+        <v>1</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>95</v>
       </c>
       <c r="N9" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="O9" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="P9" s="28" t="s">
-        <v>134</v>
+      <c r="O9" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>148</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="R9" s="7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
-        <v>123</v>
+        <v>223</v>
       </c>
       <c r="B10" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="C10" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E10" s="29" t="s">
+      <c r="D10" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G10" s="7">
-        <v>1</v>
-      </c>
-      <c r="J10" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="M10" s="29" t="s">
-        <v>67</v>
+      <c r="G10" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H10" s="7">
+        <v>1</v>
+      </c>
+      <c r="K10" s="28" t="s">
+        <v>95</v>
       </c>
       <c r="N10" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="O10" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="P10" s="28" t="s">
-        <v>157</v>
+      <c r="O10" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="R10" s="7" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" ht="108.75" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
-        <v>166</v>
+        <v>119</v>
       </c>
       <c r="B11" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H11" s="7">
+        <v>1</v>
+      </c>
+      <c r="K11" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="N11" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="O11" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="R11" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="108.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="C12" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="29" t="s">
+      <c r="F12" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37">
-        <v>1</v>
-      </c>
-      <c r="I11" s="37">
-        <v>1</v>
-      </c>
-      <c r="J11" s="28" t="s">
+      <c r="G12" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37">
+        <v>1</v>
+      </c>
+      <c r="J12" s="37">
+        <v>1</v>
+      </c>
+      <c r="K12" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="M11" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="N11" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="O11" s="37" t="s">
-        <v>165</v>
-      </c>
-      <c r="P11" s="28" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="R11" s="39" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G12" s="28">
-        <v>1</v>
-      </c>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="K12" s="28">
-        <v>1</v>
-      </c>
-      <c r="L12" s="28"/>
-      <c r="M12" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="N12" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="O12" s="28" t="s">
-        <v>146</v>
-      </c>
-      <c r="P12" s="28" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q12" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="R12" s="7" t="s">
-        <v>147</v>
+      <c r="N12" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="O12" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="P12" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="R12" s="39" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="E13" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="G13" s="28">
-        <v>1</v>
-      </c>
-      <c r="H13" s="28"/>
+        <v>9</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H13" s="28">
+        <v>1</v>
+      </c>
       <c r="I13" s="28"/>
-      <c r="J13" s="28" t="s">
+      <c r="J13" s="28"/>
+      <c r="K13" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="K13" s="28">
-        <v>1</v>
-      </c>
-      <c r="L13" s="28"/>
-      <c r="M13" s="27" t="s">
-        <v>157</v>
-      </c>
+      <c r="L13" s="28">
+        <v>1</v>
+      </c>
+      <c r="M13" s="28"/>
       <c r="N13" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="O13" s="28"/>
+        <v>130</v>
+      </c>
+      <c r="O13" s="27" t="s">
+        <v>152</v>
+      </c>
       <c r="P13" s="28" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="Q13" s="28" t="s">
-        <v>126</v>
+        <v>122</v>
+      </c>
+      <c r="R13" s="7" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="E14" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="H14" s="7">
-        <v>1</v>
-      </c>
-      <c r="J14" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="H14" s="28">
+        <v>1</v>
+      </c>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="K14" s="28">
-        <v>1</v>
-      </c>
-      <c r="M14" s="27"/>
+      <c r="L14" s="28">
+        <v>1</v>
+      </c>
+      <c r="M14" s="28"/>
       <c r="N14" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="R14" s="7" t="s">
-        <v>170</v>
+        <v>152</v>
+      </c>
+      <c r="O14" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="28" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="C15" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" s="29" t="s">
+      <c r="D15" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="F15" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="H15" s="7">
-        <v>1</v>
-      </c>
-      <c r="J15" s="28" t="s">
+      <c r="G15" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="I15" s="7">
+        <v>1</v>
+      </c>
+      <c r="K15" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="K15" s="28">
-        <v>1</v>
-      </c>
-      <c r="M15" s="27"/>
-      <c r="N15" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>157</v>
+      <c r="L15" s="28">
+        <v>1</v>
+      </c>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27" t="s">
+        <v>152</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="R15" s="7" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="E16" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="H16" s="7">
-        <v>1</v>
-      </c>
-      <c r="J16" s="28" t="s">
+      <c r="G16" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="I16" s="7">
+        <v>1</v>
+      </c>
+      <c r="K16" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="K16" s="28">
-        <v>1</v>
-      </c>
-      <c r="M16" s="27"/>
+      <c r="L16" s="28">
+        <v>1</v>
+      </c>
       <c r="N16" s="27"/>
-      <c r="P16" s="7" t="s">
-        <v>157</v>
+      <c r="O16" s="27" t="s">
+        <v>152</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="R16" s="7" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="I17" s="7">
+        <v>1</v>
+      </c>
+      <c r="K17" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="L17" s="28">
+        <v>1</v>
+      </c>
+      <c r="N17" s="27"/>
+      <c r="O17" s="27"/>
+      <c r="Q17" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="R17" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B18" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="C18" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="E17" s="29" t="s">
+      <c r="D18" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1</v>
-      </c>
-      <c r="J17" s="28" t="s">
+      <c r="G18" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="I18" s="7">
+        <v>1</v>
+      </c>
+      <c r="K18" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="K17" s="28">
-        <v>1</v>
-      </c>
-      <c r="M17" s="27"/>
-      <c r="N17" s="27"/>
-      <c r="P17" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="R17" s="7" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="30" t="s">
+      <c r="L18" s="28">
+        <v>1</v>
+      </c>
+      <c r="N18" s="27"/>
+      <c r="O18" s="27"/>
+      <c r="Q18" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="R18" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="29" t="s">
+      <c r="B19" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="C19" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="E18" s="29" t="s">
+      <c r="D19" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="F19" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1</v>
-      </c>
-      <c r="J18" s="28" t="s">
+      <c r="G19" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="I19" s="7">
+        <v>1</v>
+      </c>
+      <c r="K19" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="K18" s="28">
-        <v>1</v>
-      </c>
-      <c r="M18" s="27"/>
-      <c r="N18" s="27"/>
-      <c r="P18" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="E19" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="G19" s="7">
-        <v>1</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1</v>
-      </c>
-      <c r="J19" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="K19" s="28">
-        <v>1</v>
-      </c>
-      <c r="M19" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="N19" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>157</v>
-      </c>
+      <c r="L19" s="28">
+        <v>1</v>
+      </c>
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
       <c r="Q19" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="C20" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="E20" s="29" t="s">
+      <c r="D20" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="G20" s="7">
-        <v>1</v>
+      <c r="G20" s="7" t="s">
+        <v>203</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
       </c>
-      <c r="J20" s="28" t="s">
+      <c r="I20" s="7">
+        <v>1</v>
+      </c>
+      <c r="K20" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="K20" s="28">
-        <v>1</v>
-      </c>
-      <c r="M20" s="27" t="s">
-        <v>134</v>
+      <c r="L20" s="28">
+        <v>1</v>
       </c>
       <c r="N20" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>116</v>
+        <v>130</v>
+      </c>
+      <c r="O20" s="27" t="s">
+        <v>130</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>157</v>
+        <v>113</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="C21" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="E21" s="29" t="s">
+      <c r="D21" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="F21" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="F21" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="G21" s="7">
-        <v>1</v>
+      <c r="G21" s="7" t="s">
+        <v>203</v>
       </c>
       <c r="H21" s="7">
         <v>1</v>
       </c>
-      <c r="J21" s="28" t="s">
+      <c r="I21" s="7">
+        <v>1</v>
+      </c>
+      <c r="K21" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="K21" s="28">
-        <v>1</v>
-      </c>
-      <c r="M21" s="27" t="s">
-        <v>134</v>
+      <c r="L21" s="28">
+        <v>1</v>
       </c>
       <c r="N21" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>116</v>
+        <v>130</v>
+      </c>
+      <c r="O21" s="27" t="s">
+        <v>130</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>157</v>
+        <v>113</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="C22" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="E22" s="29" t="s">
+      <c r="D22" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="F22" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="F22" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="G22" s="7">
-        <v>1</v>
+      <c r="G22" s="7" t="s">
+        <v>203</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
       </c>
-      <c r="J22" s="28" t="s">
+      <c r="I22" s="7">
+        <v>1</v>
+      </c>
+      <c r="K22" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="K22" s="28">
-        <v>1</v>
-      </c>
-      <c r="M22" s="27" t="s">
-        <v>134</v>
+      <c r="L22" s="28">
+        <v>1</v>
       </c>
       <c r="N22" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>116</v>
+        <v>130</v>
+      </c>
+      <c r="O22" s="27" t="s">
+        <v>130</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>157</v>
+        <v>113</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="C23" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="E23" s="29" t="s">
+      <c r="D23" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="F23" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="F23" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="G23" s="7">
-        <v>1</v>
+      <c r="G23" s="7" t="s">
+        <v>203</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
       </c>
-      <c r="J23" s="28" t="s">
+      <c r="I23" s="7">
+        <v>1</v>
+      </c>
+      <c r="K23" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="K23" s="28">
-        <v>1</v>
-      </c>
-      <c r="M23" s="27" t="s">
-        <v>134</v>
+      <c r="L23" s="28">
+        <v>1</v>
       </c>
       <c r="N23" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>116</v>
+        <v>130</v>
+      </c>
+      <c r="O23" s="27" t="s">
+        <v>130</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>157</v>
+        <v>113</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="C24" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="E24" s="29" t="s">
+      <c r="D24" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="F24" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="F24" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="G24" s="7">
-        <v>1</v>
+      <c r="G24" s="7" t="s">
+        <v>203</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
       </c>
-      <c r="J24" s="28" t="s">
+      <c r="I24" s="7">
+        <v>1</v>
+      </c>
+      <c r="K24" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="K24" s="28">
-        <v>1</v>
-      </c>
-      <c r="M24" s="27" t="s">
-        <v>134</v>
+      <c r="L24" s="28">
+        <v>1</v>
       </c>
       <c r="N24" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>116</v>
+        <v>130</v>
+      </c>
+      <c r="O24" s="27" t="s">
+        <v>130</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>157</v>
+        <v>113</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B25" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="C25" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="E25" s="29" t="s">
+      <c r="D25" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="F25" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="G25" s="7">
-        <v>1</v>
+      <c r="G25" s="7" t="s">
+        <v>203</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
       </c>
-      <c r="J25" s="28" t="s">
+      <c r="I25" s="7">
+        <v>1</v>
+      </c>
+      <c r="K25" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="K25" s="28">
-        <v>1</v>
-      </c>
-      <c r="M25" s="27" t="s">
-        <v>134</v>
+      <c r="L25" s="28">
+        <v>1</v>
       </c>
       <c r="N25" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>116</v>
+        <v>130</v>
+      </c>
+      <c r="O25" s="27" t="s">
+        <v>130</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>157</v>
+        <v>113</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="C26" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="F26" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1</v>
+      </c>
+      <c r="K26" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="L26" s="28">
+        <v>1</v>
+      </c>
+      <c r="N26" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="O26" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="29" t="s">
+      <c r="B27" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="C27" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="E26" s="29" t="s">
+      <c r="D27" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="F27" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="G26" s="7">
-        <v>1</v>
-      </c>
-      <c r="H26" s="7">
-        <v>1</v>
-      </c>
-      <c r="J26" s="28" t="s">
+      <c r="G27" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="H27" s="7">
+        <v>1</v>
+      </c>
+      <c r="I27" s="7">
+        <v>1</v>
+      </c>
+      <c r="K27" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="K26" s="28">
-        <v>1</v>
-      </c>
-      <c r="M26" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="N26" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="B27" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="C27" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="E27" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="G27" s="7">
-        <v>1</v>
-      </c>
-      <c r="H27" s="7">
-        <v>1</v>
-      </c>
-      <c r="J27" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="K27" s="28">
-        <v>1</v>
-      </c>
-      <c r="L27" s="7">
-        <v>1</v>
-      </c>
-      <c r="M27" s="27" t="s">
-        <v>134</v>
+      <c r="L27" s="28">
+        <v>1</v>
       </c>
       <c r="N27" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>116</v>
+        <v>130</v>
+      </c>
+      <c r="O27" s="27" t="s">
+        <v>130</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>157</v>
+        <v>113</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="R27" s="7" t="s">
-        <v>151</v>
+        <v>121</v>
       </c>
     </row>
     <row r="28" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="B28" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="C28" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="E28" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="G28" s="7">
-        <v>1</v>
-      </c>
-      <c r="J28" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="C28" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="F28" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="H28" s="7">
+        <v>1</v>
+      </c>
+      <c r="I28" s="7">
+        <v>1</v>
+      </c>
+      <c r="K28" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="L28" s="7">
-        <v>1</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>158</v>
+      <c r="L28" s="28">
+        <v>1</v>
+      </c>
+      <c r="M28" s="7">
+        <v>1</v>
+      </c>
+      <c r="N28" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="O28" s="27" t="s">
+        <v>130</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>157</v>
+        <v>113</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="R28" s="7" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
     </row>
     <row r="29" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="C29" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="F29" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="H29" s="7">
+        <v>1</v>
+      </c>
+      <c r="K29" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="M29" s="7">
+        <v>1</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="R29" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="B29" s="29" t="s">
+      <c r="B30" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="C30" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="E29" s="29" t="s">
+      <c r="D30" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="F30" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="F29" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G29" s="7">
-        <v>1</v>
-      </c>
-      <c r="H29" s="7">
-        <v>1</v>
-      </c>
-      <c r="I29" s="7">
-        <v>1</v>
-      </c>
-      <c r="J29" s="28" t="s">
+      <c r="G30" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="H30" s="7">
+        <v>1</v>
+      </c>
+      <c r="I30" s="7">
+        <v>1</v>
+      </c>
+      <c r="J30" s="7">
+        <v>1</v>
+      </c>
+      <c r="K30" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="O29" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="P29" s="29" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="R29" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="B30" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="C30" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="E30" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G30" s="7">
-        <v>1</v>
-      </c>
-      <c r="I30" s="7">
-        <v>1</v>
-      </c>
-      <c r="J30" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>157</v>
+      <c r="P30" s="29" t="s">
+        <v>210</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
+      </c>
+      <c r="R30" s="7" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="31" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B31" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="C31" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="C31" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="E31" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="G31" s="7">
-        <v>1</v>
+      <c r="D31" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="F31" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>198</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
       </c>
-      <c r="J31" s="28" t="s">
+      <c r="J31" s="7">
+        <v>1</v>
+      </c>
+      <c r="K31" s="28" t="s">
         <v>68</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="R31" s="7" t="s">
-        <v>160</v>
+        <v>121</v>
       </c>
     </row>
     <row r="32" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="C32" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="F32" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="H32" s="7">
+        <v>1</v>
+      </c>
+      <c r="I32" s="7">
+        <v>1</v>
+      </c>
+      <c r="K32" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="R32" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="B32" s="29" t="s">
+      <c r="B33" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="C33" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="E32" s="29" t="s">
+      <c r="D33" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="F33" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="F32" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="H32" s="7">
-        <v>1</v>
-      </c>
-      <c r="J32" s="28" t="s">
+      <c r="G33" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="I33" s="7">
+        <v>1</v>
+      </c>
+      <c r="K33" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="O32" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" ht="60" x14ac:dyDescent="0.25">
-      <c r="A33" s="29" t="s">
+      <c r="P33" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="R33" s="7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+      <c r="A34" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="B33" s="29" t="s">
+      <c r="B34" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="C34" s="29" t="s">
         <v>55</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E33" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="H33" s="7">
-        <v>1</v>
-      </c>
-      <c r="I33" s="7">
-        <v>1</v>
-      </c>
-      <c r="J33" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="R33" s="29" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="B34" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E34" s="29" t="s">
+      <c r="E34" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F34" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="F34" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="H34" s="7">
-        <v>1</v>
-      </c>
-      <c r="J34" s="28" t="s">
+      <c r="G34" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="I34" s="7">
+        <v>1</v>
+      </c>
+      <c r="J34" s="7">
+        <v>1</v>
+      </c>
+      <c r="K34" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="O34" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>157</v>
-      </c>
       <c r="Q34" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="R34" s="7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+      <c r="R34" s="29" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="29" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B35" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="C35" s="29" t="s">
         <v>55</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E35" s="29" t="s">
+      <c r="E35" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F35" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="F35" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="J35" s="28" t="s">
-        <v>98</v>
+      <c r="G35" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="I35" s="7">
+        <v>1</v>
+      </c>
+      <c r="K35" s="28" t="s">
+        <v>68</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>157</v>
+        <v>126</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="R35" s="7" t="s">
-        <v>91</v>
+        <v>127</v>
       </c>
     </row>
     <row r="36" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="29" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B36" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="C36" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="C36" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="D36" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E36" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="H36" s="7">
-        <v>1</v>
-      </c>
-      <c r="J36" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>157</v>
+      <c r="E36" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F36" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K36" s="28" t="s">
+        <v>95</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="R36" s="7" t="s">
-        <v>172</v>
+        <v>227</v>
       </c>
     </row>
     <row r="37" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B37" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="C37" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="C37" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="D37" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E37" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="H37" s="7">
-        <v>1</v>
-      </c>
-      <c r="J37" s="28" t="s">
+      <c r="F37" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="I37" s="7">
+        <v>1</v>
+      </c>
+      <c r="K37" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="O37" s="7" t="s">
-        <v>129</v>
-      </c>
       <c r="P37" s="7" t="s">
-        <v>157</v>
+        <v>207</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="R37" s="7" t="s">
-        <v>174</v>
+        <v>208</v>
       </c>
     </row>
     <row r="38" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B38" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="C38" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="C38" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="D38" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E38" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="H38" s="7">
-        <v>1</v>
-      </c>
-      <c r="J38" s="28" t="s">
+      <c r="F38" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="I38" s="7">
+        <v>1</v>
+      </c>
+      <c r="K38" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="O38" s="7" t="s">
-        <v>129</v>
-      </c>
       <c r="P38" s="7" t="s">
-        <v>157</v>
+        <v>125</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="R38" s="7" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
     </row>
     <row r="39" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B39" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="C39" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="C39" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E39" s="29" t="s">
+      <c r="D39" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F39" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="F39" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="H39" s="7">
-        <v>1</v>
-      </c>
-      <c r="J39" s="28" t="s">
+      <c r="G39" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="I39" s="7">
+        <v>1</v>
+      </c>
+      <c r="K39" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="O39" s="7" t="s">
-        <v>128</v>
-      </c>
       <c r="P39" s="7" t="s">
-        <v>157</v>
+        <v>125</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="R39" s="7" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
     </row>
     <row r="40" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B40" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="C40" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="C40" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E40" s="29" t="s">
+      <c r="D40" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F40" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="F40" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="H40" s="7">
-        <v>1</v>
+      <c r="G40" s="7" t="s">
+        <v>205</v>
       </c>
       <c r="I40" s="7">
         <v>1</v>
       </c>
-      <c r="J40" s="28" t="s">
+      <c r="K40" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="O40" s="7" t="s">
-        <v>127</v>
-      </c>
       <c r="P40" s="7" t="s">
-        <v>157</v>
+        <v>124</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>126</v>
+        <v>120</v>
+      </c>
+      <c r="R40" s="7" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="41" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="B41" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="C41" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F41" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="I41" s="7">
+        <v>1</v>
+      </c>
+      <c r="J41" s="7">
+        <v>1</v>
+      </c>
+      <c r="K41" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q41" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="B41" s="29" t="s">
+      <c r="B42" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="C42" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="C41" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E41" s="29" t="s">
+      <c r="D42" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F42" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="F41" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="H41" s="7">
-        <v>1</v>
-      </c>
-      <c r="I41" s="7">
-        <v>1</v>
-      </c>
-      <c r="J41" s="28" t="s">
+      <c r="G42" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="I42" s="7">
+        <v>1</v>
+      </c>
+      <c r="J42" s="7">
+        <v>1</v>
+      </c>
+      <c r="K42" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="O41" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="P41" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A42" s="29" t="s">
+      <c r="P42" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q42" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="B43" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="C43" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F43" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="J43" s="7">
+        <v>1</v>
+      </c>
+      <c r="K43" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="P43" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="B42" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E42" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="I42" s="7">
-        <v>1</v>
-      </c>
-      <c r="J42" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="O42" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="P42" s="29" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="R42" s="7" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="B43" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E43" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="G43" s="7">
-        <v>1</v>
-      </c>
-      <c r="H43" s="7">
-        <v>1</v>
-      </c>
-      <c r="J43" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="O43" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="P43" s="7" t="s">
-        <v>157</v>
-      </c>
       <c r="Q43" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
+      </c>
+      <c r="R43" s="7" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="44" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="29" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B44" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>24</v>
+        <v>218</v>
+      </c>
+      <c r="C44" s="29" t="s">
+        <v>40</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E44" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="G44" s="7">
-        <v>1</v>
-      </c>
-      <c r="J44" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="O44" s="7" t="s">
-        <v>102</v>
+        <v>67</v>
+      </c>
+      <c r="F44" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="H44" s="7">
+        <v>1</v>
+      </c>
+      <c r="I44" s="7">
+        <v>1</v>
+      </c>
+      <c r="K44" s="28" t="s">
+        <v>95</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>157</v>
+        <v>97</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="R44" s="7" t="s">
-        <v>178</v>
+        <v>228</v>
       </c>
     </row>
     <row r="45" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="29" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B45" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E45" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="G45" s="7">
-        <v>1</v>
+        <v>217</v>
+      </c>
+      <c r="C45" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F45" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>204</v>
       </c>
       <c r="H45" s="7">
         <v>1</v>
       </c>
-      <c r="J45" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="O45" s="7" t="s">
-        <v>102</v>
+      <c r="K45" s="28" t="s">
+        <v>95</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>157</v>
+        <v>99</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="R45" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="46" spans="1:18" ht="30" x14ac:dyDescent="0.25">
@@ -3468,619 +3614,1209 @@
         <v>103</v>
       </c>
       <c r="B46" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="C46" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="C46" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E46" s="29" t="s">
+      <c r="D46" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F46" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="F46" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G46" s="7">
-        <v>1</v>
-      </c>
-      <c r="J46" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="O46" s="7" t="s">
-        <v>104</v>
+      <c r="G46" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="H46" s="7">
+        <v>1</v>
+      </c>
+      <c r="I46" s="7">
+        <v>1</v>
+      </c>
+      <c r="K46" s="28" t="s">
+        <v>95</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>157</v>
+        <v>99</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
+      </c>
+      <c r="R46" s="7" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="47" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="29" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B47" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E47" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
+      </c>
+      <c r="C47" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F47" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>119</v>
       </c>
       <c r="H47" s="7">
         <v>1</v>
       </c>
-      <c r="J47" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="M47" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="N47" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="O47" s="7" t="s">
-        <v>102</v>
+      <c r="K47" s="28" t="s">
+        <v>95</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>157</v>
+        <v>101</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="R47" s="7" t="s">
-        <v>171</v>
+        <v>120</v>
       </c>
     </row>
     <row r="48" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="29" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B48" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E48" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="C48" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F48" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="F48" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="H48" s="7">
-        <v>1</v>
-      </c>
-      <c r="J48" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="M48" s="29" t="s">
-        <v>67</v>
+      <c r="G48" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="I48" s="7">
+        <v>1</v>
+      </c>
+      <c r="K48" s="28" t="s">
+        <v>95</v>
       </c>
       <c r="N48" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="O48" s="7" t="s">
-        <v>102</v>
+      <c r="O48" s="29" t="s">
+        <v>67</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>157</v>
+        <v>99</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="R48" s="7" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="49" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="29" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B49" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E49" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="C49" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F49" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="F49" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="H49" s="7">
-        <v>1</v>
-      </c>
-      <c r="J49" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="M49" s="29" t="s">
-        <v>67</v>
+      <c r="G49" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="I49" s="7">
+        <v>1</v>
+      </c>
+      <c r="K49" s="28" t="s">
+        <v>95</v>
       </c>
       <c r="N49" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="O49" s="7" t="s">
-        <v>102</v>
+      <c r="O49" s="29" t="s">
+        <v>67</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>157</v>
+        <v>99</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="R49" s="7" t="s">
-        <v>110</v>
+        <v>164</v>
       </c>
     </row>
     <row r="50" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="29" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B50" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E50" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="F50" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="H50" s="7">
-        <v>1</v>
-      </c>
-      <c r="J50" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="M50" s="29" t="s">
-        <v>67</v>
+        <v>217</v>
+      </c>
+      <c r="C50" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F50" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="I50" s="7">
+        <v>1</v>
+      </c>
+      <c r="K50" s="28" t="s">
+        <v>95</v>
       </c>
       <c r="N50" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="O50" s="7" t="s">
-        <v>102</v>
+      <c r="O50" s="29" t="s">
+        <v>67</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>157</v>
+        <v>99</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="R50" s="7" t="s">
-        <v>171</v>
+        <v>107</v>
       </c>
     </row>
     <row r="51" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="29" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B51" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E51" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="F51" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="H51" s="7">
-        <v>1</v>
-      </c>
-      <c r="J51" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="M51" s="29" t="s">
-        <v>67</v>
+        <v>217</v>
+      </c>
+      <c r="C51" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F51" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="I51" s="7">
+        <v>1</v>
+      </c>
+      <c r="K51" s="28" t="s">
+        <v>95</v>
       </c>
       <c r="N51" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="O51" s="7" t="s">
-        <v>102</v>
+      <c r="O51" s="29" t="s">
+        <v>67</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>157</v>
+        <v>99</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="R51" s="7" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="52" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="29" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B52" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E52" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="C52" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F52" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="F52" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="H52" s="7">
-        <v>1</v>
-      </c>
-      <c r="J52" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="M52" s="29" t="s">
-        <v>67</v>
+      <c r="G52" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="I52" s="7">
+        <v>1</v>
+      </c>
+      <c r="K52" s="28" t="s">
+        <v>95</v>
       </c>
       <c r="N52" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="O52" s="7" t="s">
-        <v>102</v>
+      <c r="O52" s="29" t="s">
+        <v>67</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>157</v>
+        <v>99</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="R52" s="7" t="s">
-        <v>114</v>
+        <v>164</v>
       </c>
     </row>
     <row r="53" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="29" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B53" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="C53" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="C53" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E53" s="29" t="s">
+      <c r="D53" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F53" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="F53" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="H53" s="7">
-        <v>1</v>
-      </c>
-      <c r="J53" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="M53" s="29" t="s">
-        <v>67</v>
+      <c r="G53" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="I53" s="7">
+        <v>1</v>
+      </c>
+      <c r="K53" s="28" t="s">
+        <v>95</v>
       </c>
       <c r="N53" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="O53" s="7" t="s">
-        <v>102</v>
+      <c r="O53" s="29" t="s">
+        <v>67</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>157</v>
+        <v>99</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="R53" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="54" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="24" t="s">
+      <c r="A54" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="B54" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="C54" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F54" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="I54" s="7">
+        <v>1</v>
+      </c>
+      <c r="K54" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="N54" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="O54" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="P54" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q54" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="R54" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B54" s="27" t="s">
+      <c r="B55" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="C55" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="C54" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="E54" s="27" t="s">
+      <c r="D55" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="F55" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="F54" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="G54" s="28">
-        <v>1</v>
-      </c>
-      <c r="H54" s="28">
-        <v>1</v>
-      </c>
-      <c r="I54" s="28"/>
-      <c r="J54" s="28" t="s">
+      <c r="G55" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="H55" s="28">
+        <v>1</v>
+      </c>
+      <c r="I55" s="28">
+        <v>1</v>
+      </c>
+      <c r="J55" s="28"/>
+      <c r="K55" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="K54" s="28">
-        <v>1</v>
-      </c>
-      <c r="L54" s="28"/>
-      <c r="M54" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="N54" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="O54" s="28"/>
-      <c r="P54" s="28" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q54" s="28" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="B55" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="C55" s="45" t="s">
-        <v>67</v>
-      </c>
-      <c r="E55" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G55" s="7">
-        <v>1</v>
-      </c>
-      <c r="J55" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="M55" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="N55" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="O55" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="P55" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q55" s="7" t="s">
-        <v>124</v>
+      <c r="L55" s="28">
+        <v>1</v>
+      </c>
+      <c r="M55" s="28"/>
+      <c r="N55" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="O55" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="P55" s="28"/>
+      <c r="Q55" s="28" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="56" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="29" t="s">
-        <v>183</v>
+        <v>22</v>
       </c>
       <c r="B56" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="C56" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="C56" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="E56" s="29" t="s">
+      <c r="D56" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="F56" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="F56" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G56" s="7">
-        <v>1</v>
-      </c>
-      <c r="J56" s="28" t="s">
+      <c r="G56" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H56" s="7">
+        <v>1</v>
+      </c>
+      <c r="K56" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="M56" s="29" t="s">
-        <v>67</v>
-      </c>
       <c r="N56" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="O56" s="7" t="s">
-        <v>184</v>
+      <c r="O56" s="29" t="s">
+        <v>67</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="57" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="29" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="B57" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="C57" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="E57" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G57" s="7">
-        <v>1</v>
-      </c>
-      <c r="J57" s="45" t="s">
-        <v>98</v>
-      </c>
-      <c r="M57" s="29" t="s">
-        <v>67</v>
+        <v>217</v>
+      </c>
+      <c r="C57" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="D57" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="F57" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H57" s="7">
+        <v>1</v>
+      </c>
+      <c r="K57" s="28" t="s">
+        <v>66</v>
       </c>
       <c r="N57" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="O57" s="7" t="s">
-        <v>186</v>
+      <c r="O57" s="29" t="s">
+        <v>67</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="R57" s="7" t="s">
-        <v>187</v>
+        <v>120</v>
       </c>
     </row>
     <row r="58" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="29" t="s">
-        <v>200</v>
+        <v>176</v>
       </c>
       <c r="B58" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="C58" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="C58" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="D58" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="D58" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="E58" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="F58" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G58" s="7">
-        <v>1</v>
-      </c>
-      <c r="J58" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="M58" s="29" t="s">
-        <v>67</v>
+      <c r="F58" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H58" s="7">
+        <v>1</v>
+      </c>
+      <c r="K58" s="45" t="s">
+        <v>95</v>
       </c>
       <c r="N58" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="O58" s="7" t="s">
-        <v>202</v>
+      <c r="O58" s="29" t="s">
+        <v>67</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="R58" s="7" t="s">
-        <v>187</v>
+        <v>229</v>
       </c>
     </row>
     <row r="59" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="B59" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="C59" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F59" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H59" s="7">
+        <v>1</v>
+      </c>
+      <c r="K59" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="N59" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="O59" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="P59" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q59" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="R59" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="B60" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="C60" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F60" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H60" s="7">
+        <v>1</v>
+      </c>
+      <c r="K60" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="N60" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="O60" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="P60" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q60" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="R60" s="7" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="29" t="s">
+        <v>235</v>
+      </c>
+      <c r="B61" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="C61" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F61" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H61" s="7">
+        <v>1</v>
+      </c>
+      <c r="K61" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="N61" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="O61" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="P61" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q61" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="R61" s="46" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="29" t="s">
+        <v>238</v>
+      </c>
+      <c r="B62" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="C62" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F62" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="G62" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="B59" s="29" t="s">
+      <c r="I62" s="7">
+        <v>1</v>
+      </c>
+      <c r="K62" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="N62" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="O62" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="P62" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q62" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="R62" s="46" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="29" t="s">
+        <v>239</v>
+      </c>
+      <c r="B63" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="C63" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F63" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="G63" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="I63" s="7">
+        <v>1</v>
+      </c>
+      <c r="K63" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="N63" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="O63" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="P63" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q63" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="R63" s="46" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="B64" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="C64" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F64" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="G64" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="H64" s="7">
+        <v>1</v>
+      </c>
+      <c r="I64" s="7">
+        <v>1</v>
+      </c>
+      <c r="J64" s="7">
+        <v>1</v>
+      </c>
+      <c r="K64" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="N64" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="O64" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="P64" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q64" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="R64" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" s="29" t="s">
+        <v>231</v>
+      </c>
+      <c r="B65" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="C65" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F65" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H65" s="7">
+        <v>1</v>
+      </c>
+      <c r="K65" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="N65" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="O65" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="P65" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q65" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="R65" s="7" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A66" s="29" t="s">
+        <v>232</v>
+      </c>
+      <c r="B66" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="C66" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F66" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H66" s="7">
+        <v>1</v>
+      </c>
+      <c r="K66" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="N66" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="O66" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="P66" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q66" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="R66" s="7" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" s="46" t="s">
+        <v>244</v>
+      </c>
+      <c r="B67" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="C67" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="C59" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="E59" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="F59" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G59" s="7">
-        <v>1</v>
-      </c>
-      <c r="J59" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="M59" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="N59" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="O59" s="7" t="s">
+      <c r="D67" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F67" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="G67" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="P59" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q59" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="R59" s="7" t="s">
-        <v>205</v>
+      <c r="I67" s="7">
+        <v>1</v>
+      </c>
+      <c r="K67" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="N67" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="O67" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="P67" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q67" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="R67" s="46" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68" s="46" t="s">
+        <v>245</v>
+      </c>
+      <c r="B68" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="C68" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F68" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="G68" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="I68" s="7">
+        <v>1</v>
+      </c>
+      <c r="K68" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="N68" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="O68" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="P68" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q68" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="R68" s="46" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" s="46" t="s">
+        <v>246</v>
+      </c>
+      <c r="B69" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="C69" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F69" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="G69" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="H69" s="7">
+        <v>1</v>
+      </c>
+      <c r="K69" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="N69" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="O69" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="P69" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q69" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="R69" s="46" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A70" s="46" t="s">
+        <v>247</v>
+      </c>
+      <c r="B70" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="C70" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F70" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="G70" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H70" s="7">
+        <v>1</v>
+      </c>
+      <c r="K70" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="N70" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="O70" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="P70" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q70" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="R70" s="46" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="46" t="s">
+        <v>248</v>
+      </c>
+      <c r="B71" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="C71" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F71" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="G71" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="J71" s="7">
+        <v>1</v>
+      </c>
+      <c r="K71" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="N71" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="O71" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="P71" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q71" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="R71" s="46" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" s="46" t="s">
+        <v>249</v>
+      </c>
+      <c r="B72" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="C72" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F72" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="G72" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="I72" s="7">
+        <v>1</v>
+      </c>
+      <c r="J72" s="7">
+        <v>1</v>
+      </c>
+      <c r="K72" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="N72" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="O72" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="P72" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q72" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="R72" s="46" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="46" t="s">
+        <v>250</v>
+      </c>
+      <c r="B73" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="C73" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F73" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="G73" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="I73" s="7">
+        <v>1</v>
+      </c>
+      <c r="K73" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="N73" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="O73" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="P73" s="46" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q73" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="R73" s="7" t="s">
+        <v>258</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R54">
-    <sortCondition ref="P1:P54"/>
-  </sortState>
-  <conditionalFormatting sqref="B1:B29 B31:B1048576 E1:E1048576">
+  <autoFilter ref="A1:R66" xr:uid="{8B3D1752-6B94-47E8-8107-A4E5AE38FB91}"/>
+  <conditionalFormatting sqref="C1:C30 C32:C60 F1:F60 F61:G63 C64:C1048576 F64:F1048576">
     <cfRule type="containsBlanks" dxfId="2" priority="5">
-      <formula>LEN(TRIM(B1))=0</formula>
+      <formula>LEN(TRIM(C1))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C1048576">
+  <conditionalFormatting sqref="D1:D60 G61:G63 D64:D1048576">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B30">
+  <conditionalFormatting sqref="C31">
     <cfRule type="containsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(B30))=0</formula>
+      <formula>LEN(TRIM(C31))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{35E0EA29-2B37-49A0-98F9-64A93CA05CE6}">
-          <x14:formula1>
-            <xm:f>lookup!$A:$A</xm:f>
-          </x14:formula1>
-          <xm:sqref>B1:B1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C4FDFB99-3DEE-4728-A9F7-540C5D6E0413}">
-          <x14:formula1>
-            <xm:f>lookup!$B:$B</xm:f>
-          </x14:formula1>
-          <xm:sqref>E1:E1048576</xm:sqref>
-        </x14:dataValidation>
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{91EB7888-8426-4BEF-BEBF-352393895133}">
           <x14:formula1>
             <xm:f>lookup!$D:$D</xm:f>
           </x14:formula1>
           <xm:sqref>Q1:Q1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7E6D3AA7-6E06-46B8-B1A1-AAD5FAD99EA7}">
-          <x14:formula1>
-            <xm:f>lookup!$E$1:$E$2</xm:f>
-          </x14:formula1>
-          <xm:sqref>P1:P1048576</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1EF23BBD-E7E3-4DF8-8816-43AC3037C329}">
           <x14:formula1>
             <xm:f>lookup!$F$2:$F$14</xm:f>
           </x14:formula1>
-          <xm:sqref>F1:F1048576</xm:sqref>
+          <xm:sqref>G1:G1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{35E0EA29-2B37-49A0-98F9-64A93CA05CE6}">
+          <x14:formula1>
+            <xm:f>lookup!$A:$A</xm:f>
+          </x14:formula1>
+          <xm:sqref>C1:C60 C64:C1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3B8C7DA2-BE17-4FA1-9549-2A2607BF2C7F}">
+          <x14:formula1>
+            <xm:f>lookup!$G$1:$G$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>B1:B60 B64:B1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C4FDFB99-3DEE-4728-A9F7-540C5D6E0413}">
+          <x14:formula1>
+            <xm:f>lookup!$B:$B</xm:f>
+          </x14:formula1>
+          <xm:sqref>F1:F60 G61:G63 F64:F1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4F741FC8-DE83-4D55-B383-F9BABC1ACE54}">
+          <x14:formula1>
+            <xm:f>lookup!$A$1:$A$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>C61:C63</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C7F3CB46-6126-4E45-B8AB-7CEFAFC7E3B7}">
+          <x14:formula1>
+            <xm:f>lookup!$B$1:$B$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>F61:F63</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4111,10 +4847,10 @@
         <v>51</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C1" s="33" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D1" s="33" t="s">
         <v>33</v>
@@ -4125,10 +4861,10 @@
         <v>40</v>
       </c>
       <c r="B2" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="22" t="s">
         <v>135</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -4136,7 +4872,7 @@
         <v>53</v>
       </c>
       <c r="B3" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -4152,7 +4888,7 @@
         <v>55</v>
       </c>
       <c r="B5" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -4160,7 +4896,7 @@
         <v>56</v>
       </c>
       <c r="B6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -4168,7 +4904,7 @@
         <v>57</v>
       </c>
       <c r="B7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4176,7 +4912,7 @@
         <v>58</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C8" s="32" t="s">
         <v>41</v>
@@ -4188,7 +4924,7 @@
         <v>69</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -4196,7 +4932,7 @@
         <v>70</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -4204,7 +4940,7 @@
         <v>71</v>
       </c>
       <c r="B11" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -4212,10 +4948,10 @@
         <v>72</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="C12" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -4223,7 +4959,7 @@
         <v>73</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C13" s="22" t="s">
         <v>5</v>
@@ -4234,7 +4970,7 @@
         <v>74</v>
       </c>
       <c r="B14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
@@ -4242,10 +4978,10 @@
         <v>61</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D17" s="33" t="s">
         <v>33</v>
@@ -4256,11 +4992,11 @@
         <v>40</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C18" s="22"/>
       <c r="D18" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -4268,7 +5004,7 @@
         <v>53</v>
       </c>
       <c r="B19" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -4284,7 +5020,7 @@
         <v>55</v>
       </c>
       <c r="B21" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -4292,10 +5028,10 @@
         <v>56</v>
       </c>
       <c r="B22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D22" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -4303,10 +5039,10 @@
         <v>57</v>
       </c>
       <c r="B23" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D23" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4314,7 +5050,7 @@
         <v>58</v>
       </c>
       <c r="B24" s="35" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C24" s="32" t="s">
         <v>41</v>
@@ -4326,7 +5062,7 @@
         <v>69</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -4334,7 +5070,7 @@
         <v>70</v>
       </c>
       <c r="B26" s="36" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -4342,10 +5078,10 @@
         <v>71</v>
       </c>
       <c r="B27" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D27" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -4353,7 +5089,7 @@
         <v>72</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -4361,7 +5097,7 @@
         <v>73</v>
       </c>
       <c r="B29" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -4369,10 +5105,10 @@
         <v>74</v>
       </c>
       <c r="B30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D30" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
@@ -4380,10 +5116,10 @@
         <v>50</v>
       </c>
       <c r="B33" s="33" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C33" s="33" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D33" s="33" t="s">
         <v>33</v>
@@ -4394,10 +5130,10 @@
         <v>40</v>
       </c>
       <c r="B34" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="C34" s="22" t="s">
         <v>135</v>
-      </c>
-      <c r="C34" s="22" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -4405,7 +5141,7 @@
         <v>53</v>
       </c>
       <c r="D35" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -4421,7 +5157,7 @@
         <v>55</v>
       </c>
       <c r="B37" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -4429,7 +5165,7 @@
         <v>56</v>
       </c>
       <c r="B38" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -4437,7 +5173,7 @@
         <v>57</v>
       </c>
       <c r="B39" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4445,7 +5181,7 @@
         <v>58</v>
       </c>
       <c r="B40" s="35" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C40" s="32"/>
       <c r="D40" s="32"/>
@@ -4455,10 +5191,10 @@
         <v>69</v>
       </c>
       <c r="B41" s="22" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C41" s="22" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -4466,7 +5202,7 @@
         <v>70</v>
       </c>
       <c r="B42" s="36" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -4474,7 +5210,7 @@
         <v>71</v>
       </c>
       <c r="B43" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -4482,10 +5218,10 @@
         <v>72</v>
       </c>
       <c r="B44" s="22" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="C44" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -4493,7 +5229,7 @@
         <v>73</v>
       </c>
       <c r="B45" s="22" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C45" s="22" t="s">
         <v>5</v>
@@ -4504,7 +5240,7 @@
         <v>74</v>
       </c>
       <c r="B46" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -4514,10 +5250,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C91E8D20-3A98-4410-9DE0-950E445F49E4}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="G1" sqref="G1:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4527,7 +5263,7 @@
     <col min="6" max="6" width="36.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>40</v>
       </c>
@@ -4535,19 +5271,22 @@
         <v>69</v>
       </c>
       <c r="C1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F1" s="40" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>179</v>
+      </c>
+      <c r="G1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
         <v>53</v>
       </c>
@@ -4555,19 +5294,22 @@
         <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F2" s="41" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+      <c r="G2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
         <v>54</v>
       </c>
@@ -4575,13 +5317,16 @@
         <v>71</v>
       </c>
       <c r="D3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F3" s="42" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>181</v>
+      </c>
+      <c r="G3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
         <v>55</v>
       </c>
@@ -4589,10 +5334,13 @@
         <v>72</v>
       </c>
       <c r="F4" s="41" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>182</v>
+      </c>
+      <c r="G4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
         <v>56</v>
       </c>
@@ -4600,10 +5348,13 @@
         <v>73</v>
       </c>
       <c r="F5" s="42" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+      <c r="G5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
         <v>57</v>
       </c>
@@ -4611,57 +5362,60 @@
         <v>74</v>
       </c>
       <c r="F6" s="41" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>184</v>
+      </c>
+      <c r="G6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
         <v>58</v>
       </c>
       <c r="B7" s="23"/>
       <c r="F7" s="42" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F8" s="41" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F9" s="42" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F10" s="41" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F11" s="42" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F12" s="41" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F13" s="42" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F14" s="43" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F15" s="43"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F16" s="43"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.25">

--- a/data/indikatorer.xlsx
+++ b/data/indikatorer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anders.kolstad\Documents\Github\indiPri\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9497A2E6-1E1E-4DCA-95E0-E542CE503EA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{045C208B-16D1-4234-9CCB-2C06F54CBFA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{755B2D29-11E6-40FC-B47B-120341420DDA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{755B2D29-11E6-40FC-B47B-120341420DDA}"/>
   </bookViews>
   <sheets>
     <sheet name="Indikatoroversikt" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Gammel - Dekningsgrad" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Indikatoroversikt!$A$1:$R$66</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Indikatoroversikt!$A$1:$R$74</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="264">
   <si>
     <t>PAEC pilot Trøndelg</t>
   </si>
@@ -274,9 +274,6 @@
     <t>Tilført nitrogen</t>
   </si>
   <si>
-    <t>Usikker på hvilken egenskap denne skal puttes i. Ikke enig med piloten fom putter den i primærproduksjon og abiotiske forhold. Jeg ville kanskje heller puttet den i funksjonelle grupper.</t>
-  </si>
-  <si>
     <t>Areal uten skadet og/eller død røsslyng i kystlynghei</t>
   </si>
   <si>
@@ -308,9 +305,6 @@
   </si>
   <si>
     <t>Ellenberg R</t>
-  </si>
-  <si>
-    <t>Også knyttet til primærproduskjon noen steder</t>
   </si>
   <si>
     <t>Areal uten dekning av busksjikt</t>
@@ -468,9 +462,6 @@
   </si>
   <si>
     <t>SSB</t>
-  </si>
-  <si>
-    <t>Dette er en påvirkningsfaktor. Dataene er ikke geografisk eksplisitte.</t>
   </si>
   <si>
     <t>Jordkjemi;
@@ -486,9 +477,6 @@
   </si>
   <si>
     <t>Utfordringer knyttet til økosystemavgrensningen. Brukt som indikator i fjellrapporten, men også i PAECpiloten.</t>
-  </si>
-  <si>
-    <t>Utvalgt. Se også indikatoren Ground water condition during growing season som er brukt i PAECpiloten for Trøndelag.</t>
   </si>
   <si>
     <t>SEAPOP</t>
@@ -607,9 +595,6 @@
     <t>Overvåkingsprogrammet for palsmyr</t>
   </si>
   <si>
-    <t>Foreslått som indikatore i fagsystemrapporten. Litt usikker på hvilken egenskap denne helst bør knyttes til.</t>
-  </si>
-  <si>
     <t>Indikatorprosjekt</t>
   </si>
   <si>
@@ -858,9 +843,6 @@
     <t>DTM, klimadata</t>
   </si>
   <si>
-    <t>Relatert til areal uten dekning av trær, og til gjenngroingsindikatoren. Forkastes til fordel for gjengroingsindikatoren.</t>
-  </si>
-  <si>
     <t>Denne indikatoren, eller en versjon av den, vil bli forsøkt utviklet under naturtypeprosjektet i 2023</t>
   </si>
   <si>
@@ -876,9 +858,6 @@
     <t>Foreslått som indikatore i fagsystemrapporten. Forkastet siden sumpskog ikke lengre inngår i hovedøkosystemet våtmark.</t>
   </si>
   <si>
-    <t>Median vannstand for deltaer og flomsletter</t>
-  </si>
-  <si>
     <t>Oversvømmelsesvarighet for deltaer og flomsletter</t>
   </si>
   <si>
@@ -894,9 +873,6 @@
     <t>Fjernmåling?</t>
   </si>
   <si>
-    <t>Foreslått som indikator i fagsystemrapporten. Dette er en svært marginal naturtype under våtmark</t>
-  </si>
-  <si>
     <t>Prestekrage</t>
   </si>
   <si>
@@ -958,6 +934,45 @@
   </si>
   <si>
     <t>Dataene er ikke tigjengelige i høy nok oppløsning eller god nok kvalitet.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dette indikatornavnet har blit erstattet med mer konkrete forsalg. </t>
+  </si>
+  <si>
+    <t>Dette er en påvirkningsfaktor. Dataene er ikke geografisk eksplisitte. Indikatoren er trolig korrelert med gjengroingsindikatoren. Forkastes.</t>
+  </si>
+  <si>
+    <t>Det vil utvikles generelle funksjoner for å behandle klimadata fra senorge fro å produsere ulike klimaindikatorer.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relatert til areal uten dekning av trær, og til gjenngroingsindikatoren. Vil (trolig) utvikles for naturlig åpne områder som et komlemet til gjengroingsindikatoren (som kan være spesielt vanskelig å beregne fr dette hovedøkosystemet). </t>
+  </si>
+  <si>
+    <t>Forkastet grunnet uklar og ulik defenisjon av variabelen i feltprotokoller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Også knyttet til primærproduskjon i noen rapporter. Ellenberg datasettet byttes ut med det svanke datasettet fra Taylor et al 2021 </t>
+  </si>
+  <si>
+    <t>Usikker på hvilken egenskap denne skal puttes i. Ikke enig med piloten fom putter den i primærproduksjon og abiotiske forhold. Jeg ville kanskje heller puttet den i funksjonelle grupper. Ellenberg datasettet byttes ut med det svanke datasettet fra Taylor et al 2021</t>
+  </si>
+  <si>
+    <t>Ellenberg datasettet byttes ut med det svanke datasettet fra Taylor et al 2021</t>
+  </si>
+  <si>
+    <t>Median vannstand</t>
+  </si>
+  <si>
+    <t>Large herbivores versus carnivores</t>
+  </si>
+  <si>
+    <t>Jaktstatistikk og husdurstatistikk</t>
+  </si>
+  <si>
+    <t>Foreslått som indikatore i fagsystemrapporten. Litt usikker på hvilken egenskap denne helst bør knyttes til. Forkastet grunnet lav gjenomførbarhetsevne</t>
+  </si>
+  <si>
+    <t>Foreslått som indikator i fagsystemrapporten. Dette er en svært marginal naturtype under våtmark. Forkastet grunnet korrelasjon til indikatoren median vannstand</t>
   </si>
 </sst>
 </file>
@@ -1743,16 +1758,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B3D1752-6B94-47E8-8107-A4E5AE38FB91}">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:R73"/>
+  <dimension ref="A1:R74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A74" sqref="A74"/>
+      <selection pane="bottomRight" activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1781,22 +1796,22 @@
         <v>59</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C1" s="18" t="s">
         <v>60</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F1" s="18" t="s">
         <v>64</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="H1" s="17" t="s">
         <v>50</v>
@@ -1808,7 +1823,7 @@
         <v>61</v>
       </c>
       <c r="K1" s="17" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L1" s="17" t="s">
         <v>66</v>
@@ -1823,7 +1838,7 @@
         <v>63</v>
       </c>
       <c r="P1" s="17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="Q1" s="17" t="s">
         <v>65</v>
@@ -1832,12 +1847,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C2" s="27" t="s">
         <v>40</v>
@@ -1849,7 +1864,7 @@
         <v>73</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="H2" s="28">
         <v>1</v>
@@ -1866,27 +1881,27 @@
       </c>
       <c r="M2" s="28"/>
       <c r="N2" s="27" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O2" s="27" t="s">
         <v>24</v>
       </c>
       <c r="P2" s="28" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="Q2" s="28" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C3" s="27" t="s">
         <v>56</v>
@@ -1898,7 +1913,7 @@
         <v>74</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H3" s="28">
         <v>1</v>
@@ -1925,21 +1940,21 @@
         <v>67</v>
       </c>
       <c r="P3" s="28" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="Q3" s="28" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>41</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C4" s="29" t="s">
         <v>58</v>
@@ -1951,7 +1966,7 @@
         <v>70</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -1969,21 +1984,21 @@
         <v>1</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>42</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C5" s="29" t="s">
         <v>54</v>
@@ -1998,7 +2013,7 @@
         <v>72</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -2016,21 +2031,21 @@
         <v>1</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="R5" s="29" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" ht="135" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C6" s="29" t="s">
         <v>55</v>
@@ -2042,7 +2057,7 @@
         <v>72</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -2051,24 +2066,24 @@
         <v>1</v>
       </c>
       <c r="K6" s="28" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="R6" s="29" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C7" s="29" t="s">
         <v>57</v>
@@ -2080,7 +2095,7 @@
         <v>71</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -2092,7 +2107,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="28" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N7" s="29" t="s">
         <v>24</v>
@@ -2101,21 +2116,21 @@
         <v>67</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="R7" s="38" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C8" s="29" t="s">
         <v>58</v>
@@ -2127,7 +2142,7 @@
         <v>70</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -2139,7 +2154,7 @@
         <v>1</v>
       </c>
       <c r="K8" s="28" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N8" s="29" t="s">
         <v>67</v>
@@ -2148,21 +2163,21 @@
         <v>67</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="R8" s="7" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C9" s="29" t="s">
         <v>57</v>
@@ -2174,13 +2189,13 @@
         <v>71</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="J9" s="7">
         <v>1</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N9" s="29" t="s">
         <v>67</v>
@@ -2189,21 +2204,21 @@
         <v>67</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="R9" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C10" s="29" t="s">
         <v>58</v>
@@ -2215,13 +2230,13 @@
         <v>69</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
       </c>
       <c r="K10" s="28" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N10" s="29" t="s">
         <v>67</v>
@@ -2230,18 +2245,18 @@
         <v>67</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C11" s="29" t="s">
         <v>58</v>
@@ -2253,13 +2268,13 @@
         <v>69</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
       </c>
       <c r="K11" s="28" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N11" s="29" t="s">
         <v>67</v>
@@ -2268,21 +2283,21 @@
         <v>67</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="R11" s="7" t="s">
-        <v>147</v>
+        <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="108.75" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C12" s="29" t="s">
         <v>53</v>
@@ -2291,7 +2306,7 @@
         <v>73</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="H12" s="37"/>
       <c r="I12" s="37">
@@ -2310,21 +2325,21 @@
         <v>67</v>
       </c>
       <c r="P12" s="37" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="R12" s="39" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C13" s="27" t="s">
         <v>58</v>
@@ -2336,7 +2351,7 @@
         <v>69</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H13" s="28">
         <v>1</v>
@@ -2351,27 +2366,27 @@
       </c>
       <c r="M13" s="28"/>
       <c r="N13" s="27" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O13" s="27" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="P13" s="28" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="Q13" s="28" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="R13" s="7" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C14" s="27" t="s">
         <v>57</v>
@@ -2383,7 +2398,7 @@
         <v>71</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="H14" s="28">
         <v>1</v>
@@ -2398,14 +2413,16 @@
       </c>
       <c r="M14" s="28"/>
       <c r="N14" s="27" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="O14" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="P14" s="28"/>
+        <v>148</v>
+      </c>
+      <c r="P14" s="28" t="s">
+        <v>35</v>
+      </c>
       <c r="Q14" s="28" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="30" x14ac:dyDescent="0.25">
@@ -2413,7 +2430,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C15" s="29" t="s">
         <v>54</v>
@@ -2425,7 +2442,7 @@
         <v>73</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="I15" s="7">
         <v>1</v>
@@ -2438,13 +2455,13 @@
       </c>
       <c r="N15" s="27"/>
       <c r="O15" s="27" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="R15" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="30" x14ac:dyDescent="0.25">
@@ -2452,7 +2469,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C16" s="29" t="s">
         <v>54</v>
@@ -2464,7 +2481,7 @@
         <v>73</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="I16" s="7">
         <v>1</v>
@@ -2477,13 +2494,13 @@
       </c>
       <c r="N16" s="27"/>
       <c r="O16" s="27" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="R16" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="30" x14ac:dyDescent="0.25">
@@ -2491,7 +2508,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C17" s="29" t="s">
         <v>55</v>
@@ -2503,7 +2520,7 @@
         <v>73</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="I17" s="7">
         <v>1</v>
@@ -2517,10 +2534,10 @@
       <c r="N17" s="27"/>
       <c r="O17" s="27"/>
       <c r="Q17" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="R17" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="30" x14ac:dyDescent="0.25">
@@ -2528,7 +2545,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C18" s="29" t="s">
         <v>57</v>
@@ -2540,7 +2557,7 @@
         <v>71</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="I18" s="7">
         <v>1</v>
@@ -2554,18 +2571,18 @@
       <c r="N18" s="27"/>
       <c r="O18" s="27"/>
       <c r="Q18" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="R18" s="7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="30" t="s">
         <v>32</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C19" s="29" t="s">
         <v>57</v>
@@ -2577,7 +2594,7 @@
         <v>71</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="I19" s="7">
         <v>1</v>
@@ -2591,15 +2608,18 @@
       <c r="N19" s="27"/>
       <c r="O19" s="27"/>
       <c r="Q19" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+      <c r="R19" s="7" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C20" s="29" t="s">
         <v>58</v>
@@ -2611,7 +2631,7 @@
         <v>69</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -2626,24 +2646,27 @@
         <v>1</v>
       </c>
       <c r="N20" s="27" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O20" s="27" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+      <c r="R20" s="7" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
         <v>13</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C21" s="29" t="s">
         <v>58</v>
@@ -2655,7 +2678,7 @@
         <v>69</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="H21" s="7">
         <v>1</v>
@@ -2670,24 +2693,27 @@
         <v>1</v>
       </c>
       <c r="N21" s="27" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O21" s="27" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+      <c r="R21" s="7" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="24" t="s">
         <v>14</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C22" s="29" t="s">
         <v>58</v>
@@ -2699,7 +2725,7 @@
         <v>69</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -2714,24 +2740,27 @@
         <v>1</v>
       </c>
       <c r="N22" s="27" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O22" s="27" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+      <c r="R22" s="7" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="24" t="s">
         <v>15</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C23" s="29" t="s">
         <v>58</v>
@@ -2743,7 +2772,7 @@
         <v>69</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -2758,24 +2787,27 @@
         <v>1</v>
       </c>
       <c r="N23" s="27" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O23" s="27" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+      <c r="R23" s="7" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="24" t="s">
         <v>16</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C24" s="29" t="s">
         <v>58</v>
@@ -2787,7 +2819,7 @@
         <v>69</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -2802,24 +2834,27 @@
         <v>1</v>
       </c>
       <c r="N24" s="27" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O24" s="27" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+      <c r="R24" s="7" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="24" t="s">
         <v>17</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C25" s="29" t="s">
         <v>58</v>
@@ -2831,7 +2866,7 @@
         <v>69</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -2846,24 +2881,27 @@
         <v>1</v>
       </c>
       <c r="N25" s="27" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O25" s="27" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+      <c r="R25" s="7" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="24" t="s">
         <v>18</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C26" s="29" t="s">
         <v>58</v>
@@ -2875,7 +2913,7 @@
         <v>69</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -2890,24 +2928,27 @@
         <v>1</v>
       </c>
       <c r="N26" s="27" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O26" s="27" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+      <c r="R26" s="7" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="24" t="s">
         <v>19</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C27" s="29" t="s">
         <v>58</v>
@@ -2919,7 +2960,7 @@
         <v>69</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="H27" s="7">
         <v>1</v>
@@ -2934,24 +2975,27 @@
         <v>1</v>
       </c>
       <c r="N27" s="27" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O27" s="27" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+      <c r="R27" s="7" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="29" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C28" s="29" t="s">
         <v>58</v>
@@ -2963,7 +3007,7 @@
         <v>69</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="H28" s="7">
         <v>1</v>
@@ -2981,27 +3025,27 @@
         <v>1</v>
       </c>
       <c r="N28" s="27" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O28" s="27" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="R28" s="7" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="29" t="s">
         <v>43</v>
       </c>
       <c r="B29" s="29" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C29" s="29" t="s">
         <v>54</v>
@@ -3013,9 +3057,12 @@
         <v>72</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="H29" s="7">
+        <v>1</v>
+      </c>
+      <c r="J29" s="7">
         <v>1</v>
       </c>
       <c r="K29" s="28" t="s">
@@ -3025,21 +3072,21 @@
         <v>1</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="R29" s="7" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B30" s="29" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C30" s="29" t="s">
         <v>57</v>
@@ -3051,7 +3098,7 @@
         <v>71</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="H30" s="7">
         <v>1</v>
@@ -3066,21 +3113,21 @@
         <v>68</v>
       </c>
       <c r="P30" s="29" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="R30" s="7" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="29" t="s">
         <v>75</v>
       </c>
       <c r="B31" s="29" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C31" s="29" t="s">
         <v>58</v>
@@ -3092,7 +3139,7 @@
         <v>69</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
@@ -3104,18 +3151,21 @@
         <v>68</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+      <c r="R31" s="7" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="29" t="s">
         <v>76</v>
       </c>
       <c r="B32" s="29" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C32" s="29" t="s">
         <v>58</v>
@@ -3127,7 +3177,7 @@
         <v>70</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -3139,18 +3189,18 @@
         <v>68</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="R32" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B33" s="29" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C33" s="29" t="s">
         <v>40</v>
@@ -3162,7 +3212,7 @@
         <v>72</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="I33" s="7">
         <v>1</v>
@@ -3171,21 +3221,21 @@
         <v>68</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="R33" s="7" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B34" s="29" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C34" s="29" t="s">
         <v>55</v>
@@ -3200,7 +3250,7 @@
         <v>72</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="I34" s="7">
         <v>1</v>
@@ -3212,18 +3262,18 @@
         <v>68</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="R34" s="29" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B35" s="29" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C35" s="29" t="s">
         <v>55</v>
@@ -3238,7 +3288,7 @@
         <v>72</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="I35" s="7">
         <v>1</v>
@@ -3247,21 +3297,21 @@
         <v>68</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="R35" s="7" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="29" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B36" s="29" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C36" s="29" t="s">
         <v>55</v>
@@ -3276,24 +3326,24 @@
         <v>72</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="K36" s="28" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="R36" s="7" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B37" s="29" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C37" s="29" t="s">
         <v>56</v>
@@ -3305,7 +3355,7 @@
         <v>74</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="I37" s="7">
         <v>1</v>
@@ -3314,21 +3364,21 @@
         <v>68</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="R37" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="38" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B38" s="29" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C38" s="29" t="s">
         <v>55</v>
@@ -3340,7 +3390,7 @@
         <v>73</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="I38" s="7">
         <v>1</v>
@@ -3349,21 +3399,21 @@
         <v>68</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="R38" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="39" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B39" s="29" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C39" s="29" t="s">
         <v>57</v>
@@ -3375,7 +3425,7 @@
         <v>71</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="I39" s="7">
         <v>1</v>
@@ -3384,21 +3434,21 @@
         <v>68</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="R39" s="7" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C40" s="29" t="s">
         <v>57</v>
@@ -3410,7 +3460,7 @@
         <v>71</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="I40" s="7">
         <v>1</v>
@@ -3419,21 +3469,21 @@
         <v>68</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="R40" s="7" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C41" s="29" t="s">
         <v>57</v>
@@ -3445,7 +3495,7 @@
         <v>71</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="I41" s="7">
         <v>1</v>
@@ -3457,18 +3507,21 @@
         <v>68</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
+      </c>
+      <c r="R41" s="7" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="42" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C42" s="29" t="s">
         <v>58</v>
@@ -3480,7 +3533,7 @@
         <v>70</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="I42" s="7">
         <v>1</v>
@@ -3492,18 +3545,21 @@
         <v>68</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
+      </c>
+      <c r="R42" s="7" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="43" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="29" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C43" s="29" t="s">
         <v>57</v>
@@ -3515,30 +3571,30 @@
         <v>71</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="J43" s="7">
         <v>1</v>
       </c>
       <c r="K43" s="28" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="P43" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q43" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="R43" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="Q43" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="R43" s="7" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="29" t="s">
-        <v>96</v>
-      </c>
       <c r="B44" s="29" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C44" s="29" t="s">
         <v>40</v>
@@ -3550,7 +3606,7 @@
         <v>72</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="H44" s="7">
         <v>1</v>
@@ -3559,24 +3615,24 @@
         <v>1</v>
       </c>
       <c r="K44" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="P44" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P44" s="7" t="s">
-        <v>97</v>
-      </c>
       <c r="Q44" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="R44" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="45" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="29" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B45" s="29" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C45" s="29" t="s">
         <v>57</v>
@@ -3591,30 +3647,30 @@
         <v>71</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="H45" s="7">
         <v>1</v>
       </c>
       <c r="K45" s="28" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="R45" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="46" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="29" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B46" s="29" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C46" s="29" t="s">
         <v>55</v>
@@ -3626,7 +3682,7 @@
         <v>73</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="H46" s="7">
         <v>1</v>
@@ -3635,24 +3691,24 @@
         <v>1</v>
       </c>
       <c r="K46" s="28" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="R46" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="47" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="29" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B47" s="29" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C47" s="29" t="s">
         <v>55</v>
@@ -3664,27 +3720,27 @@
         <v>73</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H47" s="7">
         <v>1</v>
       </c>
       <c r="K47" s="28" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="48" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="29" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B48" s="29" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C48" s="29" t="s">
         <v>57</v>
@@ -3696,13 +3752,13 @@
         <v>71</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="I48" s="7">
         <v>1</v>
       </c>
       <c r="K48" s="28" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N48" s="29" t="s">
         <v>67</v>
@@ -3711,21 +3767,21 @@
         <v>67</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="R48" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="49" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="29" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B49" s="29" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C49" s="29" t="s">
         <v>55</v>
@@ -3737,13 +3793,13 @@
         <v>71</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="I49" s="7">
         <v>1</v>
       </c>
       <c r="K49" s="28" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N49" s="29" t="s">
         <v>67</v>
@@ -3752,21 +3808,21 @@
         <v>67</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="R49" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="50" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="29" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B50" s="29" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C50" s="29" t="s">
         <v>57</v>
@@ -3778,13 +3834,13 @@
         <v>71</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="I50" s="7">
         <v>1</v>
       </c>
       <c r="K50" s="28" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N50" s="29" t="s">
         <v>67</v>
@@ -3793,21 +3849,21 @@
         <v>67</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="R50" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="51" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="29" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B51" s="29" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C51" s="29" t="s">
         <v>55</v>
@@ -3819,13 +3875,13 @@
         <v>73</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="I51" s="7">
         <v>1</v>
       </c>
       <c r="K51" s="28" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N51" s="29" t="s">
         <v>67</v>
@@ -3834,21 +3890,21 @@
         <v>67</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="R51" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="52" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="29" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B52" s="29" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C52" s="29" t="s">
         <v>57</v>
@@ -3860,13 +3916,13 @@
         <v>71</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="I52" s="7">
         <v>1</v>
       </c>
       <c r="K52" s="28" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N52" s="29" t="s">
         <v>67</v>
@@ -3875,21 +3931,21 @@
         <v>67</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="R52" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="53" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="29" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B53" s="29" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C53" s="29" t="s">
         <v>53</v>
@@ -3901,13 +3957,13 @@
         <v>71</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="I53" s="7">
         <v>1</v>
       </c>
       <c r="K53" s="28" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N53" s="29" t="s">
         <v>67</v>
@@ -3916,21 +3972,21 @@
         <v>67</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="R53" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="54" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="29" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B54" s="29" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C54" s="29" t="s">
         <v>53</v>
@@ -3942,13 +3998,13 @@
         <v>71</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="I54" s="7">
         <v>1</v>
       </c>
       <c r="K54" s="28" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N54" s="29" t="s">
         <v>67</v>
@@ -3957,13 +4013,13 @@
         <v>67</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="R54" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="55" spans="1:18" ht="30" x14ac:dyDescent="0.25">
@@ -3971,7 +4027,7 @@
         <v>5</v>
       </c>
       <c r="B55" s="29" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C55" s="27" t="s">
         <v>40</v>
@@ -3983,7 +4039,7 @@
         <v>73</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="H55" s="28">
         <v>1</v>
@@ -4000,14 +4056,14 @@
       </c>
       <c r="M55" s="28"/>
       <c r="N55" s="27" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="O55" s="27" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="P55" s="28"/>
       <c r="Q55" s="28" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="56" spans="1:18" ht="30" x14ac:dyDescent="0.25">
@@ -4015,7 +4071,7 @@
         <v>22</v>
       </c>
       <c r="B56" s="29" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C56" s="29" t="s">
         <v>58</v>
@@ -4027,7 +4083,7 @@
         <v>69</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H56" s="7">
         <v>1</v>
@@ -4042,18 +4098,18 @@
         <v>67</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="57" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="29" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B57" s="29" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C57" s="29" t="s">
         <v>58</v>
@@ -4065,7 +4121,7 @@
         <v>69</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H57" s="7">
         <v>1</v>
@@ -4080,18 +4136,18 @@
         <v>67</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="29" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B58" s="29" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C58" s="29" t="s">
         <v>56</v>
@@ -4103,13 +4159,13 @@
         <v>74</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H58" s="7">
         <v>1</v>
       </c>
       <c r="K58" s="45" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N58" s="29" t="s">
         <v>67</v>
@@ -4118,21 +4174,21 @@
         <v>67</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="R58" s="7" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="29" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B59" s="29" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C59" s="29" t="s">
         <v>54</v>
@@ -4141,19 +4197,19 @@
         <v>24</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="F59" s="29" t="s">
         <v>72</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H59" s="7">
         <v>1</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N59" s="29" t="s">
         <v>67</v>
@@ -4162,39 +4218,39 @@
         <v>67</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="R59" s="7" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="29" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B60" s="29" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C60" s="29" t="s">
         <v>55</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F60" s="29" t="s">
         <v>72</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H60" s="7">
         <v>1</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N60" s="29" t="s">
         <v>67</v>
@@ -4203,21 +4259,21 @@
         <v>67</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="R60" s="7" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="29" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B61" s="29" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C61" s="29" t="s">
         <v>54</v>
@@ -4229,13 +4285,13 @@
         <v>72</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H61" s="7">
         <v>1</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N61" s="29" t="s">
         <v>67</v>
@@ -4244,21 +4300,21 @@
         <v>67</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="R61" s="46" t="s">
-        <v>237</v>
+        <v>263</v>
       </c>
     </row>
     <row r="62" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="29" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B62" s="29" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C62" s="29" t="s">
         <v>54</v>
@@ -4270,13 +4326,13 @@
         <v>71</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="I62" s="7">
         <v>1</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N62" s="29" t="s">
         <v>67</v>
@@ -4285,21 +4341,21 @@
         <v>67</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="R62" s="46" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
     </row>
     <row r="63" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="29" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B63" s="29" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C63" s="29" t="s">
         <v>54</v>
@@ -4311,13 +4367,13 @@
         <v>71</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="I63" s="7">
         <v>1</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N63" s="29" t="s">
         <v>67</v>
@@ -4326,33 +4382,33 @@
         <v>67</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="R63" s="46" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="29" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B64" s="29" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C64" s="29" t="s">
         <v>40</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F64" s="29" t="s">
         <v>72</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="H64" s="7">
         <v>1</v>
@@ -4364,7 +4420,7 @@
         <v>1</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N64" s="29" t="s">
         <v>24</v>
@@ -4373,21 +4429,21 @@
         <v>67</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="R64" s="7" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="65" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="29" t="s">
-        <v>231</v>
+        <v>259</v>
       </c>
       <c r="B65" s="29" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C65" s="29" t="s">
         <v>58</v>
@@ -4399,36 +4455,36 @@
         <v>69</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H65" s="7">
         <v>1</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N65" s="29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O65" s="29" t="s">
         <v>67</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="R65" s="7" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="29" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="B66" s="29" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C66" s="29" t="s">
         <v>58</v>
@@ -4440,36 +4496,36 @@
         <v>69</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H66" s="7">
         <v>1</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N66" s="29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O66" s="29" t="s">
         <v>67</v>
       </c>
       <c r="P66" s="7" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="R66" s="7" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="67" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="46" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="B67" s="29" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C67" s="29" t="s">
         <v>55</v>
@@ -4481,36 +4537,36 @@
         <v>71</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="I67" s="7">
         <v>1</v>
       </c>
       <c r="K67" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N67" s="29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O67" s="29" t="s">
         <v>24</v>
       </c>
       <c r="P67" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="R67" s="46" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="68" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="46" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="B68" s="29" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C68" s="29" t="s">
         <v>55</v>
@@ -4522,36 +4578,36 @@
         <v>71</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="I68" s="7">
         <v>1</v>
       </c>
       <c r="K68" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N68" s="29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O68" s="29" t="s">
         <v>24</v>
       </c>
       <c r="P68" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="R68" s="46" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="69" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="46" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B69" s="29" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C69" s="29" t="s">
         <v>53</v>
@@ -4563,13 +4619,13 @@
         <v>71</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="H69" s="7">
         <v>1</v>
       </c>
       <c r="K69" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N69" s="29" t="s">
         <v>67</v>
@@ -4578,21 +4634,21 @@
         <v>67</v>
       </c>
       <c r="P69" s="7" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="R69" s="46" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="70" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="46" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="B70" s="29" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C70" s="29" t="s">
         <v>57</v>
@@ -4604,13 +4660,13 @@
         <v>71</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H70" s="7">
         <v>1</v>
       </c>
       <c r="K70" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N70" s="29" t="s">
         <v>67</v>
@@ -4619,21 +4675,21 @@
         <v>67</v>
       </c>
       <c r="P70" s="7" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="R70" s="46" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="71" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="46" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="B71" s="29" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C71" s="29" t="s">
         <v>53</v>
@@ -4645,13 +4701,13 @@
         <v>71</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="J71" s="7">
         <v>1</v>
       </c>
       <c r="K71" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N71" s="29" t="s">
         <v>67</v>
@@ -4660,21 +4716,21 @@
         <v>67</v>
       </c>
       <c r="P71" s="7" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="R71" s="46" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="72" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="46" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="B72" s="29" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C72" s="29" t="s">
         <v>55</v>
@@ -4686,7 +4742,7 @@
         <v>73</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="I72" s="7">
         <v>1</v>
@@ -4695,7 +4751,7 @@
         <v>1</v>
       </c>
       <c r="K72" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N72" s="29" t="s">
         <v>67</v>
@@ -4704,21 +4760,21 @@
         <v>67</v>
       </c>
       <c r="P72" s="7" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="Q72" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="R72" s="46" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="73" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="46" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="B73" s="29" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C73" s="29" t="s">
         <v>55</v>
@@ -4730,13 +4786,13 @@
         <v>71</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="I73" s="7">
         <v>1</v>
       </c>
       <c r="K73" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N73" s="29" t="s">
         <v>67</v>
@@ -4745,17 +4801,64 @@
         <v>67</v>
       </c>
       <c r="P73" s="46" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="Q73" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="R73" s="7" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="29" t="s">
+        <v>260</v>
+      </c>
+      <c r="B74" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="C74" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F74" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="G74" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="I74" s="7">
+        <v>1</v>
+      </c>
+      <c r="J74" s="7">
+        <v>1</v>
+      </c>
+      <c r="K74" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="N74" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="O74" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="P74" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q74" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="R73" s="7" t="s">
-        <v>258</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R66" xr:uid="{8B3D1752-6B94-47E8-8107-A4E5AE38FB91}"/>
+  <autoFilter ref="A1:R74" xr:uid="{8B3D1752-6B94-47E8-8107-A4E5AE38FB91}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="vurderes"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <conditionalFormatting sqref="C1:C30 C32:C60 F1:F60 F61:G63 C64:C1048576 F64:F1048576">
     <cfRule type="containsBlanks" dxfId="2" priority="5">
       <formula>LEN(TRIM(C1))=0</formula>
@@ -4798,7 +4901,7 @@
           <x14:formula1>
             <xm:f>lookup!$G$1:$G$6</xm:f>
           </x14:formula1>
-          <xm:sqref>B1:B60 B64:B1048576</xm:sqref>
+          <xm:sqref>B64:B1048576 B1:B60</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C4FDFB99-3DEE-4728-A9F7-540C5D6E0413}">
           <x14:formula1>
@@ -4847,10 +4950,10 @@
         <v>51</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C1" s="33" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D1" s="33" t="s">
         <v>33</v>
@@ -4861,10 +4964,10 @@
         <v>40</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -4872,7 +4975,7 @@
         <v>53</v>
       </c>
       <c r="B3" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -4888,7 +4991,7 @@
         <v>55</v>
       </c>
       <c r="B5" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -4896,7 +4999,7 @@
         <v>56</v>
       </c>
       <c r="B6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -4904,7 +5007,7 @@
         <v>57</v>
       </c>
       <c r="B7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4912,7 +5015,7 @@
         <v>58</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C8" s="32" t="s">
         <v>41</v>
@@ -4924,7 +5027,7 @@
         <v>69</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -4932,7 +5035,7 @@
         <v>70</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -4940,7 +5043,7 @@
         <v>71</v>
       </c>
       <c r="B11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -4948,10 +5051,10 @@
         <v>72</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -4959,7 +5062,7 @@
         <v>73</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C13" s="22" t="s">
         <v>5</v>
@@ -4970,7 +5073,7 @@
         <v>74</v>
       </c>
       <c r="B14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
@@ -4978,10 +5081,10 @@
         <v>61</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D17" s="33" t="s">
         <v>33</v>
@@ -4992,11 +5095,11 @@
         <v>40</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C18" s="22"/>
       <c r="D18" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -5004,7 +5107,7 @@
         <v>53</v>
       </c>
       <c r="B19" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -5020,7 +5123,7 @@
         <v>55</v>
       </c>
       <c r="B21" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -5028,10 +5131,10 @@
         <v>56</v>
       </c>
       <c r="B22" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D22" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -5039,10 +5142,10 @@
         <v>57</v>
       </c>
       <c r="B23" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D23" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5050,7 +5153,7 @@
         <v>58</v>
       </c>
       <c r="B24" s="35" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C24" s="32" t="s">
         <v>41</v>
@@ -5062,7 +5165,7 @@
         <v>69</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -5070,7 +5173,7 @@
         <v>70</v>
       </c>
       <c r="B26" s="36" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -5078,10 +5181,10 @@
         <v>71</v>
       </c>
       <c r="B27" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D27" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -5089,7 +5192,7 @@
         <v>72</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -5097,7 +5200,7 @@
         <v>73</v>
       </c>
       <c r="B29" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -5105,10 +5208,10 @@
         <v>74</v>
       </c>
       <c r="B30" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D30" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
@@ -5116,10 +5219,10 @@
         <v>50</v>
       </c>
       <c r="B33" s="33" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C33" s="33" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D33" s="33" t="s">
         <v>33</v>
@@ -5130,10 +5233,10 @@
         <v>40</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -5141,7 +5244,7 @@
         <v>53</v>
       </c>
       <c r="D35" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -5157,7 +5260,7 @@
         <v>55</v>
       </c>
       <c r="B37" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -5165,7 +5268,7 @@
         <v>56</v>
       </c>
       <c r="B38" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -5173,7 +5276,7 @@
         <v>57</v>
       </c>
       <c r="B39" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5181,7 +5284,7 @@
         <v>58</v>
       </c>
       <c r="B40" s="35" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C40" s="32"/>
       <c r="D40" s="32"/>
@@ -5191,10 +5294,10 @@
         <v>69</v>
       </c>
       <c r="B41" s="22" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C41" s="22" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -5202,7 +5305,7 @@
         <v>70</v>
       </c>
       <c r="B42" s="36" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -5210,7 +5313,7 @@
         <v>71</v>
       </c>
       <c r="B43" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -5218,10 +5321,10 @@
         <v>72</v>
       </c>
       <c r="B44" s="22" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C44" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -5229,7 +5332,7 @@
         <v>73</v>
       </c>
       <c r="B45" s="22" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C45" s="22" t="s">
         <v>5</v>
@@ -5240,7 +5343,7 @@
         <v>74</v>
       </c>
       <c r="B46" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -5271,19 +5374,19 @@
         <v>69</v>
       </c>
       <c r="C1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F1" s="40" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="G1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5294,19 +5397,19 @@
         <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F2" s="41" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="G2" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5317,13 +5420,13 @@
         <v>71</v>
       </c>
       <c r="D3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F3" s="42" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="G3" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5334,10 +5437,10 @@
         <v>72</v>
       </c>
       <c r="F4" s="41" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="G4" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5348,10 +5451,10 @@
         <v>73</v>
       </c>
       <c r="F5" s="42" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="G5" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5362,10 +5465,10 @@
         <v>74</v>
       </c>
       <c r="F6" s="41" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="G6" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5374,42 +5477,42 @@
       </c>
       <c r="B7" s="23"/>
       <c r="F7" s="42" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F8" s="41" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F9" s="42" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F10" s="41" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F11" s="42" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F12" s="41" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F13" s="42" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F14" s="43" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">

--- a/data/indikatorer.xlsx
+++ b/data/indikatorer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anders.kolstad\Documents\Github\indiPri\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anders.kolstad\Github\indiPri\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{045C208B-16D1-4234-9CCB-2C06F54CBFA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F082D3D1-99C9-42F1-B38F-DFCFA28B4F22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{755B2D29-11E6-40FC-B47B-120341420DDA}"/>
+    <workbookView xWindow="12840" yWindow="3105" windowWidth="38700" windowHeight="15435" xr2:uid="{755B2D29-11E6-40FC-B47B-120341420DDA}"/>
   </bookViews>
   <sheets>
     <sheet name="Indikatoroversikt" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Gammel - Dekningsgrad" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Indikatoroversikt!$A$1:$R$74</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Indikatoroversikt!$A$1:$R$75</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="269">
   <si>
     <t>PAEC pilot Trøndelg</t>
   </si>
@@ -807,9 +807,6 @@
     <t>Naturtypedatasettet</t>
   </si>
   <si>
-    <t>Indikatoren baserer seg på variablene 7TK, PRTK, 7SE og 7SL og vil dekke hele semi-naturlig mark og våtmark, samt T12, T18 o T21 for Naturlig åpne områder. Det vil også gjennomføres en pilot for å teste om vi kna beregne slitasje i våtmark med bruk av jernmåling.</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
@@ -973,6 +970,24 @@
   </si>
   <si>
     <t>Foreslått som indikator i fagsystemrapporten. Dette er en svært marginal naturtype under våtmark. Forkastet grunnet korrelasjon til indikatoren median vannstand</t>
+  </si>
+  <si>
+    <t>testes i en pilotstudie</t>
+  </si>
+  <si>
+    <t>sjøfugl</t>
+  </si>
+  <si>
+    <t>Indikatoren baserer seg på variablene 7TK, PRTK, 7SE og 7SL og vil dekke hele semi-naturlig mark og våtmark, samt T12, T18 o T21 for Naturlig åpne områder. Det vil også gjennomføres en pilot for å teste om vi kan beregne slitasje i våtmark med bruk av fjernmåling.</t>
+  </si>
+  <si>
+    <t>Slitasje - fjernmåling</t>
+  </si>
+  <si>
+    <t>LiDAR</t>
+  </si>
+  <si>
+    <t>ferdig</t>
   </si>
 </sst>
 </file>
@@ -1761,13 +1776,13 @@
   <sheetPr filterMode="1">
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:R74"/>
+  <dimension ref="A1:R75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C39" sqref="C39"/>
+      <selection pane="bottomRight" activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1796,7 +1811,7 @@
         <v>59</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C1" s="18" t="s">
         <v>60</v>
@@ -1847,12 +1862,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>129</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C2" s="27" t="s">
         <v>40</v>
@@ -1896,12 +1911,12 @@
         <v>166</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>89</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C3" s="27" t="s">
         <v>56</v>
@@ -1949,12 +1964,12 @@
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>41</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C4" s="29" t="s">
         <v>58</v>
@@ -1990,15 +2005,15 @@
         <v>119</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="60" hidden="1" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>42</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C5" s="29" t="s">
         <v>54</v>
@@ -2037,15 +2052,15 @@
         <v>119</v>
       </c>
       <c r="R5" s="29" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" ht="135" hidden="1" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="135" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>152</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C6" s="29" t="s">
         <v>55</v>
@@ -2078,12 +2093,12 @@
         <v>153</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>113</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C7" s="29" t="s">
         <v>57</v>
@@ -2125,12 +2140,12 @@
         <v>146</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>215</v>
+        <v>263</v>
       </c>
       <c r="C8" s="29" t="s">
         <v>58</v>
@@ -2169,15 +2184,15 @@
         <v>118</v>
       </c>
       <c r="R8" s="7" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
-        <v>144</v>
+        <v>264</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C9" s="29" t="s">
         <v>57</v>
@@ -2215,7 +2230,7 @@
     </row>
     <row r="10" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B10" s="29" t="s">
         <v>212</v>
@@ -2245,7 +2260,7 @@
         <v>67</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>120</v>
@@ -2256,7 +2271,7 @@
         <v>117</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C11" s="29" t="s">
         <v>58</v>
@@ -2289,7 +2304,7 @@
         <v>118</v>
       </c>
       <c r="R11" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="108.75" x14ac:dyDescent="0.25">
@@ -2297,7 +2312,7 @@
         <v>156</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C12" s="29" t="s">
         <v>53</v>
@@ -2339,7 +2354,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C13" s="27" t="s">
         <v>58</v>
@@ -2378,15 +2393,15 @@
         <v>120</v>
       </c>
       <c r="R13" s="7" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C14" s="27" t="s">
         <v>57</v>
@@ -2430,7 +2445,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C15" s="29" t="s">
         <v>54</v>
@@ -2469,7 +2484,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C16" s="29" t="s">
         <v>54</v>
@@ -2508,7 +2523,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C17" s="29" t="s">
         <v>55</v>
@@ -2545,7 +2560,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C18" s="29" t="s">
         <v>57</v>
@@ -2577,12 +2592,12 @@
         <v>160</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="30" t="s">
         <v>32</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C19" s="29" t="s">
         <v>57</v>
@@ -2611,15 +2626,15 @@
         <v>120</v>
       </c>
       <c r="R19" s="7" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>215</v>
+        <v>268</v>
       </c>
       <c r="C20" s="29" t="s">
         <v>58</v>
@@ -2658,15 +2673,15 @@
         <v>119</v>
       </c>
       <c r="R20" s="7" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
         <v>13</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>215</v>
+        <v>268</v>
       </c>
       <c r="C21" s="29" t="s">
         <v>58</v>
@@ -2705,15 +2720,15 @@
         <v>119</v>
       </c>
       <c r="R21" s="7" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="24" t="s">
         <v>14</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>215</v>
+        <v>268</v>
       </c>
       <c r="C22" s="29" t="s">
         <v>58</v>
@@ -2752,15 +2767,15 @@
         <v>119</v>
       </c>
       <c r="R22" s="7" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="24" t="s">
         <v>15</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>215</v>
+        <v>268</v>
       </c>
       <c r="C23" s="29" t="s">
         <v>58</v>
@@ -2799,15 +2814,15 @@
         <v>119</v>
       </c>
       <c r="R23" s="7" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="24" t="s">
         <v>16</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>215</v>
+        <v>268</v>
       </c>
       <c r="C24" s="29" t="s">
         <v>58</v>
@@ -2846,15 +2861,15 @@
         <v>119</v>
       </c>
       <c r="R24" s="7" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="24" t="s">
         <v>17</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>215</v>
+        <v>268</v>
       </c>
       <c r="C25" s="29" t="s">
         <v>58</v>
@@ -2893,15 +2908,15 @@
         <v>119</v>
       </c>
       <c r="R25" s="7" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="24" t="s">
         <v>18</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>215</v>
+        <v>268</v>
       </c>
       <c r="C26" s="29" t="s">
         <v>58</v>
@@ -2940,15 +2955,15 @@
         <v>119</v>
       </c>
       <c r="R26" s="7" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="24" t="s">
         <v>19</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>215</v>
+        <v>268</v>
       </c>
       <c r="C27" s="29" t="s">
         <v>58</v>
@@ -2987,15 +3002,15 @@
         <v>119</v>
       </c>
       <c r="R27" s="7" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="29" t="s">
         <v>100</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>215</v>
+        <v>268</v>
       </c>
       <c r="C28" s="29" t="s">
         <v>58</v>
@@ -3040,12 +3055,12 @@
         <v>143</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="29" t="s">
         <v>43</v>
       </c>
       <c r="B29" s="29" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C29" s="29" t="s">
         <v>54</v>
@@ -3078,15 +3093,15 @@
         <v>118</v>
       </c>
       <c r="R29" s="7" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
         <v>86</v>
       </c>
       <c r="B30" s="29" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C30" s="29" t="s">
         <v>57</v>
@@ -3119,15 +3134,15 @@
         <v>119</v>
       </c>
       <c r="R30" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="29" t="s">
         <v>75</v>
       </c>
       <c r="B31" s="29" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C31" s="29" t="s">
         <v>58</v>
@@ -3157,7 +3172,7 @@
         <v>119</v>
       </c>
       <c r="R31" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="32" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -3165,7 +3180,7 @@
         <v>76</v>
       </c>
       <c r="B32" s="29" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C32" s="29" t="s">
         <v>58</v>
@@ -3200,7 +3215,7 @@
         <v>77</v>
       </c>
       <c r="B33" s="29" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C33" s="29" t="s">
         <v>40</v>
@@ -3235,7 +3250,7 @@
         <v>78</v>
       </c>
       <c r="B34" s="29" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C34" s="29" t="s">
         <v>55</v>
@@ -3273,7 +3288,7 @@
         <v>80</v>
       </c>
       <c r="B35" s="29" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C35" s="29" t="s">
         <v>55</v>
@@ -3311,7 +3326,7 @@
         <v>88</v>
       </c>
       <c r="B36" s="29" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C36" s="29" t="s">
         <v>55</v>
@@ -3335,7 +3350,7 @@
         <v>118</v>
       </c>
       <c r="R36" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="37" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -3343,7 +3358,7 @@
         <v>81</v>
       </c>
       <c r="B37" s="29" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C37" s="29" t="s">
         <v>56</v>
@@ -3378,7 +3393,7 @@
         <v>82</v>
       </c>
       <c r="B38" s="29" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C38" s="29" t="s">
         <v>55</v>
@@ -3413,7 +3428,7 @@
         <v>83</v>
       </c>
       <c r="B39" s="29" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C39" s="29" t="s">
         <v>57</v>
@@ -3448,7 +3463,7 @@
         <v>84</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C40" s="29" t="s">
         <v>57</v>
@@ -3483,7 +3498,7 @@
         <v>85</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C41" s="29" t="s">
         <v>57</v>
@@ -3513,7 +3528,7 @@
         <v>120</v>
       </c>
       <c r="R41" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="42" spans="1:18" ht="30" x14ac:dyDescent="0.25">
@@ -3521,7 +3536,7 @@
         <v>87</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C42" s="29" t="s">
         <v>58</v>
@@ -3551,7 +3566,7 @@
         <v>119</v>
       </c>
       <c r="R42" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="43" spans="1:18" ht="45" x14ac:dyDescent="0.25">
@@ -3559,7 +3574,7 @@
         <v>90</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C43" s="29" t="s">
         <v>57</v>
@@ -3594,7 +3609,7 @@
         <v>94</v>
       </c>
       <c r="B44" s="29" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C44" s="29" t="s">
         <v>40</v>
@@ -3624,7 +3639,7 @@
         <v>118</v>
       </c>
       <c r="R44" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="45" spans="1:18" ht="30" x14ac:dyDescent="0.25">
@@ -3632,7 +3647,7 @@
         <v>96</v>
       </c>
       <c r="B45" s="29" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C45" s="29" t="s">
         <v>57</v>
@@ -3670,7 +3685,7 @@
         <v>101</v>
       </c>
       <c r="B46" s="29" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C46" s="29" t="s">
         <v>55</v>
@@ -3740,7 +3755,7 @@
         <v>102</v>
       </c>
       <c r="B48" s="29" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C48" s="29" t="s">
         <v>57</v>
@@ -3781,7 +3796,7 @@
         <v>103</v>
       </c>
       <c r="B49" s="29" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C49" s="29" t="s">
         <v>55</v>
@@ -3822,7 +3837,7 @@
         <v>104</v>
       </c>
       <c r="B50" s="29" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C50" s="29" t="s">
         <v>57</v>
@@ -3863,7 +3878,7 @@
         <v>106</v>
       </c>
       <c r="B51" s="29" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C51" s="29" t="s">
         <v>55</v>
@@ -3904,7 +3919,7 @@
         <v>107</v>
       </c>
       <c r="B52" s="29" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C52" s="29" t="s">
         <v>57</v>
@@ -3945,7 +3960,7 @@
         <v>108</v>
       </c>
       <c r="B53" s="29" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C53" s="29" t="s">
         <v>53</v>
@@ -3986,7 +4001,7 @@
         <v>110</v>
       </c>
       <c r="B54" s="29" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C54" s="29" t="s">
         <v>53</v>
@@ -4027,7 +4042,7 @@
         <v>5</v>
       </c>
       <c r="B55" s="29" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C55" s="27" t="s">
         <v>40</v>
@@ -4071,7 +4086,7 @@
         <v>22</v>
       </c>
       <c r="B56" s="29" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C56" s="29" t="s">
         <v>58</v>
@@ -4109,7 +4124,7 @@
         <v>170</v>
       </c>
       <c r="B57" s="29" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C57" s="29" t="s">
         <v>58</v>
@@ -4147,7 +4162,7 @@
         <v>172</v>
       </c>
       <c r="B58" s="29" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C58" s="29" t="s">
         <v>56</v>
@@ -4180,7 +4195,7 @@
         <v>118</v>
       </c>
       <c r="R58" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="59" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -4188,7 +4203,7 @@
         <v>186</v>
       </c>
       <c r="B59" s="29" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C59" s="29" t="s">
         <v>54</v>
@@ -4224,7 +4239,7 @@
         <v>118</v>
       </c>
       <c r="R59" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="60" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -4232,7 +4247,7 @@
         <v>189</v>
       </c>
       <c r="B60" s="29" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C60" s="29" t="s">
         <v>55</v>
@@ -4265,15 +4280,15 @@
         <v>118</v>
       </c>
       <c r="R60" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="61" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="29" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B61" s="29" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C61" s="29" t="s">
         <v>54</v>
@@ -4300,21 +4315,21 @@
         <v>67</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Q61" s="7" t="s">
         <v>118</v>
       </c>
       <c r="R61" s="46" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="62" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="29" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B62" s="29" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C62" s="29" t="s">
         <v>54</v>
@@ -4341,21 +4356,21 @@
         <v>67</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="Q62" s="7" t="s">
         <v>118</v>
       </c>
       <c r="R62" s="46" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="63" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="29" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B63" s="29" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C63" s="29" t="s">
         <v>54</v>
@@ -4382,27 +4397,27 @@
         <v>67</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="Q63" s="7" t="s">
         <v>118</v>
       </c>
       <c r="R63" s="46" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="29" t="s">
-        <v>206</v>
+        <v>266</v>
       </c>
       <c r="B64" s="29" t="s">
-        <v>210</v>
+        <v>263</v>
       </c>
       <c r="C64" s="29" t="s">
         <v>40</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>148</v>
+        <v>67</v>
       </c>
       <c r="F64" s="29" t="s">
         <v>72</v>
@@ -4413,78 +4428,76 @@
       <c r="H64" s="7">
         <v>1</v>
       </c>
-      <c r="I64" s="7">
-        <v>1</v>
-      </c>
-      <c r="J64" s="7">
-        <v>1</v>
-      </c>
       <c r="K64" s="7" t="s">
         <v>93</v>
       </c>
       <c r="N64" s="29" t="s">
-        <v>24</v>
+        <v>128</v>
       </c>
       <c r="O64" s="29" t="s">
         <v>67</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>207</v>
+        <v>267</v>
       </c>
       <c r="Q64" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="R64" s="7" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="65" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R64" s="46"/>
+    </row>
+    <row r="65" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="29" t="s">
-        <v>259</v>
+        <v>206</v>
       </c>
       <c r="B65" s="29" t="s">
-        <v>210</v>
+        <v>268</v>
       </c>
       <c r="C65" s="29" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>67</v>
+        <v>148</v>
       </c>
       <c r="F65" s="29" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>117</v>
+        <v>200</v>
       </c>
       <c r="H65" s="7">
+        <v>1</v>
+      </c>
+      <c r="I65" s="7">
+        <v>1</v>
+      </c>
+      <c r="J65" s="7">
         <v>1</v>
       </c>
       <c r="K65" s="7" t="s">
         <v>93</v>
       </c>
       <c r="N65" s="29" t="s">
-        <v>128</v>
+        <v>24</v>
       </c>
       <c r="O65" s="29" t="s">
         <v>67</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="Q65" s="7" t="s">
         <v>120</v>
       </c>
       <c r="R65" s="7" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="29" t="s">
-        <v>225</v>
+        <v>258</v>
       </c>
       <c r="B66" s="29" t="s">
-        <v>210</v>
+        <v>263</v>
       </c>
       <c r="C66" s="29" t="s">
         <v>58</v>
@@ -4511,35 +4524,35 @@
         <v>67</v>
       </c>
       <c r="P66" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="Q66" s="7" t="s">
         <v>120</v>
       </c>
       <c r="R66" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="67" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="46" t="s">
-        <v>236</v>
+      <c r="A67" s="29" t="s">
+        <v>224</v>
       </c>
       <c r="B67" s="29" t="s">
-        <v>212</v>
+        <v>263</v>
       </c>
       <c r="C67" s="29" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D67" s="7" t="s">
         <v>67</v>
       </c>
       <c r="F67" s="29" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="I67" s="7">
+        <v>117</v>
+      </c>
+      <c r="H67" s="7">
         <v>1</v>
       </c>
       <c r="K67" s="7" t="s">
@@ -4549,24 +4562,24 @@
         <v>128</v>
       </c>
       <c r="O67" s="29" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="P67" s="7" t="s">
-        <v>113</v>
+        <v>225</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="R67" s="46" t="s">
-        <v>248</v>
+        <v>120</v>
+      </c>
+      <c r="R67" s="7" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="68" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="46" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B68" s="29" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C68" s="29" t="s">
         <v>55</v>
@@ -4599,18 +4612,18 @@
         <v>119</v>
       </c>
       <c r="R68" s="46" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="69" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="46" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B69" s="29" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C69" s="29" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D69" s="7" t="s">
         <v>67</v>
@@ -4619,39 +4632,39 @@
         <v>71</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="H69" s="7">
+        <v>199</v>
+      </c>
+      <c r="I69" s="7">
         <v>1</v>
       </c>
       <c r="K69" s="7" t="s">
         <v>93</v>
       </c>
       <c r="N69" s="29" t="s">
-        <v>67</v>
+        <v>128</v>
       </c>
       <c r="O69" s="29" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="P69" s="7" t="s">
-        <v>243</v>
+        <v>113</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="R69" s="46" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="70" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="46" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B70" s="29" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C70" s="29" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D70" s="7" t="s">
         <v>67</v>
@@ -4660,7 +4673,7 @@
         <v>71</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>117</v>
+        <v>197</v>
       </c>
       <c r="H70" s="7">
         <v>1</v>
@@ -4675,24 +4688,24 @@
         <v>67</v>
       </c>
       <c r="P70" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="Q70" s="7" t="s">
         <v>118</v>
       </c>
       <c r="R70" s="46" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="71" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="46" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B71" s="29" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C71" s="29" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D71" s="7" t="s">
         <v>67</v>
@@ -4701,9 +4714,9 @@
         <v>71</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="J71" s="7">
+        <v>117</v>
+      </c>
+      <c r="H71" s="7">
         <v>1</v>
       </c>
       <c r="K71" s="7" t="s">
@@ -4716,36 +4729,33 @@
         <v>67</v>
       </c>
       <c r="P71" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="Q71" s="7" t="s">
         <v>118</v>
       </c>
       <c r="R71" s="46" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="72" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="46" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B72" s="29" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C72" s="29" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D72" s="7" t="s">
         <v>67</v>
       </c>
       <c r="F72" s="29" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="I72" s="7">
-        <v>1</v>
+        <v>197</v>
       </c>
       <c r="J72" s="7">
         <v>1</v>
@@ -4760,21 +4770,21 @@
         <v>67</v>
       </c>
       <c r="P72" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="Q72" s="7" t="s">
         <v>118</v>
       </c>
       <c r="R72" s="46" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="73" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="46" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B73" s="29" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C73" s="29" t="s">
         <v>55</v>
@@ -4783,12 +4793,15 @@
         <v>67</v>
       </c>
       <c r="F73" s="29" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="I73" s="7">
+        <v>1</v>
+      </c>
+      <c r="J73" s="7">
         <v>1</v>
       </c>
       <c r="K73" s="7" t="s">
@@ -4800,25 +4813,25 @@
       <c r="O73" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="P73" s="46" t="s">
-        <v>247</v>
+      <c r="P73" s="7" t="s">
+        <v>245</v>
       </c>
       <c r="Q73" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="R73" s="7" t="s">
-        <v>250</v>
+      <c r="R73" s="46" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="74" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="29" t="s">
-        <v>260</v>
+      <c r="A74" s="46" t="s">
+        <v>241</v>
       </c>
       <c r="B74" s="29" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C74" s="29" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D74" s="7" t="s">
         <v>67</v>
@@ -4832,9 +4845,6 @@
       <c r="I74" s="7">
         <v>1</v>
       </c>
-      <c r="J74" s="7">
-        <v>1</v>
-      </c>
       <c r="K74" s="7" t="s">
         <v>93</v>
       </c>
@@ -4844,27 +4854,74 @@
       <c r="O74" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="P74" s="7" t="s">
-        <v>261</v>
+      <c r="P74" s="46" t="s">
+        <v>246</v>
       </c>
       <c r="Q74" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="R74" s="7" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A75" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="B75" s="29" t="s">
+        <v>214</v>
+      </c>
+      <c r="C75" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F75" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="G75" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="I75" s="7">
+        <v>1</v>
+      </c>
+      <c r="J75" s="7">
+        <v>1</v>
+      </c>
+      <c r="K75" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="N75" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="O75" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="P75" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q75" s="7" t="s">
         <v>120</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R74" xr:uid="{8B3D1752-6B94-47E8-8107-A4E5AE38FB91}">
+  <autoFilter ref="A1:R75" xr:uid="{8B3D1752-6B94-47E8-8107-A4E5AE38FB91}">
     <filterColumn colId="1">
       <filters>
+        <filter val="testes i en pilotstudie"/>
+        <filter val="under utvikling"/>
+        <filter val="vil utvikles"/>
         <filter val="vurderes"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="C1:C30 C32:C60 F1:F60 F61:G63 C64:C1048576 F64:F1048576">
+  <conditionalFormatting sqref="C1:C30 C32:C60 F1:F60 F61:G64 C65:C1048576 F65:F1048576">
     <cfRule type="containsBlanks" dxfId="2" priority="5">
       <formula>LEN(TRIM(C1))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D60 G61:G63 D64:D1048576">
+  <conditionalFormatting sqref="D1:D60 G61:G64 D65:D1048576">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Ja"</formula>
     </cfRule>
@@ -4895,31 +4952,31 @@
           <x14:formula1>
             <xm:f>lookup!$A:$A</xm:f>
           </x14:formula1>
-          <xm:sqref>C1:C60 C64:C1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3B8C7DA2-BE17-4FA1-9549-2A2607BF2C7F}">
-          <x14:formula1>
-            <xm:f>lookup!$G$1:$G$6</xm:f>
-          </x14:formula1>
-          <xm:sqref>B64:B1048576 B1:B60</xm:sqref>
+          <xm:sqref>C1:C60 C65:C1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C4FDFB99-3DEE-4728-A9F7-540C5D6E0413}">
           <x14:formula1>
             <xm:f>lookup!$B:$B</xm:f>
           </x14:formula1>
-          <xm:sqref>F1:F60 G61:G63 F64:F1048576</xm:sqref>
+          <xm:sqref>F1:F60 G61:G64 F65:F1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4F741FC8-DE83-4D55-B383-F9BABC1ACE54}">
           <x14:formula1>
             <xm:f>lookup!$A$1:$A$7</xm:f>
           </x14:formula1>
-          <xm:sqref>C61:C63</xm:sqref>
+          <xm:sqref>C61:C64</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C7F3CB46-6126-4E45-B8AB-7CEFAFC7E3B7}">
           <x14:formula1>
             <xm:f>lookup!$B$1:$B$6</xm:f>
           </x14:formula1>
-          <xm:sqref>F61:F63</xm:sqref>
+          <xm:sqref>F61:F64</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{36BCFAC8-C6D9-4C1F-B0CF-E7D0955B0028}">
+          <x14:formula1>
+            <xm:f>lookup!$G$1:$G$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>B1:B1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5356,7 +5413,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G6"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5386,7 +5443,7 @@
         <v>174</v>
       </c>
       <c r="G1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5409,7 +5466,7 @@
         <v>175</v>
       </c>
       <c r="G2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5426,7 +5483,7 @@
         <v>176</v>
       </c>
       <c r="G3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5440,7 +5497,7 @@
         <v>177</v>
       </c>
       <c r="G4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5454,7 +5511,7 @@
         <v>178</v>
       </c>
       <c r="G5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5468,7 +5525,7 @@
         <v>179</v>
       </c>
       <c r="G6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5479,10 +5536,16 @@
       <c r="F7" s="42" t="s">
         <v>180</v>
       </c>
+      <c r="G7" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F8" s="41" t="s">
         <v>181</v>
+      </c>
+      <c r="G8" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/data/indikatorer.xlsx
+++ b/data/indikatorer.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anders.kolstad\Github\indiPri\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26667CC8-3E2E-4A16-A70A-69BBAF615930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78B6358-E55B-40C0-84ED-396EB59C0E80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{755B2D29-11E6-40FC-B47B-120341420DDA}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1210" uniqueCount="308">
   <si>
     <t>PAEC pilot Trøndelg</t>
   </si>
@@ -1080,6 +1080,15 @@
   </si>
   <si>
     <t>Intraspesific genetic variation</t>
+  </si>
+  <si>
+    <t>NI-produkt</t>
+  </si>
+  <si>
+    <t>NI</t>
+  </si>
+  <si>
+    <t>En generell arbeidsflyt med rettninglinjer for beregning av tilstandsverider basert på indikatorer i Naturindeksdatabasen</t>
   </si>
 </sst>
 </file>
@@ -1847,19 +1856,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B3D1752-6B94-47E8-8107-A4E5AE38FB91}">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:S78"/>
+  <dimension ref="A1:S79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B63" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A76" sqref="A76"/>
+      <selection pane="bottomRight" activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="47.42578125" style="25" customWidth="1"/>
     <col min="2" max="3" width="31.140625" style="25" customWidth="1"/>
@@ -1939,7 +1948,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>40</v>
       </c>
@@ -1989,7 +1998,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
         <v>88</v>
       </c>
@@ -2043,7 +2052,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
         <v>254</v>
       </c>
@@ -2090,7 +2099,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
         <v>255</v>
       </c>
@@ -2140,7 +2149,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="135" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
         <v>149</v>
       </c>
@@ -2178,7 +2187,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
         <v>256</v>
       </c>
@@ -2395,7 +2404,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="41.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="41.25" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
         <v>261</v>
       </c>
@@ -2484,7 +2493,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
         <v>11</v>
       </c>
@@ -2609,7 +2618,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
         <v>284</v>
       </c>
@@ -2653,7 +2662,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
         <v>283</v>
       </c>
@@ -2697,7 +2706,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
         <v>32</v>
       </c>
@@ -2741,7 +2750,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
         <v>12</v>
       </c>
@@ -2789,7 +2798,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
         <v>13</v>
       </c>
@@ -2837,7 +2846,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
         <v>14</v>
       </c>
@@ -2885,7 +2894,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="s">
         <v>15</v>
       </c>
@@ -2933,7 +2942,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
         <v>16</v>
       </c>
@@ -2981,7 +2990,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="s">
         <v>17</v>
       </c>
@@ -3029,7 +3038,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="23" t="s">
         <v>18</v>
       </c>
@@ -3077,7 +3086,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="23" t="s">
         <v>19</v>
       </c>
@@ -3125,7 +3134,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
         <v>99</v>
       </c>
@@ -3175,7 +3184,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="25" t="s">
         <v>267</v>
       </c>
@@ -3216,7 +3225,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" ht="120" x14ac:dyDescent="0.25">
       <c r="A30" s="25" t="s">
         <v>43</v>
       </c>
@@ -3263,7 +3272,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="25" t="s">
         <v>271</v>
       </c>
@@ -3307,7 +3316,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>272</v>
       </c>
@@ -3704,7 +3713,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="43" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>274</v>
       </c>
@@ -3856,7 +3865,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="47" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>287</v>
       </c>
@@ -3900,7 +3909,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="48" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="25" t="s">
         <v>277</v>
       </c>
@@ -4017,7 +4026,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="51" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="25" t="s">
         <v>280</v>
       </c>
@@ -4102,7 +4111,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="25" t="s">
         <v>298</v>
       </c>
@@ -4187,7 +4196,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="55" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="25" t="s">
         <v>300</v>
       </c>
@@ -4352,7 +4361,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="59" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="25" t="s">
         <v>161</v>
       </c>
@@ -4683,7 +4692,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="67" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="25" t="s">
         <v>197</v>
       </c>
@@ -4771,7 +4780,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="69" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>290</v>
       </c>
@@ -5156,7 +5165,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="78" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="25" t="s">
         <v>304</v>
       </c>
@@ -5200,14 +5209,45 @@
         <v>299</v>
       </c>
     </row>
+    <row r="79" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A79" s="25" t="s">
+        <v>256</v>
+      </c>
+      <c r="B79" s="25" t="s">
+        <v>305</v>
+      </c>
+      <c r="C79" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="D79" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="G79" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="H79" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="I79" s="7">
+        <v>1</v>
+      </c>
+      <c r="O79" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="P79" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q79" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="R79" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="S79" s="7" t="s">
+        <v>307</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:S78" xr:uid="{8B3D1752-6B94-47E8-8107-A4E5AE38FB91}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="forkastet"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <conditionalFormatting sqref="D1:D62">
     <cfRule type="containsBlanks" dxfId="2" priority="1">
       <formula>LEN(TRIM(D1))=0</formula>
